--- a/GMED_Model.xlsx
+++ b/GMED_Model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Equity Research\Models\Health Care\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{885FB603-3856-4FA3-938C-4FEBCE52C7C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B07E587-9CD3-4C22-8B5A-067EFD4EDE6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43095" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28702" yWindow="-98" windowWidth="28995" windowHeight="15675" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -2105,7 +2105,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Model!$C$1:$BD$1</c:f>
+              <c:f>Model!$C$2:$BD$2</c:f>
               <c:strCache>
                 <c:ptCount val="54"/>
                 <c:pt idx="0">
@@ -2275,7 +2275,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$C$2:$BD$2</c:f>
+              <c:f>Model!$C$3:$BD$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="54"/>
@@ -2468,7 +2468,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Model!$C$12:$BD$12</c:f>
+              <c:f>Model!$C$13:$BD$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="54"/>
@@ -3666,13 +3666,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" customWidth="1"/>
+    <col min="1" max="1" width="3.265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3">
@@ -3739,3120 +3739,3078 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F12961AC-5DA3-4B77-A415-DF08C03E640D}">
-  <dimension ref="B1:BD24"/>
+  <dimension ref="B2:BD25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A21" sqref="A21"/>
+      <selection pane="bottomRight" activeCell="Q38" sqref="Q38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.7109375" style="4" customWidth="1"/>
-    <col min="3" max="5" width="9.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="56" width="9.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="57" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="3.265625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.73046875" style="4" customWidth="1"/>
+    <col min="3" max="5" width="9.265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.3984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="56" width="9.265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="57" max="16384" width="9.1328125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:56">
-      <c r="C1" s="6" t="s">
+    <row r="2" spans="2:56">
+      <c r="C2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="O2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="P2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="Q2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="R2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="S2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="T2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="U2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="V2" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="W1" s="6" t="s">
+      <c r="W2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="X1" s="6" t="s">
+      <c r="X2" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="Y1" s="6" t="s">
+      <c r="Y2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="Z1" s="6" t="s">
+      <c r="Z2" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="AA1" s="6" t="s">
+      <c r="AA2" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="AB1" s="6" t="s">
+      <c r="AB2" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="AC1" s="6" t="s">
+      <c r="AC2" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="AD1" s="6" t="s">
+      <c r="AD2" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="AE1" s="6" t="s">
+      <c r="AE2" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="AF1" s="6" t="s">
+      <c r="AF2" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="AG1" s="6" t="s">
+      <c r="AG2" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="AH1" s="6" t="s">
+      <c r="AH2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="AI1" s="6" t="s">
+      <c r="AI2" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="AJ1" s="6" t="s">
+      <c r="AJ2" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="AK1" s="6" t="s">
+      <c r="AK2" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="AL1" s="6" t="s">
+      <c r="AL2" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="AM1" s="6" t="s">
+      <c r="AM2" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="AN1" s="6" t="s">
+      <c r="AN2" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="AO1" s="6" t="s">
+      <c r="AO2" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="AP1" s="6" t="s">
+      <c r="AP2" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="AQ1" s="6" t="s">
+      <c r="AQ2" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="AR1" s="6" t="s">
+      <c r="AR2" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="AS1" s="6" t="s">
+      <c r="AS2" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AT1" s="6" t="s">
+      <c r="AT2" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="AU1" s="6" t="s">
+      <c r="AU2" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="AV1" s="6" t="s">
+      <c r="AV2" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="AW1" s="6" t="s">
+      <c r="AW2" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="AX1" s="6" t="s">
+      <c r="AX2" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="AY1" s="6" t="s">
+      <c r="AY2" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="AZ1" s="6" t="s">
+      <c r="AZ2" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="BA1" s="6" t="s">
+      <c r="BA2" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="BB1" s="6" t="s">
+      <c r="BB2" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="BC1" s="6" t="s">
+      <c r="BC2" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="BD1" s="6" t="s">
+      <c r="BD2" s="6" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="2:56" ht="15">
-      <c r="B2" s="7" t="s">
+    <row r="3" spans="2:56" ht="13.9">
+      <c r="B3" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C3" s="7">
         <v>80.900000000000006</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D3" s="7">
         <v>84.3</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E3" s="7">
         <v>94.7</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F3" s="7">
         <v>96</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G3" s="7">
         <v>94.8</v>
       </c>
-      <c r="H2" s="7">
+      <c r="H3" s="7">
         <v>100.5</v>
       </c>
-      <c r="I2" s="7">
+      <c r="I3" s="7">
         <v>105</v>
       </c>
-      <c r="J2" s="7">
+      <c r="J3" s="7">
         <v>107</v>
       </c>
-      <c r="K2" s="7">
+      <c r="K3" s="7">
         <v>107.2</v>
       </c>
-      <c r="L2" s="7">
+      <c r="L3" s="7">
         <v>115.2</v>
       </c>
-      <c r="M2" s="7">
+      <c r="M3" s="7">
         <v>114.2</v>
       </c>
-      <c r="N2" s="7">
+      <c r="N3" s="7">
         <v>113.6</v>
       </c>
-      <c r="O2" s="7">
+      <c r="O3" s="7">
         <v>117.8</v>
       </c>
-      <c r="P2" s="7">
+      <c r="P3" s="7">
         <v>128.80000000000001</v>
       </c>
-      <c r="Q2" s="7">
+      <c r="Q3" s="7">
         <v>131.6</v>
       </c>
-      <c r="R2" s="7">
+      <c r="R3" s="7">
         <v>133.6</v>
       </c>
-      <c r="S2" s="7">
+      <c r="S3" s="7">
         <v>137</v>
       </c>
-      <c r="T2" s="7">
+      <c r="T3" s="7">
         <v>142.6</v>
       </c>
-      <c r="U2" s="7">
+      <c r="U3" s="7">
         <v>139.30000000000001</v>
       </c>
-      <c r="V2" s="7">
+      <c r="V3" s="7">
         <v>137.5</v>
       </c>
-      <c r="W2" s="7">
+      <c r="W3" s="7">
         <v>135.69999999999999</v>
       </c>
-      <c r="X2" s="7">
+      <c r="X3" s="7">
         <v>151.6</v>
       </c>
-      <c r="Y2" s="7">
+      <c r="Y3" s="7">
         <v>155.80000000000001</v>
       </c>
-      <c r="Z2" s="7">
+      <c r="Z3" s="7">
         <v>152.4</v>
       </c>
-      <c r="AA2" s="7">
+      <c r="AA3" s="7">
         <v>151.69999999999999</v>
       </c>
-      <c r="AB2" s="7">
+      <c r="AB3" s="7">
         <v>176</v>
       </c>
-      <c r="AC2" s="7">
+      <c r="AC3" s="7">
         <v>174.4</v>
       </c>
-      <c r="AD2" s="7">
+      <c r="AD3" s="7">
         <v>173.4</v>
       </c>
-      <c r="AE2" s="7">
+      <c r="AE3" s="7">
         <v>169.2</v>
       </c>
-      <c r="AF2" s="7">
+      <c r="AF3" s="7">
         <v>195.9</v>
       </c>
-      <c r="AG2" s="7">
+      <c r="AG3" s="7">
         <v>182.9</v>
       </c>
-      <c r="AH2" s="7">
+      <c r="AH3" s="7">
         <v>194.5</v>
       </c>
-      <c r="AI2" s="7">
+      <c r="AI3" s="7">
         <v>196.2</v>
       </c>
-      <c r="AJ2" s="7">
+      <c r="AJ3" s="7">
         <v>211.7</v>
       </c>
-      <c r="AK2" s="7">
+      <c r="AK3" s="7">
         <v>190.6</v>
       </c>
-      <c r="AL2" s="7">
+      <c r="AL3" s="7">
         <v>148.9</v>
       </c>
-      <c r="AM2" s="7">
+      <c r="AM3" s="7">
         <v>216.1</v>
       </c>
-      <c r="AN2" s="7">
+      <c r="AN3" s="7">
         <v>233.4</v>
       </c>
-      <c r="AO2" s="7">
+      <c r="AO3" s="7">
         <v>227.3</v>
       </c>
-      <c r="AP2" s="7">
+      <c r="AP3" s="7">
         <v>251</v>
       </c>
-      <c r="AQ2" s="7">
+      <c r="AQ3" s="7">
         <v>229.7</v>
       </c>
-      <c r="AR2" s="7">
+      <c r="AR3" s="7">
         <v>250</v>
       </c>
-      <c r="AS2" s="7">
+      <c r="AS3" s="7">
         <v>230.5</v>
       </c>
-      <c r="AT2" s="7">
+      <c r="AT3" s="7">
         <v>263.60000000000002</v>
       </c>
-      <c r="AU2" s="7">
+      <c r="AU3" s="7">
         <v>254.1</v>
       </c>
-      <c r="AV2" s="7">
+      <c r="AV3" s="7">
         <v>274.5</v>
       </c>
-      <c r="AW2" s="7">
+      <c r="AW3" s="7">
         <v>276.7</v>
       </c>
-      <c r="AX2" s="7">
+      <c r="AX3" s="7">
         <v>291.60000000000002</v>
       </c>
-      <c r="AY2" s="7">
+      <c r="AY3" s="7">
         <v>383.6</v>
       </c>
-      <c r="AZ2" s="7">
+      <c r="AZ3" s="7">
         <v>616.5</v>
       </c>
-      <c r="BA2" s="7">
+      <c r="BA3" s="7">
         <v>606.70000000000005</v>
       </c>
-      <c r="BB2" s="7">
+      <c r="BB3" s="7">
         <v>629.70000000000005</v>
       </c>
-      <c r="BC2" s="7">
+      <c r="BC3" s="7">
         <v>625.70000000000005</v>
       </c>
-      <c r="BD2" s="7">
+      <c r="BD3" s="7">
         <v>657.3</v>
-      </c>
-    </row>
-    <row r="3" spans="2:56">
-      <c r="B3" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C3" s="6">
-        <v>17.3</v>
-      </c>
-      <c r="D3" s="6">
-        <v>17.100000000000001</v>
-      </c>
-      <c r="E3" s="6">
-        <v>18.399999999999999</v>
-      </c>
-      <c r="F3" s="6">
-        <v>18.399999999999999</v>
-      </c>
-      <c r="G3" s="6">
-        <v>18.899999999999999</v>
-      </c>
-      <c r="H3" s="6">
-        <v>19.600000000000001</v>
-      </c>
-      <c r="I3" s="6">
-        <v>23.5</v>
-      </c>
-      <c r="J3" s="6">
-        <v>24.8</v>
-      </c>
-      <c r="K3" s="6">
-        <v>25.3</v>
-      </c>
-      <c r="L3" s="6">
-        <v>26.8</v>
-      </c>
-      <c r="M3" s="6">
-        <v>25.3</v>
-      </c>
-      <c r="N3" s="6">
-        <v>26.6</v>
-      </c>
-      <c r="O3" s="6">
-        <v>27.7</v>
-      </c>
-      <c r="P3" s="6">
-        <v>31.2</v>
-      </c>
-      <c r="Q3" s="6">
-        <v>32.1</v>
-      </c>
-      <c r="R3" s="6">
-        <v>32.6</v>
-      </c>
-      <c r="S3" s="6">
-        <v>32.9</v>
-      </c>
-      <c r="T3" s="6">
-        <v>34.700000000000003</v>
-      </c>
-      <c r="U3" s="6">
-        <v>31.5</v>
-      </c>
-      <c r="V3" s="6">
-        <v>32.700000000000003</v>
-      </c>
-      <c r="W3" s="6">
-        <v>31.5</v>
-      </c>
-      <c r="X3" s="6">
-        <v>39</v>
-      </c>
-      <c r="Y3" s="6">
-        <v>35.6</v>
-      </c>
-      <c r="Z3" s="6">
-        <v>37.200000000000003</v>
-      </c>
-      <c r="AA3" s="6">
-        <v>36.799999999999997</v>
-      </c>
-      <c r="AB3" s="6">
-        <v>40.9</v>
-      </c>
-      <c r="AC3" s="6">
-        <v>38</v>
-      </c>
-      <c r="AD3" s="6">
-        <v>37.6</v>
-      </c>
-      <c r="AE3" s="6">
-        <v>37.799999999999997</v>
-      </c>
-      <c r="AF3" s="6">
-        <v>46</v>
-      </c>
-      <c r="AG3" s="6">
-        <v>41.8</v>
-      </c>
-      <c r="AH3" s="6">
-        <v>44</v>
-      </c>
-      <c r="AI3" s="6">
-        <v>45.4</v>
-      </c>
-      <c r="AJ3" s="6">
-        <v>48.8</v>
-      </c>
-      <c r="AK3" s="6">
-        <v>48.9</v>
-      </c>
-      <c r="AL3" s="6">
-        <v>50.6</v>
-      </c>
-      <c r="AM3" s="6">
-        <v>57.1</v>
-      </c>
-      <c r="AN3" s="6">
-        <v>60.9</v>
-      </c>
-      <c r="AO3" s="6">
-        <v>55</v>
-      </c>
-      <c r="AP3" s="6">
-        <v>63.8</v>
-      </c>
-      <c r="AQ3" s="6">
-        <v>58.6</v>
-      </c>
-      <c r="AR3" s="6">
-        <v>61.8</v>
-      </c>
-      <c r="AS3" s="6">
-        <v>59.2</v>
-      </c>
-      <c r="AT3" s="6">
-        <v>68.5</v>
-      </c>
-      <c r="AU3" s="6">
-        <v>65.5</v>
-      </c>
-      <c r="AV3" s="6">
-        <v>70.599999999999994</v>
-      </c>
-      <c r="AW3" s="6">
-        <v>70.8</v>
-      </c>
-      <c r="AX3" s="6">
-        <v>76.5</v>
-      </c>
-      <c r="AY3" s="6">
-        <v>135.4</v>
-      </c>
-      <c r="AZ3" s="6">
-        <v>265.5</v>
-      </c>
-      <c r="BA3" s="6">
-        <v>241.5</v>
-      </c>
-      <c r="BB3" s="6">
-        <v>260</v>
-      </c>
-      <c r="BC3" s="6">
-        <v>270.5</v>
-      </c>
-      <c r="BD3" s="6">
-        <v>263.39999999999998</v>
       </c>
     </row>
     <row r="4" spans="2:56">
       <c r="B4" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C4" s="6">
-        <v>63.7</v>
+        <v>17.3</v>
       </c>
       <c r="D4" s="6">
-        <v>67.099999999999994</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="E4" s="6">
-        <v>76.3</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="F4" s="6">
-        <v>77.599999999999994</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="G4" s="6">
-        <v>75.900000000000006</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="H4" s="6">
-        <v>81</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="I4" s="6">
-        <v>81.5</v>
+        <v>23.5</v>
       </c>
       <c r="J4" s="6">
-        <v>82.2</v>
+        <v>24.8</v>
       </c>
       <c r="K4" s="6">
-        <v>81.900000000000006</v>
+        <v>25.3</v>
       </c>
       <c r="L4" s="6">
-        <v>88.5</v>
+        <v>26.8</v>
       </c>
       <c r="M4" s="6">
-        <v>88.9</v>
+        <v>25.3</v>
       </c>
       <c r="N4" s="6">
-        <v>87</v>
+        <v>26.6</v>
       </c>
       <c r="O4" s="6">
-        <v>90.1</v>
+        <v>27.7</v>
       </c>
       <c r="P4" s="6">
-        <v>97.6</v>
+        <v>31.2</v>
       </c>
       <c r="Q4" s="6">
-        <v>99.5</v>
+        <v>32.1</v>
       </c>
       <c r="R4" s="6">
-        <v>101</v>
+        <v>32.6</v>
       </c>
       <c r="S4" s="6">
-        <v>104.1</v>
+        <v>32.9</v>
       </c>
       <c r="T4" s="6">
-        <v>107.9</v>
+        <v>34.700000000000003</v>
       </c>
       <c r="U4" s="6">
-        <v>107.7</v>
+        <v>31.5</v>
       </c>
       <c r="V4" s="6">
-        <v>104.8</v>
+        <v>32.700000000000003</v>
       </c>
       <c r="W4" s="6">
-        <v>104.2</v>
+        <v>31.5</v>
       </c>
       <c r="X4" s="6">
-        <v>112.6</v>
+        <v>39</v>
       </c>
       <c r="Y4" s="6">
-        <v>120.2</v>
+        <v>35.6</v>
       </c>
       <c r="Z4" s="6">
-        <v>115.2</v>
+        <v>37.200000000000003</v>
       </c>
       <c r="AA4" s="6">
-        <v>114.9</v>
+        <v>36.799999999999997</v>
       </c>
       <c r="AB4" s="6">
-        <v>135.19999999999999</v>
+        <v>40.9</v>
       </c>
       <c r="AC4" s="6">
-        <v>136.4</v>
+        <v>38</v>
       </c>
       <c r="AD4" s="6">
-        <v>135.69999999999999</v>
+        <v>37.6</v>
       </c>
       <c r="AE4" s="6">
-        <v>131.4</v>
+        <v>37.799999999999997</v>
       </c>
       <c r="AF4" s="6">
-        <v>150</v>
+        <v>46</v>
       </c>
       <c r="AG4" s="6">
-        <v>141.1</v>
+        <v>41.8</v>
       </c>
       <c r="AH4" s="6">
-        <v>150.5</v>
+        <v>44</v>
       </c>
       <c r="AI4" s="6">
-        <v>150.80000000000001</v>
+        <v>45.4</v>
       </c>
       <c r="AJ4" s="6">
-        <v>162.9</v>
+        <v>48.8</v>
       </c>
       <c r="AK4" s="6">
-        <v>141.69999999999999</v>
+        <v>48.9</v>
       </c>
       <c r="AL4" s="6">
-        <v>98.3</v>
+        <v>50.6</v>
       </c>
       <c r="AM4" s="6">
-        <v>159</v>
+        <v>57.1</v>
       </c>
       <c r="AN4" s="6">
-        <v>172.6</v>
+        <v>60.9</v>
       </c>
       <c r="AO4" s="6">
-        <v>172.3</v>
+        <v>55</v>
       </c>
       <c r="AP4" s="6">
-        <v>187.2</v>
+        <v>63.8</v>
       </c>
       <c r="AQ4" s="6">
-        <v>171.2</v>
+        <v>58.6</v>
       </c>
       <c r="AR4" s="6">
-        <v>188.2</v>
+        <v>61.8</v>
       </c>
       <c r="AS4" s="6">
-        <v>171.4</v>
+        <v>59.2</v>
       </c>
       <c r="AT4" s="6">
-        <v>195.2</v>
+        <v>68.5</v>
       </c>
       <c r="AU4" s="6">
-        <v>188.7</v>
+        <v>65.5</v>
       </c>
       <c r="AV4" s="6">
-        <v>203.9</v>
+        <v>70.599999999999994</v>
       </c>
       <c r="AW4" s="6">
-        <v>205.9</v>
+        <v>70.8</v>
       </c>
       <c r="AX4" s="6">
-        <v>215.1</v>
+        <v>76.5</v>
       </c>
       <c r="AY4" s="6">
-        <v>248.2</v>
+        <v>135.4</v>
       </c>
       <c r="AZ4" s="6">
-        <v>351</v>
+        <v>265.5</v>
       </c>
       <c r="BA4" s="6">
-        <v>365.2</v>
+        <v>241.5</v>
       </c>
       <c r="BB4" s="6">
-        <v>369.7</v>
+        <v>260</v>
       </c>
       <c r="BC4" s="6">
-        <v>355.2</v>
+        <v>270.5</v>
       </c>
       <c r="BD4" s="6">
-        <v>393.9</v>
+        <v>263.39999999999998</v>
       </c>
     </row>
     <row r="5" spans="2:56">
       <c r="B5" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C5" s="6">
-        <v>33.799999999999997</v>
+        <v>63.7</v>
       </c>
       <c r="D5" s="6">
-        <v>34.799999999999997</v>
+        <v>67.099999999999994</v>
       </c>
       <c r="E5" s="6">
-        <v>41.2</v>
+        <v>76.3</v>
       </c>
       <c r="F5" s="6">
-        <v>41.2</v>
+        <v>77.599999999999994</v>
       </c>
       <c r="G5" s="6">
-        <v>41.8</v>
+        <v>75.900000000000006</v>
       </c>
       <c r="H5" s="6">
-        <v>44.6</v>
+        <v>81</v>
       </c>
       <c r="I5" s="6">
-        <v>45.4</v>
+        <v>81.5</v>
       </c>
       <c r="J5" s="6">
-        <v>45.8</v>
+        <v>82.2</v>
       </c>
       <c r="K5" s="6">
-        <v>45.7</v>
+        <v>81.900000000000006</v>
       </c>
       <c r="L5" s="6">
-        <v>45.7</v>
+        <v>88.5</v>
       </c>
       <c r="M5" s="6">
-        <v>46.7</v>
+        <v>88.9</v>
       </c>
       <c r="N5" s="6">
-        <v>46.4</v>
+        <v>87</v>
       </c>
       <c r="O5" s="6">
-        <v>47</v>
+        <v>90.1</v>
       </c>
       <c r="P5" s="6">
-        <v>48.5</v>
+        <v>97.6</v>
       </c>
       <c r="Q5" s="6">
-        <v>52.3</v>
+        <v>99.5</v>
       </c>
       <c r="R5" s="6">
-        <v>54.5</v>
+        <v>101</v>
       </c>
       <c r="S5" s="6">
-        <v>52.2</v>
+        <v>104.1</v>
       </c>
       <c r="T5" s="6">
-        <v>51.3</v>
+        <v>107.9</v>
       </c>
       <c r="U5" s="6">
-        <v>53.8</v>
+        <v>107.7</v>
       </c>
       <c r="V5" s="6">
-        <v>53.3</v>
+        <v>104.8</v>
       </c>
       <c r="W5" s="6">
-        <v>54.2</v>
+        <v>104.2</v>
       </c>
       <c r="X5" s="6">
-        <v>60.8</v>
+        <v>112.6</v>
       </c>
       <c r="Y5" s="6">
-        <v>67.099999999999994</v>
+        <v>120.2</v>
       </c>
       <c r="Z5" s="6">
-        <v>64.400000000000006</v>
+        <v>115.2</v>
       </c>
       <c r="AA5" s="6">
-        <v>63.4</v>
+        <v>114.9</v>
       </c>
       <c r="AB5" s="6">
-        <v>73</v>
+        <v>135.19999999999999</v>
       </c>
       <c r="AC5" s="6">
-        <v>75.7</v>
+        <v>136.4</v>
       </c>
       <c r="AD5" s="6">
-        <v>77.099999999999994</v>
+        <v>135.69999999999999</v>
       </c>
       <c r="AE5" s="6">
-        <v>75.099999999999994</v>
+        <v>131.4</v>
       </c>
       <c r="AF5" s="6">
-        <v>83.6</v>
+        <v>150</v>
       </c>
       <c r="AG5" s="6">
-        <v>85.8</v>
+        <v>141.1</v>
       </c>
       <c r="AH5" s="6">
-        <v>88.4</v>
+        <v>150.5</v>
       </c>
       <c r="AI5" s="6">
-        <v>88.5</v>
+        <v>150.80000000000001</v>
       </c>
       <c r="AJ5" s="6">
-        <v>92.1</v>
+        <v>162.9</v>
       </c>
       <c r="AK5" s="6">
-        <v>93.5</v>
+        <v>141.69999999999999</v>
       </c>
       <c r="AL5" s="6">
-        <v>80</v>
+        <v>98.3</v>
       </c>
       <c r="AM5" s="6">
-        <v>89.2</v>
+        <v>159</v>
       </c>
       <c r="AN5" s="6">
-        <v>92</v>
+        <v>172.6</v>
       </c>
       <c r="AO5" s="6">
-        <v>97.9</v>
+        <v>172.3</v>
       </c>
       <c r="AP5" s="6">
-        <v>107.3</v>
+        <v>187.2</v>
       </c>
       <c r="AQ5" s="6">
-        <v>96.4</v>
+        <v>171.2</v>
       </c>
       <c r="AR5" s="6">
-        <v>106.6</v>
+        <v>188.2</v>
       </c>
       <c r="AS5" s="6">
-        <v>100.7</v>
+        <v>171.4</v>
       </c>
       <c r="AT5" s="6">
-        <v>106.7</v>
+        <v>195.2</v>
       </c>
       <c r="AU5" s="6">
-        <v>106.6</v>
+        <v>188.7</v>
       </c>
       <c r="AV5" s="6">
-        <v>118.1</v>
+        <v>203.9</v>
       </c>
       <c r="AW5" s="6">
-        <v>122.4</v>
+        <v>205.9</v>
       </c>
       <c r="AX5" s="6">
-        <v>120.1</v>
+        <v>215.1</v>
       </c>
       <c r="AY5" s="6">
-        <v>156.19999999999999</v>
+        <v>248.2</v>
       </c>
       <c r="AZ5" s="6">
-        <v>244.7</v>
+        <v>351</v>
       </c>
       <c r="BA5" s="6">
-        <v>248.7</v>
+        <v>365.2</v>
       </c>
       <c r="BB5" s="6">
-        <v>238.1</v>
+        <v>369.7</v>
       </c>
       <c r="BC5" s="6">
-        <v>240.7</v>
+        <v>355.2</v>
       </c>
       <c r="BD5" s="6">
-        <v>253.5</v>
+        <v>393.9</v>
       </c>
     </row>
     <row r="6" spans="2:56">
       <c r="B6" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C6" s="6">
-        <v>5.7</v>
+        <v>33.799999999999997</v>
       </c>
       <c r="D6" s="6">
-        <v>5.9</v>
+        <v>34.799999999999997</v>
       </c>
       <c r="E6" s="6">
-        <v>6.7</v>
+        <v>41.2</v>
       </c>
       <c r="F6" s="6">
-        <v>6.9</v>
+        <v>41.2</v>
       </c>
       <c r="G6" s="6">
-        <v>7</v>
+        <v>41.8</v>
       </c>
       <c r="H6" s="6">
-        <v>7.2</v>
+        <v>44.6</v>
       </c>
       <c r="I6" s="6">
-        <v>6.8</v>
+        <v>45.4</v>
       </c>
       <c r="J6" s="6">
-        <v>7</v>
+        <v>45.8</v>
       </c>
       <c r="K6" s="6">
-        <v>6.6</v>
+        <v>45.7</v>
       </c>
       <c r="L6" s="6">
-        <v>6.4</v>
+        <v>45.7</v>
       </c>
       <c r="M6" s="6">
-        <v>7.4</v>
+        <v>46.7</v>
       </c>
       <c r="N6" s="6">
-        <v>7.7</v>
+        <v>46.4</v>
       </c>
       <c r="O6" s="6">
-        <v>8.1</v>
+        <v>47</v>
       </c>
       <c r="P6" s="6">
-        <v>7.9</v>
+        <v>48.5</v>
       </c>
       <c r="Q6" s="6">
-        <v>8.6999999999999993</v>
+        <v>52.3</v>
       </c>
       <c r="R6" s="6">
-        <v>9.1</v>
+        <v>54.5</v>
       </c>
       <c r="S6" s="6">
-        <v>9.1999999999999993</v>
+        <v>52.2</v>
       </c>
       <c r="T6" s="6">
-        <v>9.3000000000000007</v>
+        <v>51.3</v>
       </c>
       <c r="U6" s="6">
-        <v>10</v>
+        <v>53.8</v>
       </c>
       <c r="V6" s="6">
-        <v>10.6</v>
+        <v>53.3</v>
       </c>
       <c r="W6" s="6">
-        <v>10.3</v>
+        <v>54.2</v>
       </c>
       <c r="X6" s="6">
-        <v>13.6</v>
+        <v>60.8</v>
       </c>
       <c r="Y6" s="6">
-        <v>10.7</v>
+        <v>67.099999999999994</v>
       </c>
       <c r="Z6" s="6">
-        <v>10.7</v>
+        <v>64.400000000000006</v>
       </c>
       <c r="AA6" s="6">
-        <v>10.9</v>
+        <v>63.4</v>
       </c>
       <c r="AB6" s="6">
-        <v>11.4</v>
+        <v>73</v>
       </c>
       <c r="AC6" s="6">
-        <v>12.7</v>
+        <v>75.7</v>
       </c>
       <c r="AD6" s="6">
-        <v>13.5</v>
+        <v>77.099999999999994</v>
       </c>
       <c r="AE6" s="6">
-        <v>15.5</v>
+        <v>75.099999999999994</v>
       </c>
       <c r="AF6" s="6">
-        <v>13.8</v>
+        <v>83.6</v>
       </c>
       <c r="AG6" s="6">
-        <v>14.3</v>
+        <v>85.8</v>
       </c>
       <c r="AH6" s="6">
-        <v>15.7</v>
+        <v>88.4</v>
       </c>
       <c r="AI6" s="6">
-        <v>14.5</v>
+        <v>88.5</v>
       </c>
       <c r="AJ6" s="6">
-        <v>15.5</v>
+        <v>92.1</v>
       </c>
       <c r="AK6" s="6">
-        <v>15.4</v>
+        <v>93.5</v>
       </c>
       <c r="AL6" s="6">
-        <v>39.5</v>
+        <v>80</v>
       </c>
       <c r="AM6" s="6">
-        <v>14.4</v>
+        <v>89.2</v>
       </c>
       <c r="AN6" s="6">
-        <v>15.2</v>
+        <v>92</v>
       </c>
       <c r="AO6" s="6">
-        <v>14.9</v>
+        <v>97.9</v>
       </c>
       <c r="AP6" s="6">
-        <v>15.5</v>
+        <v>107.3</v>
       </c>
       <c r="AQ6" s="6">
-        <v>15.9</v>
+        <v>96.4</v>
       </c>
       <c r="AR6" s="6">
-        <v>51</v>
+        <v>106.6</v>
       </c>
       <c r="AS6" s="6">
-        <v>17.399999999999999</v>
+        <v>100.7</v>
       </c>
       <c r="AT6" s="6">
-        <v>17.399999999999999</v>
+        <v>106.7</v>
       </c>
       <c r="AU6" s="6">
-        <v>18.7</v>
+        <v>106.6</v>
       </c>
       <c r="AV6" s="6">
-        <v>19.5</v>
+        <v>118.1</v>
       </c>
       <c r="AW6" s="6">
-        <v>21.1</v>
+        <v>122.4</v>
       </c>
       <c r="AX6" s="6">
-        <v>21.3</v>
+        <v>120.1</v>
       </c>
       <c r="AY6" s="6">
-        <v>29.3</v>
+        <v>156.19999999999999</v>
       </c>
       <c r="AZ6" s="6">
-        <v>52.3</v>
+        <v>244.7</v>
       </c>
       <c r="BA6" s="6">
-        <v>57.3</v>
+        <v>248.7</v>
       </c>
       <c r="BB6" s="6">
-        <v>37.700000000000003</v>
+        <v>238.1</v>
       </c>
       <c r="BC6" s="6">
-        <v>35.4</v>
+        <v>240.7</v>
       </c>
       <c r="BD6" s="6">
-        <v>33.4</v>
+        <v>253.5</v>
       </c>
     </row>
     <row r="7" spans="2:56">
       <c r="B7" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="6">
+        <v>5.7</v>
+      </c>
+      <c r="D7" s="6">
+        <v>5.9</v>
+      </c>
+      <c r="E7" s="6">
+        <v>6.7</v>
+      </c>
+      <c r="F7" s="6">
+        <v>6.9</v>
+      </c>
+      <c r="G7" s="6">
+        <v>7</v>
+      </c>
+      <c r="H7" s="6">
+        <v>7.2</v>
+      </c>
+      <c r="I7" s="6">
+        <v>6.8</v>
+      </c>
+      <c r="J7" s="6">
+        <v>7</v>
+      </c>
+      <c r="K7" s="6">
+        <v>6.6</v>
+      </c>
+      <c r="L7" s="6">
+        <v>6.4</v>
+      </c>
+      <c r="M7" s="6">
+        <v>7.4</v>
+      </c>
+      <c r="N7" s="6">
+        <v>7.7</v>
+      </c>
+      <c r="O7" s="6">
+        <v>8.1</v>
+      </c>
+      <c r="P7" s="6">
+        <v>7.9</v>
+      </c>
+      <c r="Q7" s="6">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="R7" s="6">
+        <v>9.1</v>
+      </c>
+      <c r="S7" s="6">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="T7" s="6">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="U7" s="6">
+        <v>10</v>
+      </c>
+      <c r="V7" s="6">
+        <v>10.6</v>
+      </c>
+      <c r="W7" s="6">
+        <v>10.3</v>
+      </c>
+      <c r="X7" s="6">
+        <v>13.6</v>
+      </c>
+      <c r="Y7" s="6">
+        <v>10.7</v>
+      </c>
+      <c r="Z7" s="6">
+        <v>10.7</v>
+      </c>
+      <c r="AA7" s="6">
+        <v>10.9</v>
+      </c>
+      <c r="AB7" s="6">
+        <v>11.4</v>
+      </c>
+      <c r="AC7" s="6">
+        <v>12.7</v>
+      </c>
+      <c r="AD7" s="6">
+        <v>13.5</v>
+      </c>
+      <c r="AE7" s="6">
+        <v>15.5</v>
+      </c>
+      <c r="AF7" s="6">
+        <v>13.8</v>
+      </c>
+      <c r="AG7" s="6">
+        <v>14.3</v>
+      </c>
+      <c r="AH7" s="6">
+        <v>15.7</v>
+      </c>
+      <c r="AI7" s="6">
+        <v>14.5</v>
+      </c>
+      <c r="AJ7" s="6">
+        <v>15.5</v>
+      </c>
+      <c r="AK7" s="6">
+        <v>15.4</v>
+      </c>
+      <c r="AL7" s="6">
+        <v>39.5</v>
+      </c>
+      <c r="AM7" s="6">
+        <v>14.4</v>
+      </c>
+      <c r="AN7" s="6">
+        <v>15.2</v>
+      </c>
+      <c r="AO7" s="6">
+        <v>14.9</v>
+      </c>
+      <c r="AP7" s="6">
+        <v>15.5</v>
+      </c>
+      <c r="AQ7" s="6">
+        <v>15.9</v>
+      </c>
+      <c r="AR7" s="6">
+        <v>51</v>
+      </c>
+      <c r="AS7" s="6">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="AT7" s="6">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="AU7" s="6">
+        <v>18.7</v>
+      </c>
+      <c r="AV7" s="6">
+        <v>19.5</v>
+      </c>
+      <c r="AW7" s="6">
+        <v>21.1</v>
+      </c>
+      <c r="AX7" s="6">
+        <v>21.3</v>
+      </c>
+      <c r="AY7" s="6">
+        <v>29.3</v>
+      </c>
+      <c r="AZ7" s="6">
+        <v>52.3</v>
+      </c>
+      <c r="BA7" s="6">
+        <v>57.3</v>
+      </c>
+      <c r="BB7" s="6">
+        <v>37.700000000000003</v>
+      </c>
+      <c r="BC7" s="6">
+        <v>35.4</v>
+      </c>
+      <c r="BD7" s="6">
+        <v>33.4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:56">
+      <c r="B8" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C8" s="6">
         <v>39.9</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D8" s="6">
         <v>40.6</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E8" s="6">
         <v>48.3</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F8" s="6">
         <v>47</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G8" s="6">
         <v>48.8</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H8" s="6">
         <v>51.9</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I8" s="6">
         <v>52.3</v>
       </c>
-      <c r="J7" s="6">
+      <c r="J8" s="6">
         <v>71.099999999999994</v>
       </c>
-      <c r="K7" s="6">
+      <c r="K8" s="6">
         <v>52.4</v>
       </c>
-      <c r="L7" s="6">
+      <c r="L8" s="6">
         <v>56.7</v>
       </c>
-      <c r="M7" s="6">
+      <c r="M8" s="6">
         <v>56.7</v>
       </c>
-      <c r="N7" s="6">
+      <c r="N8" s="6">
         <v>55.4</v>
       </c>
-      <c r="O7" s="6">
+      <c r="O8" s="6">
         <v>55.2</v>
       </c>
-      <c r="P7" s="6">
+      <c r="P8" s="6">
         <v>58</v>
       </c>
-      <c r="Q7" s="6">
+      <c r="Q8" s="6">
         <v>61</v>
       </c>
-      <c r="R7" s="6">
+      <c r="R8" s="6">
         <v>64</v>
       </c>
-      <c r="S7" s="6">
+      <c r="S8" s="6">
         <v>63.4</v>
       </c>
-      <c r="T7" s="6">
+      <c r="T8" s="6">
         <v>51.9</v>
       </c>
-      <c r="U7" s="6">
+      <c r="U8" s="6">
         <v>64.900000000000006</v>
       </c>
-      <c r="V7" s="6">
+      <c r="V8" s="6">
         <v>66.8</v>
       </c>
-      <c r="W7" s="6">
+      <c r="W8" s="6">
         <v>66.5</v>
       </c>
-      <c r="X7" s="6">
+      <c r="X8" s="6">
         <v>76.900000000000006</v>
       </c>
-      <c r="Y7" s="6">
+      <c r="Y8" s="6">
         <v>79.900000000000006</v>
       </c>
-      <c r="Z7" s="6">
+      <c r="Z8" s="6">
         <v>77.8</v>
       </c>
-      <c r="AA7" s="6">
+      <c r="AA8" s="6">
         <v>79.2</v>
       </c>
-      <c r="AB7" s="6">
+      <c r="AB8" s="6">
         <v>86.8</v>
       </c>
-      <c r="AC7" s="6">
+      <c r="AC8" s="6">
         <v>90.8</v>
       </c>
-      <c r="AD7" s="6">
+      <c r="AD8" s="6">
         <v>93.6</v>
       </c>
-      <c r="AE7" s="6">
+      <c r="AE8" s="6">
         <v>93.1</v>
       </c>
-      <c r="AF7" s="6">
+      <c r="AF8" s="6">
         <v>106.7</v>
       </c>
-      <c r="AG7" s="6">
+      <c r="AG8" s="6">
         <v>104</v>
       </c>
-      <c r="AH7" s="6">
+      <c r="AH8" s="6">
         <v>107.7</v>
       </c>
-      <c r="AI7" s="6">
+      <c r="AI8" s="6">
         <v>108.8</v>
       </c>
-      <c r="AJ7" s="6">
+      <c r="AJ8" s="6">
         <v>112.9</v>
       </c>
-      <c r="AK7" s="6">
+      <c r="AK8" s="6">
         <v>113.3</v>
       </c>
-      <c r="AL7" s="6">
+      <c r="AL8" s="6">
         <v>123.8</v>
       </c>
-      <c r="AM7" s="6">
+      <c r="AM8" s="6">
         <v>109</v>
       </c>
-      <c r="AN7" s="6">
+      <c r="AN8" s="6">
         <v>114.1</v>
       </c>
-      <c r="AO7" s="6">
+      <c r="AO8" s="6">
         <v>117.8</v>
       </c>
-      <c r="AP7" s="6">
+      <c r="AP8" s="6">
         <v>141.30000000000001</v>
       </c>
-      <c r="AQ7" s="6">
+      <c r="AQ8" s="6">
         <v>117.8</v>
       </c>
-      <c r="AR7" s="6">
+      <c r="AR8" s="6">
         <v>170</v>
       </c>
-      <c r="AS7" s="6">
+      <c r="AS8" s="6">
         <v>124.9</v>
       </c>
-      <c r="AT7" s="6">
+      <c r="AT8" s="6">
         <v>127.4</v>
       </c>
-      <c r="AU7" s="6">
+      <c r="AU8" s="6">
         <v>128.9</v>
       </c>
-      <c r="AV7" s="6">
+      <c r="AV8" s="6">
         <v>149.9</v>
       </c>
-      <c r="AW7" s="6">
+      <c r="AW8" s="6">
         <v>149.5</v>
       </c>
-      <c r="AX7" s="6">
+      <c r="AX8" s="6">
         <v>148.9</v>
       </c>
-      <c r="AY7" s="6">
+      <c r="AY8" s="6">
         <v>247.8</v>
       </c>
-      <c r="AZ7" s="6">
+      <c r="AZ8" s="6">
         <v>340.9</v>
       </c>
-      <c r="BA7" s="6">
+      <c r="BA8" s="6">
         <v>357.2</v>
       </c>
-      <c r="BB7" s="6">
+      <c r="BB8" s="6">
         <v>320</v>
       </c>
-      <c r="BC7" s="6">
+      <c r="BC8" s="6">
         <v>307.10000000000002</v>
       </c>
-      <c r="BD7" s="6">
+      <c r="BD8" s="6">
         <v>333.6</v>
       </c>
     </row>
-    <row r="8" spans="2:56" ht="15">
-      <c r="B8" s="7" t="s">
+    <row r="9" spans="2:56" ht="13.9">
+      <c r="B9" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C9" s="7">
         <v>23.8</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D9" s="7">
         <v>26.5</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E9" s="7">
         <v>28.1</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F9" s="7">
         <v>30.6</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G9" s="7">
         <v>27.1</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H9" s="7">
         <v>29.1</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I9" s="7">
         <v>29.2</v>
       </c>
-      <c r="J8" s="7">
+      <c r="J9" s="7">
         <v>11.2</v>
       </c>
-      <c r="K8" s="7">
+      <c r="K9" s="7">
         <v>29.5</v>
       </c>
-      <c r="L8" s="7">
+      <c r="L9" s="7">
         <v>31.7</v>
       </c>
-      <c r="M8" s="7">
+      <c r="M9" s="7">
         <v>32.200000000000003</v>
       </c>
-      <c r="N8" s="7">
+      <c r="N9" s="7">
         <v>31.6</v>
       </c>
-      <c r="O8" s="7">
+      <c r="O9" s="7">
         <v>34.9</v>
       </c>
-      <c r="P8" s="7">
+      <c r="P9" s="7">
         <v>39.6</v>
       </c>
-      <c r="Q8" s="7">
+      <c r="Q9" s="7">
         <v>38.5</v>
       </c>
-      <c r="R8" s="7">
+      <c r="R9" s="7">
         <v>37</v>
       </c>
-      <c r="S8" s="7">
+      <c r="S9" s="7">
         <v>40.700000000000003</v>
       </c>
-      <c r="T8" s="7">
+      <c r="T9" s="7">
         <v>56</v>
       </c>
-      <c r="U8" s="7">
+      <c r="U9" s="7">
         <v>42.9</v>
       </c>
-      <c r="V8" s="7">
+      <c r="V9" s="7">
         <v>37.9</v>
       </c>
-      <c r="W8" s="7">
+      <c r="W9" s="7">
         <v>37.6</v>
       </c>
-      <c r="X8" s="7">
+      <c r="X9" s="7">
         <v>35.700000000000003</v>
       </c>
-      <c r="Y8" s="7">
+      <c r="Y9" s="7">
         <v>40.299999999999997</v>
       </c>
-      <c r="Z8" s="7">
+      <c r="Z9" s="7">
         <v>37.4</v>
       </c>
-      <c r="AA8" s="7">
+      <c r="AA9" s="7">
         <v>35.799999999999997</v>
       </c>
-      <c r="AB8" s="7">
+      <c r="AB9" s="7">
         <v>48.4</v>
       </c>
-      <c r="AC8" s="7">
+      <c r="AC9" s="7">
         <v>45.6</v>
       </c>
-      <c r="AD8" s="7">
+      <c r="AD9" s="7">
         <v>42.1</v>
       </c>
-      <c r="AE8" s="7">
+      <c r="AE9" s="7">
         <v>38.299999999999997</v>
       </c>
-      <c r="AF8" s="7">
+      <c r="AF9" s="7">
         <v>43.3</v>
       </c>
-      <c r="AG8" s="7">
+      <c r="AG9" s="7">
         <v>37.1</v>
       </c>
-      <c r="AH8" s="7">
+      <c r="AH9" s="7">
         <v>42.9</v>
       </c>
-      <c r="AI8" s="7">
+      <c r="AI9" s="7">
         <v>42.1</v>
       </c>
-      <c r="AJ8" s="7">
+      <c r="AJ9" s="7">
         <v>50</v>
       </c>
-      <c r="AK8" s="7">
+      <c r="AK9" s="7">
         <v>28.4</v>
       </c>
-      <c r="AL8" s="7">
+      <c r="AL9" s="7">
         <v>-25.6</v>
       </c>
-      <c r="AM8" s="7">
+      <c r="AM9" s="7">
         <v>50</v>
       </c>
-      <c r="AN8" s="7">
+      <c r="AN9" s="7">
         <v>58.5</v>
       </c>
-      <c r="AO8" s="7">
+      <c r="AO9" s="7">
         <v>54.5</v>
       </c>
-      <c r="AP8" s="7">
+      <c r="AP9" s="7">
         <v>45.9</v>
       </c>
-      <c r="AQ8" s="7">
+      <c r="AQ9" s="7">
         <v>53.3</v>
       </c>
-      <c r="AR8" s="7">
+      <c r="AR9" s="7">
         <v>18.2</v>
       </c>
-      <c r="AS8" s="7">
+      <c r="AS9" s="7">
         <v>46.4</v>
       </c>
-      <c r="AT8" s="7">
+      <c r="AT9" s="7">
         <v>67.8</v>
       </c>
-      <c r="AU8" s="7">
+      <c r="AU9" s="7">
         <v>59.7</v>
       </c>
-      <c r="AV8" s="7">
+      <c r="AV9" s="7">
         <v>54</v>
       </c>
-      <c r="AW8" s="7">
+      <c r="AW9" s="7">
         <v>56.4</v>
       </c>
-      <c r="AX8" s="7">
+      <c r="AX9" s="7">
         <v>66.2</v>
       </c>
-      <c r="AY8" s="7">
+      <c r="AY9" s="7">
         <v>0.4</v>
       </c>
-      <c r="AZ8" s="7">
+      <c r="AZ9" s="7">
         <v>10.1</v>
       </c>
-      <c r="BA8" s="7">
+      <c r="BA9" s="7">
         <v>8</v>
       </c>
-      <c r="BB8" s="7">
+      <c r="BB9" s="7">
         <v>49.6</v>
       </c>
-      <c r="BC8" s="7">
+      <c r="BC9" s="7">
         <v>48.1</v>
       </c>
-      <c r="BD8" s="7">
+      <c r="BD9" s="7">
         <v>60.3</v>
-      </c>
-    </row>
-    <row r="9" spans="2:56">
-      <c r="B9" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C9" s="6">
-        <v>0</v>
-      </c>
-      <c r="D9" s="6">
-        <v>-0.2</v>
-      </c>
-      <c r="E9" s="6">
-        <v>0.2</v>
-      </c>
-      <c r="F9" s="6">
-        <v>-0.3</v>
-      </c>
-      <c r="G9" s="6">
-        <v>0</v>
-      </c>
-      <c r="H9" s="6">
-        <v>-0.2</v>
-      </c>
-      <c r="I9" s="6">
-        <v>0.3</v>
-      </c>
-      <c r="J9" s="6">
-        <v>-0.2</v>
-      </c>
-      <c r="K9" s="6">
-        <v>0.2</v>
-      </c>
-      <c r="L9" s="6">
-        <v>0.4</v>
-      </c>
-      <c r="M9" s="6">
-        <v>0.2</v>
-      </c>
-      <c r="N9" s="6">
-        <v>0.3</v>
-      </c>
-      <c r="O9" s="6">
-        <v>-0.2</v>
-      </c>
-      <c r="P9" s="6">
-        <v>0.2</v>
-      </c>
-      <c r="Q9" s="6">
-        <v>-0.3</v>
-      </c>
-      <c r="R9" s="6">
-        <v>0.4</v>
-      </c>
-      <c r="S9" s="6">
-        <v>0.3</v>
-      </c>
-      <c r="T9" s="6">
-        <v>0.8</v>
-      </c>
-      <c r="U9" s="6">
-        <v>0.8</v>
-      </c>
-      <c r="V9" s="6">
-        <v>0.4</v>
-      </c>
-      <c r="W9" s="6">
-        <v>1.2</v>
-      </c>
-      <c r="X9" s="6">
-        <v>0.8</v>
-      </c>
-      <c r="Y9" s="6">
-        <v>2.1</v>
-      </c>
-      <c r="Z9" s="6">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="AA9" s="6">
-        <v>1.6</v>
-      </c>
-      <c r="AB9" s="6">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="AC9" s="6">
-        <v>2.4</v>
-      </c>
-      <c r="AD9" s="6">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="AE9" s="6">
-        <v>4.3</v>
-      </c>
-      <c r="AF9" s="6">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="AG9" s="6">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="AH9" s="6">
-        <v>4.2</v>
-      </c>
-      <c r="AI9" s="6">
-        <v>4.7</v>
-      </c>
-      <c r="AJ9" s="6">
-        <v>4.5</v>
-      </c>
-      <c r="AK9" s="6">
-        <v>4</v>
-      </c>
-      <c r="AL9" s="6">
-        <v>3.6</v>
-      </c>
-      <c r="AM9" s="6">
-        <v>2.9</v>
-      </c>
-      <c r="AN9" s="6">
-        <v>3.9</v>
-      </c>
-      <c r="AO9" s="6">
-        <v>2.6</v>
-      </c>
-      <c r="AP9" s="6">
-        <v>3.1</v>
-      </c>
-      <c r="AQ9" s="6">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="AR9" s="6">
-        <v>1.6</v>
-      </c>
-      <c r="AS9" s="6">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="AT9" s="6">
-        <v>2.8</v>
-      </c>
-      <c r="AU9" s="6">
-        <v>1.8</v>
-      </c>
-      <c r="AV9" s="6">
-        <v>8.4</v>
-      </c>
-      <c r="AW9" s="6">
-        <v>6.8</v>
-      </c>
-      <c r="AX9" s="6">
-        <v>8.5</v>
-      </c>
-      <c r="AY9" s="6">
-        <v>2.1</v>
-      </c>
-      <c r="AZ9" s="6">
-        <v>14.9</v>
-      </c>
-      <c r="BA9" s="6">
-        <v>-16.600000000000001</v>
-      </c>
-      <c r="BB9" s="6">
-        <v>-2</v>
-      </c>
-      <c r="BC9" s="6">
-        <v>8.9</v>
-      </c>
-      <c r="BD9" s="6">
-        <v>-35.6</v>
       </c>
     </row>
     <row r="10" spans="2:56">
       <c r="B10" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C10" s="6">
-        <v>23.8</v>
+        <v>0</v>
       </c>
       <c r="D10" s="6">
-        <v>26.4</v>
+        <v>-0.2</v>
       </c>
       <c r="E10" s="6">
-        <v>28.3</v>
+        <v>0.2</v>
       </c>
       <c r="F10" s="6">
-        <v>30.3</v>
+        <v>-0.3</v>
       </c>
       <c r="G10" s="6">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="H10" s="6">
-        <v>29.1</v>
+        <v>-0.2</v>
       </c>
       <c r="I10" s="6">
-        <v>29.5</v>
+        <v>0.3</v>
       </c>
       <c r="J10" s="6">
-        <v>11</v>
+        <v>-0.2</v>
       </c>
       <c r="K10" s="6">
-        <v>29.7</v>
+        <v>0.2</v>
       </c>
       <c r="L10" s="6">
-        <v>31.8</v>
+        <v>0.4</v>
       </c>
       <c r="M10" s="6">
-        <v>32.5</v>
+        <v>0.2</v>
       </c>
       <c r="N10" s="6">
-        <v>31.9</v>
+        <v>0.3</v>
       </c>
       <c r="O10" s="6">
-        <v>34.799999999999997</v>
+        <v>-0.2</v>
       </c>
       <c r="P10" s="6">
-        <v>39.5</v>
+        <v>0.2</v>
       </c>
       <c r="Q10" s="6">
-        <v>38.200000000000003</v>
+        <v>-0.3</v>
       </c>
       <c r="R10" s="6">
-        <v>37.5</v>
+        <v>0.4</v>
       </c>
       <c r="S10" s="6">
-        <v>40.9</v>
+        <v>0.3</v>
       </c>
       <c r="T10" s="6">
-        <v>56.2</v>
+        <v>0.8</v>
       </c>
       <c r="U10" s="6">
-        <v>43.6</v>
+        <v>0.8</v>
       </c>
       <c r="V10" s="6">
-        <v>38.299999999999997</v>
+        <v>0.4</v>
       </c>
       <c r="W10" s="6">
-        <v>38.9</v>
+        <v>1.2</v>
       </c>
       <c r="X10" s="6">
-        <v>36.5</v>
+        <v>0.8</v>
       </c>
       <c r="Y10" s="6">
-        <v>42.4</v>
+        <v>2.1</v>
       </c>
       <c r="Z10" s="6">
-        <v>39.6</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="AA10" s="6">
-        <v>37.4</v>
+        <v>1.6</v>
       </c>
       <c r="AB10" s="6">
-        <v>50.6</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="AC10" s="6">
-        <v>48.1</v>
+        <v>2.4</v>
       </c>
       <c r="AD10" s="6">
-        <v>50.3</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="AE10" s="6">
-        <v>42.6</v>
+        <v>4.3</v>
       </c>
       <c r="AF10" s="6">
-        <v>47.6</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="AG10" s="6">
-        <v>41.7</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="AH10" s="6">
-        <v>47.1</v>
+        <v>4.2</v>
       </c>
       <c r="AI10" s="6">
-        <v>46.8</v>
+        <v>4.7</v>
       </c>
       <c r="AJ10" s="6">
-        <v>54.4</v>
+        <v>4.5</v>
       </c>
       <c r="AK10" s="6">
-        <v>32.5</v>
+        <v>4</v>
       </c>
       <c r="AL10" s="6">
-        <v>-21.9</v>
+        <v>3.6</v>
       </c>
       <c r="AM10" s="6">
-        <v>52.9</v>
+        <v>2.9</v>
       </c>
       <c r="AN10" s="6">
-        <v>62.4</v>
+        <v>3.9</v>
       </c>
       <c r="AO10" s="6">
-        <v>57.2</v>
+        <v>2.6</v>
       </c>
       <c r="AP10" s="6">
-        <v>48.9</v>
+        <v>3.1</v>
       </c>
       <c r="AQ10" s="6">
-        <v>54.5</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AR10" s="6">
-        <v>19.8</v>
+        <v>1.6</v>
       </c>
       <c r="AS10" s="6">
-        <v>48.9</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="AT10" s="6">
-        <v>70.5</v>
+        <v>2.8</v>
       </c>
       <c r="AU10" s="6">
-        <v>61.5</v>
+        <v>1.8</v>
       </c>
       <c r="AV10" s="6">
-        <v>62.1</v>
+        <v>8.4</v>
       </c>
       <c r="AW10" s="6">
-        <v>63.2</v>
+        <v>6.8</v>
       </c>
       <c r="AX10" s="6">
-        <v>74.7</v>
+        <v>8.5</v>
       </c>
       <c r="AY10" s="6">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="AZ10" s="6">
-        <v>25</v>
+        <v>14.9</v>
       </c>
       <c r="BA10" s="6">
-        <v>-8.6</v>
+        <v>-16.600000000000001</v>
       </c>
       <c r="BB10" s="6">
-        <v>47.6</v>
+        <v>-2</v>
       </c>
       <c r="BC10" s="6">
-        <v>57</v>
+        <v>8.9</v>
       </c>
       <c r="BD10" s="6">
-        <v>24.7</v>
+        <v>-35.6</v>
       </c>
     </row>
     <row r="11" spans="2:56">
       <c r="B11" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" s="6">
+        <v>23.8</v>
+      </c>
+      <c r="D11" s="6">
+        <v>26.4</v>
+      </c>
+      <c r="E11" s="6">
+        <v>28.3</v>
+      </c>
+      <c r="F11" s="6">
+        <v>30.3</v>
+      </c>
+      <c r="G11" s="6">
+        <v>27</v>
+      </c>
+      <c r="H11" s="6">
+        <v>29.1</v>
+      </c>
+      <c r="I11" s="6">
+        <v>29.5</v>
+      </c>
+      <c r="J11" s="6">
+        <v>11</v>
+      </c>
+      <c r="K11" s="6">
+        <v>29.7</v>
+      </c>
+      <c r="L11" s="6">
+        <v>31.8</v>
+      </c>
+      <c r="M11" s="6">
+        <v>32.5</v>
+      </c>
+      <c r="N11" s="6">
+        <v>31.9</v>
+      </c>
+      <c r="O11" s="6">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="P11" s="6">
+        <v>39.5</v>
+      </c>
+      <c r="Q11" s="6">
+        <v>38.200000000000003</v>
+      </c>
+      <c r="R11" s="6">
+        <v>37.5</v>
+      </c>
+      <c r="S11" s="6">
+        <v>40.9</v>
+      </c>
+      <c r="T11" s="6">
+        <v>56.2</v>
+      </c>
+      <c r="U11" s="6">
+        <v>43.6</v>
+      </c>
+      <c r="V11" s="6">
+        <v>38.299999999999997</v>
+      </c>
+      <c r="W11" s="6">
+        <v>38.9</v>
+      </c>
+      <c r="X11" s="6">
+        <v>36.5</v>
+      </c>
+      <c r="Y11" s="6">
+        <v>42.4</v>
+      </c>
+      <c r="Z11" s="6">
+        <v>39.6</v>
+      </c>
+      <c r="AA11" s="6">
+        <v>37.4</v>
+      </c>
+      <c r="AB11" s="6">
+        <v>50.6</v>
+      </c>
+      <c r="AC11" s="6">
+        <v>48.1</v>
+      </c>
+      <c r="AD11" s="6">
+        <v>50.3</v>
+      </c>
+      <c r="AE11" s="6">
+        <v>42.6</v>
+      </c>
+      <c r="AF11" s="6">
+        <v>47.6</v>
+      </c>
+      <c r="AG11" s="6">
+        <v>41.7</v>
+      </c>
+      <c r="AH11" s="6">
+        <v>47.1</v>
+      </c>
+      <c r="AI11" s="6">
+        <v>46.8</v>
+      </c>
+      <c r="AJ11" s="6">
+        <v>54.4</v>
+      </c>
+      <c r="AK11" s="6">
+        <v>32.5</v>
+      </c>
+      <c r="AL11" s="6">
+        <v>-21.9</v>
+      </c>
+      <c r="AM11" s="6">
+        <v>52.9</v>
+      </c>
+      <c r="AN11" s="6">
+        <v>62.4</v>
+      </c>
+      <c r="AO11" s="6">
+        <v>57.2</v>
+      </c>
+      <c r="AP11" s="6">
+        <v>48.9</v>
+      </c>
+      <c r="AQ11" s="6">
+        <v>54.5</v>
+      </c>
+      <c r="AR11" s="6">
+        <v>19.8</v>
+      </c>
+      <c r="AS11" s="6">
+        <v>48.9</v>
+      </c>
+      <c r="AT11" s="6">
+        <v>70.5</v>
+      </c>
+      <c r="AU11" s="6">
+        <v>61.5</v>
+      </c>
+      <c r="AV11" s="6">
+        <v>62.1</v>
+      </c>
+      <c r="AW11" s="6">
+        <v>63.2</v>
+      </c>
+      <c r="AX11" s="6">
+        <v>74.7</v>
+      </c>
+      <c r="AY11" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="AZ11" s="6">
+        <v>25</v>
+      </c>
+      <c r="BA11" s="6">
+        <v>-8.6</v>
+      </c>
+      <c r="BB11" s="6">
+        <v>47.6</v>
+      </c>
+      <c r="BC11" s="6">
+        <v>57</v>
+      </c>
+      <c r="BD11" s="6">
+        <v>24.7</v>
+      </c>
+    </row>
+    <row r="12" spans="2:56">
+      <c r="B12" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C12" s="6">
         <v>7.9</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D12" s="6">
         <v>9.5</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E12" s="6">
         <v>10.7</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F12" s="6">
         <v>11.3</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G12" s="6">
         <v>10.5</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H12" s="6">
         <v>8.3000000000000007</v>
       </c>
-      <c r="I11" s="6">
+      <c r="I12" s="6">
         <v>9.6</v>
       </c>
-      <c r="J11" s="6">
+      <c r="J12" s="6">
         <v>3.5</v>
       </c>
-      <c r="K11" s="6">
+      <c r="K12" s="6">
         <v>9.4</v>
       </c>
-      <c r="L11" s="6">
+      <c r="L12" s="6">
         <v>10.8</v>
       </c>
-      <c r="M11" s="6">
+      <c r="M12" s="6">
         <v>11.3</v>
       </c>
-      <c r="N11" s="6">
+      <c r="N12" s="6">
         <v>11.2</v>
       </c>
-      <c r="O11" s="6">
+      <c r="O12" s="6">
         <v>11.7</v>
       </c>
-      <c r="P11" s="6">
+      <c r="P12" s="6">
         <v>11.8</v>
       </c>
-      <c r="Q11" s="6">
+      <c r="Q12" s="6">
         <v>13.5</v>
       </c>
-      <c r="R11" s="6">
+      <c r="R12" s="6">
         <v>13.4</v>
       </c>
-      <c r="S11" s="6">
+      <c r="S12" s="6">
         <v>14.4</v>
       </c>
-      <c r="T11" s="6">
+      <c r="T12" s="6">
         <v>18.600000000000001</v>
       </c>
-      <c r="U11" s="6">
+      <c r="U12" s="6">
         <v>15.6</v>
       </c>
-      <c r="V11" s="6">
+      <c r="V12" s="6">
         <v>12.5</v>
       </c>
-      <c r="W11" s="6">
+      <c r="W12" s="6">
         <v>12.6</v>
       </c>
-      <c r="X11" s="6">
+      <c r="X12" s="6">
         <v>12.2</v>
       </c>
-      <c r="Y11" s="6">
+      <c r="Y12" s="6">
         <v>13.7</v>
       </c>
-      <c r="Z11" s="6">
+      <c r="Z12" s="6">
         <v>10.9</v>
       </c>
-      <c r="AA11" s="6">
+      <c r="AA12" s="6">
         <v>11.8</v>
       </c>
-      <c r="AB11" s="6">
+      <c r="AB12" s="6">
         <v>26.2</v>
       </c>
-      <c r="AC11" s="6">
+      <c r="AC12" s="6">
         <v>8.5</v>
       </c>
-      <c r="AD11" s="6">
+      <c r="AD12" s="6">
         <v>5.3</v>
       </c>
-      <c r="AE11" s="6">
+      <c r="AE12" s="6">
         <v>7.4</v>
       </c>
-      <c r="AF11" s="6">
+      <c r="AF12" s="6">
         <v>10.9</v>
       </c>
-      <c r="AG11" s="6">
+      <c r="AG12" s="6">
         <v>8.4</v>
       </c>
-      <c r="AH11" s="6">
+      <c r="AH12" s="6">
         <v>8.9</v>
       </c>
-      <c r="AI11" s="6">
+      <c r="AI12" s="6">
         <v>8.4</v>
       </c>
-      <c r="AJ11" s="6">
+      <c r="AJ12" s="6">
         <v>8.9</v>
       </c>
-      <c r="AK11" s="6">
+      <c r="AK12" s="6">
         <v>6.5</v>
       </c>
-      <c r="AL11" s="6">
+      <c r="AL12" s="6">
         <v>-1.1000000000000001</v>
       </c>
-      <c r="AM11" s="6">
+      <c r="AM12" s="6">
         <v>8.9</v>
       </c>
-      <c r="AN11" s="6">
+      <c r="AN12" s="6">
         <v>9.3000000000000007</v>
       </c>
-      <c r="AO11" s="6">
+      <c r="AO12" s="6">
         <v>11.9</v>
       </c>
-      <c r="AP11" s="6">
+      <c r="AP12" s="6">
         <v>7.4</v>
       </c>
-      <c r="AQ11" s="6">
+      <c r="AQ12" s="6">
         <v>7.2</v>
       </c>
-      <c r="AR11" s="6">
+      <c r="AR12" s="6">
         <v>4.7</v>
       </c>
-      <c r="AS11" s="6">
+      <c r="AS12" s="6">
         <v>10.8</v>
       </c>
-      <c r="AT11" s="6">
+      <c r="AT12" s="6">
         <v>16</v>
       </c>
-      <c r="AU11" s="6">
+      <c r="AU12" s="6">
         <v>14</v>
       </c>
-      <c r="AV11" s="6">
+      <c r="AV12" s="6">
         <v>12.1</v>
       </c>
-      <c r="AW11" s="6">
+      <c r="AW12" s="6">
         <v>14.1</v>
       </c>
-      <c r="AX11" s="6">
+      <c r="AX12" s="6">
         <v>17</v>
       </c>
-      <c r="AY11" s="6">
+      <c r="AY12" s="6">
         <v>1.5</v>
       </c>
-      <c r="AZ11" s="6">
+      <c r="AZ12" s="6">
         <v>10</v>
       </c>
-      <c r="BA11" s="6">
+      <c r="BA12" s="6">
         <v>-1.4</v>
       </c>
-      <c r="BB11" s="6">
+      <c r="BB12" s="6">
         <v>15.8</v>
       </c>
-      <c r="BC11" s="6">
+      <c r="BC12" s="6">
         <v>5.2</v>
       </c>
-      <c r="BD11" s="6">
+      <c r="BD12" s="6">
         <v>-1.8</v>
       </c>
     </row>
-    <row r="12" spans="2:56" ht="15">
-      <c r="B12" s="7" t="s">
+    <row r="13" spans="2:56" ht="13.9">
+      <c r="B13" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C13" s="7">
         <v>15.9</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D13" s="7">
         <v>16.899999999999999</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E13" s="7">
         <v>17.600000000000001</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F13" s="7">
         <v>19</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G13" s="7">
         <v>16.5</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H13" s="7">
         <v>20.8</v>
       </c>
-      <c r="I12" s="7">
+      <c r="I13" s="7">
         <v>19.899999999999999</v>
       </c>
-      <c r="J12" s="7">
+      <c r="J13" s="7">
         <v>7.4</v>
       </c>
-      <c r="K12" s="7">
+      <c r="K13" s="7">
         <v>20.3</v>
       </c>
-      <c r="L12" s="7">
+      <c r="L13" s="7">
         <v>21</v>
       </c>
-      <c r="M12" s="7">
+      <c r="M13" s="7">
         <v>21.1</v>
       </c>
-      <c r="N12" s="7">
+      <c r="N13" s="7">
         <v>20.6</v>
       </c>
-      <c r="O12" s="7">
+      <c r="O13" s="7">
         <v>23.1</v>
       </c>
-      <c r="P12" s="7">
+      <c r="P13" s="7">
         <v>27.6</v>
       </c>
-      <c r="Q12" s="7">
+      <c r="Q13" s="7">
         <v>24.6</v>
       </c>
-      <c r="R12" s="7">
+      <c r="R13" s="7">
         <v>24.1</v>
       </c>
-      <c r="S12" s="7">
+      <c r="S13" s="7">
         <v>26.5</v>
       </c>
-      <c r="T12" s="7">
+      <c r="T13" s="7">
         <v>37.6</v>
       </c>
-      <c r="U12" s="7">
+      <c r="U13" s="7">
         <v>28</v>
       </c>
-      <c r="V12" s="7">
+      <c r="V13" s="7">
         <v>25.8</v>
       </c>
-      <c r="W12" s="7">
+      <c r="W13" s="7">
         <v>26.2</v>
       </c>
-      <c r="X12" s="7">
+      <c r="X13" s="7">
         <v>24.3</v>
       </c>
-      <c r="Y12" s="7">
+      <c r="Y13" s="7">
         <v>28.7</v>
       </c>
-      <c r="Z12" s="7">
+      <c r="Z13" s="7">
         <v>28.7</v>
       </c>
-      <c r="AA12" s="7">
+      <c r="AA13" s="7">
         <v>25.6</v>
       </c>
-      <c r="AB12" s="7">
+      <c r="AB13" s="7">
         <v>24.4</v>
       </c>
-      <c r="AC12" s="7">
+      <c r="AC13" s="7">
         <v>39.5</v>
       </c>
-      <c r="AD12" s="7">
+      <c r="AD13" s="7">
         <v>45</v>
       </c>
-      <c r="AE12" s="7">
+      <c r="AE13" s="7">
         <v>35.200000000000003</v>
       </c>
-      <c r="AF12" s="7">
+      <c r="AF13" s="7">
         <v>36.799999999999997</v>
       </c>
-      <c r="AG12" s="7">
+      <c r="AG13" s="7">
         <v>33.200000000000003</v>
       </c>
-      <c r="AH12" s="7">
+      <c r="AH13" s="7">
         <v>38.200000000000003</v>
       </c>
-      <c r="AI12" s="7">
+      <c r="AI13" s="7">
         <v>38.299999999999997</v>
       </c>
-      <c r="AJ12" s="7">
+      <c r="AJ13" s="7">
         <v>45.5</v>
       </c>
-      <c r="AK12" s="7">
+      <c r="AK13" s="7">
         <v>25.9</v>
       </c>
-      <c r="AL12" s="7">
+      <c r="AL13" s="7">
         <v>-20.8</v>
       </c>
-      <c r="AM12" s="7">
+      <c r="AM13" s="7">
         <v>44.2</v>
       </c>
-      <c r="AN12" s="7">
+      <c r="AN13" s="7">
         <v>53</v>
       </c>
-      <c r="AO12" s="7">
+      <c r="AO13" s="7">
         <v>45.3</v>
       </c>
-      <c r="AP12" s="7">
+      <c r="AP13" s="7">
         <v>41.5</v>
       </c>
-      <c r="AQ12" s="7">
+      <c r="AQ13" s="7">
         <v>47.2</v>
       </c>
-      <c r="AR12" s="7">
+      <c r="AR13" s="7">
         <v>15.1</v>
       </c>
-      <c r="AS12" s="7">
+      <c r="AS13" s="7">
         <v>38.1</v>
       </c>
-      <c r="AT12" s="7">
+      <c r="AT13" s="7">
         <v>54.6</v>
       </c>
-      <c r="AU12" s="7">
+      <c r="AU13" s="7">
         <v>47.4</v>
       </c>
-      <c r="AV12" s="7">
+      <c r="AV13" s="7">
         <v>50.1</v>
       </c>
-      <c r="AW12" s="7">
+      <c r="AW13" s="7">
         <v>49.1</v>
       </c>
-      <c r="AX12" s="7">
+      <c r="AX13" s="7">
         <v>57.7</v>
       </c>
-      <c r="AY12" s="7">
+      <c r="AY13" s="7">
         <v>1</v>
       </c>
-      <c r="AZ12" s="7">
+      <c r="AZ13" s="7">
         <v>15</v>
       </c>
-      <c r="BA12" s="7">
+      <c r="BA13" s="7">
         <v>-7.1</v>
       </c>
-      <c r="BB12" s="7">
+      <c r="BB13" s="7">
         <v>31.8</v>
       </c>
-      <c r="BC12" s="7">
+      <c r="BC13" s="7">
         <v>51.8</v>
       </c>
-      <c r="BD12" s="7">
+      <c r="BD13" s="7">
         <v>26.5</v>
       </c>
     </row>
-    <row r="14" spans="2:56">
-      <c r="B14" s="6" t="s">
+    <row r="15" spans="2:56">
+      <c r="B15" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5">
-        <f t="shared" ref="D14:BC14" si="0">D2/C2-1</f>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5">
+        <f t="shared" ref="D15:BC15" si="0">D3/C3-1</f>
         <v>4.202719406674893E-2</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E15" s="5">
         <f t="shared" si="0"/>
         <v>0.12336892052194548</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F15" s="5">
         <f t="shared" si="0"/>
         <v>1.3727560718056919E-2</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G15" s="5">
         <f t="shared" si="0"/>
         <v>-1.2500000000000067E-2</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H15" s="5">
         <f t="shared" si="0"/>
         <v>6.0126582278481111E-2</v>
       </c>
-      <c r="I14" s="5">
+      <c r="I15" s="5">
         <f t="shared" si="0"/>
         <v>4.4776119402984982E-2</v>
       </c>
-      <c r="J14" s="5">
+      <c r="J15" s="5">
         <f t="shared" si="0"/>
         <v>1.904761904761898E-2</v>
       </c>
-      <c r="K14" s="5">
+      <c r="K15" s="5">
         <f t="shared" si="0"/>
         <v>1.8691588785046953E-3</v>
       </c>
-      <c r="L14" s="5">
+      <c r="L15" s="5">
         <f t="shared" si="0"/>
         <v>7.4626865671641784E-2</v>
       </c>
-      <c r="M14" s="5">
+      <c r="M15" s="5">
         <f t="shared" si="0"/>
         <v>-8.6805555555555802E-3</v>
       </c>
-      <c r="N14" s="5">
+      <c r="N15" s="5">
         <f t="shared" si="0"/>
         <v>-5.2539404553415547E-3</v>
       </c>
-      <c r="O14" s="5">
+      <c r="O15" s="5">
         <f t="shared" si="0"/>
         <v>3.6971830985915499E-2</v>
       </c>
-      <c r="P14" s="5">
+      <c r="P15" s="5">
         <f t="shared" si="0"/>
         <v>9.3378607809847303E-2</v>
       </c>
-      <c r="Q14" s="5">
+      <c r="Q15" s="5">
         <f t="shared" si="0"/>
         <v>2.1739130434782483E-2</v>
       </c>
-      <c r="R14" s="5">
+      <c r="R15" s="5">
         <f t="shared" si="0"/>
         <v>1.5197568389057725E-2</v>
       </c>
-      <c r="S14" s="5">
+      <c r="S15" s="5">
         <f t="shared" si="0"/>
         <v>2.5449101796407136E-2</v>
       </c>
-      <c r="T14" s="5">
+      <c r="T15" s="5">
         <f t="shared" si="0"/>
         <v>4.0875912408758985E-2</v>
       </c>
-      <c r="U14" s="5">
+      <c r="U15" s="5">
         <f t="shared" si="0"/>
         <v>-2.3141654978962034E-2</v>
       </c>
-      <c r="V14" s="5">
+      <c r="V15" s="5">
         <f t="shared" si="0"/>
         <v>-1.2921751615219024E-2</v>
       </c>
-      <c r="W14" s="5">
+      <c r="W15" s="5">
         <f t="shared" si="0"/>
         <v>-1.3090909090909153E-2</v>
       </c>
-      <c r="X14" s="5">
+      <c r="X15" s="5">
         <f t="shared" si="0"/>
         <v>0.1171702284450995</v>
       </c>
-      <c r="Y14" s="5">
+      <c r="Y15" s="5">
         <f t="shared" si="0"/>
         <v>2.7704485488126762E-2</v>
       </c>
-      <c r="Z14" s="5">
+      <c r="Z15" s="5">
         <f t="shared" si="0"/>
         <v>-2.1822849807445532E-2</v>
       </c>
-      <c r="AA14" s="5">
+      <c r="AA15" s="5">
         <f t="shared" si="0"/>
         <v>-4.5931758530184386E-3</v>
       </c>
-      <c r="AB14" s="5">
+      <c r="AB15" s="5">
         <f t="shared" si="0"/>
         <v>0.16018457481872117</v>
       </c>
-      <c r="AC14" s="5">
+      <c r="AC15" s="5">
         <f t="shared" si="0"/>
         <v>-9.0909090909090384E-3</v>
       </c>
-      <c r="AD14" s="5">
+      <c r="AD15" s="5">
         <f t="shared" si="0"/>
         <v>-5.7339449541284893E-3</v>
       </c>
-      <c r="AE14" s="5">
+      <c r="AE15" s="5">
         <f t="shared" si="0"/>
         <v>-2.4221453287197381E-2</v>
       </c>
-      <c r="AF14" s="5">
+      <c r="AF15" s="5">
         <f t="shared" si="0"/>
         <v>0.15780141843971651</v>
       </c>
-      <c r="AG14" s="5">
+      <c r="AG15" s="5">
         <f t="shared" si="0"/>
         <v>-6.6360387953037225E-2</v>
       </c>
-      <c r="AH14" s="5">
+      <c r="AH15" s="5">
         <f t="shared" si="0"/>
         <v>6.3422635319846821E-2</v>
       </c>
-      <c r="AI14" s="5">
+      <c r="AI15" s="5">
         <f t="shared" si="0"/>
         <v>8.7403598971722563E-3</v>
       </c>
-      <c r="AJ14" s="5">
+      <c r="AJ15" s="5">
         <f t="shared" si="0"/>
         <v>7.9001019367991754E-2</v>
       </c>
-      <c r="AK14" s="5">
+      <c r="AK15" s="5">
         <f t="shared" si="0"/>
         <v>-9.9669343410486499E-2</v>
       </c>
-      <c r="AL14" s="5">
+      <c r="AL15" s="5">
         <f t="shared" si="0"/>
         <v>-0.21878279118572919</v>
       </c>
-      <c r="AM14" s="5">
+      <c r="AM15" s="5">
         <f t="shared" si="0"/>
         <v>0.45130960376091322</v>
       </c>
-      <c r="AN14" s="5">
+      <c r="AN15" s="5">
         <f t="shared" si="0"/>
         <v>8.0055529847292917E-2</v>
       </c>
-      <c r="AO14" s="5">
+      <c r="AO15" s="5">
         <f t="shared" si="0"/>
         <v>-2.61353898886032E-2</v>
       </c>
-      <c r="AP14" s="5">
+      <c r="AP15" s="5">
         <f t="shared" si="0"/>
         <v>0.10426748790145179</v>
       </c>
-      <c r="AQ14" s="5">
+      <c r="AQ15" s="5">
         <f t="shared" si="0"/>
         <v>-8.4860557768924316E-2</v>
       </c>
-      <c r="AR14" s="5">
+      <c r="AR15" s="5">
         <f t="shared" si="0"/>
         <v>8.8376142794950097E-2</v>
       </c>
-      <c r="AS14" s="5">
+      <c r="AS15" s="5">
         <f t="shared" si="0"/>
         <v>-7.7999999999999958E-2</v>
       </c>
-      <c r="AT14" s="5">
+      <c r="AT15" s="5">
         <f t="shared" si="0"/>
         <v>0.14360086767895885</v>
       </c>
-      <c r="AU14" s="5">
+      <c r="AU15" s="5">
         <f t="shared" si="0"/>
         <v>-3.60394537177543E-2</v>
       </c>
-      <c r="AV14" s="5">
+      <c r="AV15" s="5">
         <f t="shared" si="0"/>
         <v>8.0283353010625724E-2</v>
       </c>
-      <c r="AW14" s="5">
+      <c r="AW15" s="5">
         <f t="shared" si="0"/>
         <v>8.0145719489981282E-3</v>
       </c>
-      <c r="AX14" s="5">
+      <c r="AX15" s="5">
         <f t="shared" si="0"/>
         <v>5.3848933863390069E-2</v>
       </c>
-      <c r="AY14" s="5">
+      <c r="AY15" s="5">
         <f t="shared" si="0"/>
         <v>0.31550068587105629</v>
       </c>
-      <c r="AZ14" s="5">
+      <c r="AZ15" s="5">
         <f t="shared" si="0"/>
         <v>0.60714285714285698</v>
       </c>
-      <c r="BA14" s="5">
+      <c r="BA15" s="5">
         <f t="shared" si="0"/>
         <v>-1.5896188158961766E-2</v>
       </c>
-      <c r="BB14" s="5">
+      <c r="BB15" s="5">
         <f t="shared" si="0"/>
         <v>3.791000494478336E-2</v>
       </c>
-      <c r="BC14" s="5">
+      <c r="BC15" s="5">
         <f t="shared" si="0"/>
         <v>-6.35223122121642E-3</v>
       </c>
-      <c r="BD14" s="5">
-        <f>BD2/BC2-1</f>
+      <c r="BD15" s="5">
+        <f>BD3/BC3-1</f>
         <v>5.0503436151510206E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="2:56">
-      <c r="B15" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="J15" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="K15" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="L15" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="M15" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="N15" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="O15" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="P15" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q15" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="R15" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="S15" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="T15" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="U15" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="V15" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="W15" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="X15" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="Y15" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="Z15" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="AA15" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="AB15" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="AC15" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="AD15" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="AE15" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="AF15" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="AG15" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="AH15" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="AI15" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="AJ15" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="AK15" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="AL15" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="AM15" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="AN15" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="AO15" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="AP15" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="AQ15" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="AR15" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="AS15" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="AT15" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="AU15" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="AV15" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="AW15" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="AX15" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="AY15" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="AZ15" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="BA15" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="BB15" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="BC15" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="BD15" s="6" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="16" spans="2:56">
       <c r="B16" s="6" t="s">
-        <v>124</v>
+        <v>72</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>125</v>
+        <v>73</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>126</v>
+        <v>74</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>127</v>
+        <v>75</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>128</v>
+        <v>76</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>130</v>
+        <v>78</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>131</v>
+        <v>79</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>132</v>
+        <v>80</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>133</v>
+        <v>81</v>
       </c>
       <c r="L16" s="6" t="s">
-        <v>133</v>
+        <v>80</v>
       </c>
       <c r="M16" s="6" t="s">
-        <v>134</v>
+        <v>82</v>
       </c>
       <c r="N16" s="6" t="s">
-        <v>135</v>
+        <v>83</v>
       </c>
       <c r="O16" s="6" t="s">
-        <v>136</v>
+        <v>84</v>
       </c>
       <c r="P16" s="6" t="s">
-        <v>137</v>
+        <v>85</v>
       </c>
       <c r="Q16" s="6" t="s">
-        <v>138</v>
+        <v>86</v>
       </c>
       <c r="R16" s="6" t="s">
-        <v>139</v>
+        <v>87</v>
       </c>
       <c r="S16" s="6" t="s">
-        <v>140</v>
+        <v>88</v>
       </c>
       <c r="T16" s="6" t="s">
-        <v>141</v>
+        <v>89</v>
       </c>
       <c r="U16" s="6" t="s">
-        <v>142</v>
+        <v>90</v>
       </c>
       <c r="V16" s="6" t="s">
-        <v>143</v>
+        <v>91</v>
       </c>
       <c r="W16" s="6" t="s">
-        <v>144</v>
+        <v>92</v>
       </c>
       <c r="X16" s="6" t="s">
-        <v>145</v>
+        <v>93</v>
       </c>
       <c r="Y16" s="6" t="s">
-        <v>146</v>
+        <v>94</v>
       </c>
       <c r="Z16" s="6" t="s">
-        <v>147</v>
+        <v>95</v>
       </c>
       <c r="AA16" s="6" t="s">
-        <v>148</v>
+        <v>96</v>
       </c>
       <c r="AB16" s="6" t="s">
-        <v>149</v>
+        <v>80</v>
       </c>
       <c r="AC16" s="6" t="s">
-        <v>150</v>
+        <v>97</v>
       </c>
       <c r="AD16" s="6" t="s">
-        <v>151</v>
+        <v>98</v>
       </c>
       <c r="AE16" s="6" t="s">
-        <v>152</v>
+        <v>99</v>
       </c>
       <c r="AF16" s="6" t="s">
-        <v>153</v>
+        <v>100</v>
       </c>
       <c r="AG16" s="6" t="s">
-        <v>154</v>
+        <v>94</v>
       </c>
       <c r="AH16" s="6" t="s">
-        <v>155</v>
+        <v>101</v>
       </c>
       <c r="AI16" s="6" t="s">
-        <v>156</v>
+        <v>102</v>
       </c>
       <c r="AJ16" s="6" t="s">
-        <v>157</v>
+        <v>103</v>
       </c>
       <c r="AK16" s="6" t="s">
-        <v>158</v>
+        <v>104</v>
       </c>
       <c r="AL16" s="6" t="s">
-        <v>159</v>
+        <v>105</v>
       </c>
       <c r="AM16" s="6" t="s">
-        <v>160</v>
+        <v>106</v>
       </c>
       <c r="AN16" s="6" t="s">
-        <v>161</v>
+        <v>107</v>
       </c>
       <c r="AO16" s="6" t="s">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="AP16" s="6" t="s">
-        <v>163</v>
+        <v>109</v>
       </c>
       <c r="AQ16" s="6" t="s">
-        <v>164</v>
+        <v>110</v>
       </c>
       <c r="AR16" s="6" t="s">
-        <v>165</v>
+        <v>111</v>
       </c>
       <c r="AS16" s="6" t="s">
-        <v>166</v>
+        <v>112</v>
       </c>
       <c r="AT16" s="6" t="s">
-        <v>167</v>
+        <v>113</v>
       </c>
       <c r="AU16" s="6" t="s">
-        <v>168</v>
+        <v>114</v>
       </c>
       <c r="AV16" s="6" t="s">
-        <v>169</v>
+        <v>115</v>
       </c>
       <c r="AW16" s="6" t="s">
-        <v>170</v>
+        <v>116</v>
       </c>
       <c r="AX16" s="6" t="s">
-        <v>171</v>
+        <v>117</v>
       </c>
       <c r="AY16" s="6" t="s">
-        <v>172</v>
+        <v>118</v>
       </c>
       <c r="AZ16" s="6" t="s">
-        <v>173</v>
+        <v>119</v>
       </c>
       <c r="BA16" s="6" t="s">
-        <v>174</v>
+        <v>120</v>
       </c>
       <c r="BB16" s="6" t="s">
-        <v>175</v>
+        <v>121</v>
       </c>
       <c r="BC16" s="6" t="s">
-        <v>176</v>
+        <v>122</v>
       </c>
       <c r="BD16" s="6" t="s">
-        <v>177</v>
+        <v>123</v>
       </c>
     </row>
     <row r="17" spans="2:56">
       <c r="B17" s="6" t="s">
-        <v>178</v>
+        <v>124</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>179</v>
+        <v>125</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>180</v>
+        <v>126</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>181</v>
+        <v>127</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>182</v>
+        <v>128</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>183</v>
+        <v>129</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>184</v>
+        <v>130</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>185</v>
+        <v>131</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>186</v>
+        <v>132</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>187</v>
+        <v>133</v>
       </c>
       <c r="L17" s="6" t="s">
-        <v>188</v>
+        <v>133</v>
       </c>
       <c r="M17" s="6" t="s">
-        <v>189</v>
+        <v>134</v>
       </c>
       <c r="N17" s="6" t="s">
-        <v>190</v>
+        <v>135</v>
       </c>
       <c r="O17" s="6" t="s">
-        <v>191</v>
+        <v>136</v>
       </c>
       <c r="P17" s="6" t="s">
-        <v>192</v>
+        <v>137</v>
       </c>
       <c r="Q17" s="6" t="s">
-        <v>193</v>
+        <v>138</v>
       </c>
       <c r="R17" s="6" t="s">
-        <v>194</v>
+        <v>139</v>
       </c>
       <c r="S17" s="6" t="s">
-        <v>195</v>
+        <v>140</v>
       </c>
       <c r="T17" s="6" t="s">
-        <v>196</v>
+        <v>141</v>
       </c>
       <c r="U17" s="6" t="s">
-        <v>197</v>
+        <v>142</v>
       </c>
       <c r="V17" s="6" t="s">
-        <v>198</v>
+        <v>143</v>
       </c>
       <c r="W17" s="6" t="s">
-        <v>199</v>
+        <v>144</v>
       </c>
       <c r="X17" s="6" t="s">
-        <v>200</v>
+        <v>145</v>
       </c>
       <c r="Y17" s="6" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
       <c r="Z17" s="6" t="s">
-        <v>202</v>
+        <v>147</v>
       </c>
       <c r="AA17" s="6" t="s">
-        <v>203</v>
+        <v>148</v>
       </c>
       <c r="AB17" s="6" t="s">
-        <v>204</v>
+        <v>149</v>
       </c>
       <c r="AC17" s="6" t="s">
-        <v>205</v>
+        <v>150</v>
       </c>
       <c r="AD17" s="6" t="s">
-        <v>206</v>
+        <v>151</v>
       </c>
       <c r="AE17" s="6" t="s">
-        <v>207</v>
+        <v>152</v>
       </c>
       <c r="AF17" s="6" t="s">
-        <v>208</v>
+        <v>153</v>
       </c>
       <c r="AG17" s="6" t="s">
-        <v>209</v>
+        <v>154</v>
       </c>
       <c r="AH17" s="6" t="s">
-        <v>210</v>
+        <v>155</v>
       </c>
       <c r="AI17" s="6" t="s">
-        <v>211</v>
+        <v>156</v>
       </c>
       <c r="AJ17" s="6" t="s">
-        <v>212</v>
+        <v>157</v>
       </c>
       <c r="AK17" s="6" t="s">
-        <v>213</v>
+        <v>158</v>
       </c>
       <c r="AL17" s="6" t="s">
-        <v>214</v>
+        <v>159</v>
       </c>
       <c r="AM17" s="6" t="s">
-        <v>215</v>
+        <v>160</v>
       </c>
       <c r="AN17" s="6" t="s">
-        <v>216</v>
+        <v>161</v>
       </c>
       <c r="AO17" s="6" t="s">
-        <v>217</v>
+        <v>162</v>
       </c>
       <c r="AP17" s="6" t="s">
-        <v>218</v>
+        <v>163</v>
       </c>
       <c r="AQ17" s="6" t="s">
-        <v>219</v>
+        <v>164</v>
       </c>
       <c r="AR17" s="6" t="s">
-        <v>220</v>
+        <v>165</v>
       </c>
       <c r="AS17" s="6" t="s">
-        <v>218</v>
+        <v>166</v>
       </c>
       <c r="AT17" s="6" t="s">
-        <v>221</v>
+        <v>167</v>
       </c>
       <c r="AU17" s="6" t="s">
-        <v>222</v>
+        <v>168</v>
       </c>
       <c r="AV17" s="6" t="s">
-        <v>223</v>
+        <v>169</v>
       </c>
       <c r="AW17" s="6" t="s">
-        <v>224</v>
+        <v>170</v>
       </c>
       <c r="AX17" s="6" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="AY17" s="6" t="s">
-        <v>225</v>
+        <v>172</v>
       </c>
       <c r="AZ17" s="6" t="s">
-        <v>226</v>
+        <v>173</v>
       </c>
       <c r="BA17" s="6" t="s">
-        <v>227</v>
+        <v>174</v>
       </c>
       <c r="BB17" s="6" t="s">
-        <v>228</v>
+        <v>175</v>
       </c>
       <c r="BC17" s="6" t="s">
-        <v>229</v>
+        <v>176</v>
       </c>
       <c r="BD17" s="6" t="s">
-        <v>230</v>
+        <v>177</v>
       </c>
     </row>
     <row r="18" spans="2:56">
       <c r="B18" s="6" t="s">
-        <v>231</v>
+        <v>178</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>232</v>
+        <v>179</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>233</v>
+        <v>180</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>234</v>
+        <v>181</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>235</v>
+        <v>182</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>236</v>
+        <v>183</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>237</v>
+        <v>184</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>238</v>
+        <v>185</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>239</v>
+        <v>186</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>240</v>
+        <v>187</v>
       </c>
       <c r="L18" s="6" t="s">
-        <v>241</v>
+        <v>188</v>
       </c>
       <c r="M18" s="6" t="s">
-        <v>238</v>
+        <v>189</v>
       </c>
       <c r="N18" s="6" t="s">
-        <v>242</v>
+        <v>190</v>
       </c>
       <c r="O18" s="6" t="s">
-        <v>243</v>
+        <v>191</v>
       </c>
       <c r="P18" s="6" t="s">
-        <v>244</v>
+        <v>192</v>
       </c>
       <c r="Q18" s="6" t="s">
-        <v>245</v>
+        <v>193</v>
       </c>
       <c r="R18" s="6" t="s">
-        <v>246</v>
+        <v>194</v>
       </c>
       <c r="S18" s="6" t="s">
-        <v>247</v>
+        <v>195</v>
       </c>
       <c r="T18" s="6" t="s">
-        <v>248</v>
+        <v>196</v>
       </c>
       <c r="U18" s="6" t="s">
-        <v>249</v>
+        <v>197</v>
       </c>
       <c r="V18" s="6" t="s">
-        <v>250</v>
+        <v>198</v>
       </c>
       <c r="W18" s="6" t="s">
-        <v>251</v>
+        <v>199</v>
       </c>
       <c r="X18" s="6" t="s">
-        <v>252</v>
+        <v>200</v>
       </c>
       <c r="Y18" s="6" t="s">
-        <v>253</v>
+        <v>201</v>
       </c>
       <c r="Z18" s="6" t="s">
-        <v>254</v>
+        <v>202</v>
       </c>
       <c r="AA18" s="6" t="s">
-        <v>235</v>
+        <v>203</v>
       </c>
       <c r="AB18" s="6" t="s">
-        <v>238</v>
+        <v>204</v>
       </c>
       <c r="AC18" s="6" t="s">
-        <v>165</v>
+        <v>205</v>
       </c>
       <c r="AD18" s="6" t="s">
-        <v>255</v>
+        <v>206</v>
       </c>
       <c r="AE18" s="6" t="s">
-        <v>256</v>
+        <v>207</v>
       </c>
       <c r="AF18" s="6" t="s">
-        <v>257</v>
+        <v>208</v>
       </c>
       <c r="AG18" s="6" t="s">
-        <v>258</v>
+        <v>209</v>
       </c>
       <c r="AH18" s="6" t="s">
-        <v>259</v>
+        <v>210</v>
       </c>
       <c r="AI18" s="6" t="s">
-        <v>260</v>
+        <v>211</v>
       </c>
       <c r="AJ18" s="6" t="s">
-        <v>261</v>
+        <v>212</v>
       </c>
       <c r="AK18" s="6" t="s">
-        <v>262</v>
+        <v>213</v>
       </c>
       <c r="AL18" s="6" t="s">
-        <v>263</v>
+        <v>214</v>
       </c>
       <c r="AM18" s="6" t="s">
-        <v>264</v>
+        <v>215</v>
       </c>
       <c r="AN18" s="6" t="s">
-        <v>265</v>
+        <v>216</v>
       </c>
       <c r="AO18" s="6" t="s">
-        <v>266</v>
+        <v>217</v>
       </c>
       <c r="AP18" s="6" t="s">
-        <v>267</v>
+        <v>218</v>
       </c>
       <c r="AQ18" s="6" t="s">
-        <v>186</v>
+        <v>219</v>
       </c>
       <c r="AR18" s="6" t="s">
-        <v>268</v>
+        <v>220</v>
       </c>
       <c r="AS18" s="6" t="s">
-        <v>269</v>
+        <v>218</v>
       </c>
       <c r="AT18" s="6" t="s">
-        <v>270</v>
+        <v>221</v>
       </c>
       <c r="AU18" s="6" t="s">
-        <v>271</v>
+        <v>222</v>
       </c>
       <c r="AV18" s="6" t="s">
-        <v>272</v>
+        <v>223</v>
       </c>
       <c r="AW18" s="6" t="s">
-        <v>273</v>
+        <v>224</v>
       </c>
       <c r="AX18" s="6" t="s">
-        <v>274</v>
+        <v>182</v>
       </c>
       <c r="AY18" s="6" t="s">
-        <v>275</v>
+        <v>225</v>
       </c>
       <c r="AZ18" s="6" t="s">
-        <v>276</v>
+        <v>226</v>
       </c>
       <c r="BA18" s="6" t="s">
-        <v>277</v>
+        <v>227</v>
       </c>
       <c r="BB18" s="6" t="s">
-        <v>278</v>
+        <v>228</v>
       </c>
       <c r="BC18" s="6" t="s">
-        <v>279</v>
+        <v>229</v>
       </c>
       <c r="BD18" s="6" t="s">
-        <v>280</v>
+        <v>230</v>
       </c>
     </row>
     <row r="19" spans="2:56">
       <c r="B19" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="K19" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="L19" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="M19" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="N19" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="O19" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="P19" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q19" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="R19" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="S19" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="T19" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="U19" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="V19" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="W19" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="X19" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="Y19" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="Z19" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="AA19" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="AB19" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="AC19" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="AD19" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="AE19" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="AF19" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="AG19" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="AH19" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="AI19" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="AJ19" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="AK19" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="AL19" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="AM19" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="AN19" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="AO19" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="AP19" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="AQ19" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="AR19" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="AS19" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="AT19" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="AU19" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="AV19" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="AW19" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="AX19" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="AY19" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="AZ19" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="BA19" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="BB19" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="BC19" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="BD19" s="6" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="20" spans="2:56">
+      <c r="B20" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C20" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D20" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E20" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="F19" s="6" t="s">
+      <c r="F20" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="G19" s="6" t="s">
+      <c r="G20" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="H19" s="6" t="s">
+      <c r="H20" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="I19" s="6" t="s">
+      <c r="I20" s="6" t="s">
         <v>288</v>
       </c>
-      <c r="J19" s="6" t="s">
+      <c r="J20" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="K19" s="6" t="s">
+      <c r="K20" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="L19" s="6" t="s">
+      <c r="L20" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="M19" s="6" t="s">
+      <c r="M20" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="N19" s="6" t="s">
+      <c r="N20" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="O19" s="6" t="s">
+      <c r="O20" s="6" t="s">
         <v>294</v>
       </c>
-      <c r="P19" s="6" t="s">
+      <c r="P20" s="6" t="s">
         <v>295</v>
       </c>
-      <c r="Q19" s="6" t="s">
+      <c r="Q20" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="R19" s="6" t="s">
+      <c r="R20" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="S19" s="6" t="s">
+      <c r="S20" s="6" t="s">
         <v>298</v>
       </c>
-      <c r="T19" s="6" t="s">
+      <c r="T20" s="6" t="s">
         <v>299</v>
       </c>
-      <c r="U19" s="6" t="s">
+      <c r="U20" s="6" t="s">
         <v>300</v>
       </c>
-      <c r="V19" s="6" t="s">
+      <c r="V20" s="6" t="s">
         <v>301</v>
       </c>
-      <c r="W19" s="6" t="s">
+      <c r="W20" s="6" t="s">
         <v>302</v>
       </c>
-      <c r="X19" s="6" t="s">
+      <c r="X20" s="6" t="s">
         <v>303</v>
       </c>
-      <c r="Y19" s="6" t="s">
+      <c r="Y20" s="6" t="s">
         <v>304</v>
       </c>
-      <c r="Z19" s="6" t="s">
+      <c r="Z20" s="6" t="s">
         <v>305</v>
       </c>
-      <c r="AA19" s="6" t="s">
+      <c r="AA20" s="6" t="s">
         <v>306</v>
       </c>
-      <c r="AB19" s="6" t="s">
+      <c r="AB20" s="6" t="s">
         <v>307</v>
       </c>
-      <c r="AC19" s="6" t="s">
+      <c r="AC20" s="6" t="s">
         <v>308</v>
       </c>
-      <c r="AD19" s="6" t="s">
+      <c r="AD20" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="AE19" s="6" t="s">
+      <c r="AE20" s="6" t="s">
         <v>310</v>
       </c>
-      <c r="AF19" s="6" t="s">
+      <c r="AF20" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="AG19" s="6" t="s">
+      <c r="AG20" s="6" t="s">
         <v>312</v>
       </c>
-      <c r="AH19" s="6" t="s">
+      <c r="AH20" s="6" t="s">
         <v>313</v>
       </c>
-      <c r="AI19" s="6" t="s">
+      <c r="AI20" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="AJ19" s="6" t="s">
+      <c r="AJ20" s="6" t="s">
         <v>315</v>
       </c>
-      <c r="AK19" s="6" t="s">
+      <c r="AK20" s="6" t="s">
         <v>316</v>
       </c>
-      <c r="AL19" s="6" t="s">
+      <c r="AL20" s="6" t="s">
         <v>317</v>
       </c>
-      <c r="AM19" s="6" t="s">
+      <c r="AM20" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="AN19" s="6" t="s">
+      <c r="AN20" s="6" t="s">
         <v>318</v>
       </c>
-      <c r="AO19" s="6" t="s">
+      <c r="AO20" s="6" t="s">
         <v>304</v>
       </c>
-      <c r="AP19" s="6" t="s">
+      <c r="AP20" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="AQ19" s="6" t="s">
+      <c r="AQ20" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="AR19" s="6" t="s">
+      <c r="AR20" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="AS19" s="6" t="s">
+      <c r="AS20" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="AT19" s="6" t="s">
+      <c r="AT20" s="6" t="s">
         <v>323</v>
       </c>
-      <c r="AU19" s="6" t="s">
+      <c r="AU20" s="6" t="s">
         <v>324</v>
       </c>
-      <c r="AV19" s="6" t="s">
+      <c r="AV20" s="6" t="s">
         <v>325</v>
       </c>
-      <c r="AW19" s="6" t="s">
+      <c r="AW20" s="6" t="s">
         <v>326</v>
       </c>
-      <c r="AX19" s="6" t="s">
+      <c r="AX20" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="AY19" s="6" t="s">
+      <c r="AY20" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="AZ19" s="6" t="s">
+      <c r="AZ20" s="6" t="s">
         <v>329</v>
       </c>
-      <c r="BA19" s="6" t="s">
+      <c r="BA20" s="6" t="s">
         <v>330</v>
       </c>
-      <c r="BB19" s="6" t="s">
+      <c r="BB20" s="6" t="s">
         <v>331</v>
       </c>
-      <c r="BC19" s="6" t="s">
+      <c r="BC20" s="6" t="s">
         <v>332</v>
       </c>
-      <c r="BD19" s="6" t="s">
+      <c r="BD20" s="6" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="21" spans="2:56">
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="3"/>
-      <c r="R21" s="3"/>
-      <c r="S21" s="3"/>
-      <c r="T21" s="3"/>
-      <c r="U21" s="3"/>
-      <c r="V21" s="3"/>
-      <c r="W21" s="3"/>
-      <c r="X21" s="3"/>
-      <c r="Y21" s="3"/>
-      <c r="Z21" s="3"/>
-      <c r="AA21" s="3"/>
-      <c r="AB21" s="3"/>
-      <c r="AC21" s="3"/>
-      <c r="AD21" s="3"/>
-      <c r="AE21" s="3"/>
-      <c r="AF21" s="3"/>
-      <c r="AG21" s="3"/>
-      <c r="AH21" s="3"/>
-      <c r="AI21" s="3"/>
-      <c r="AJ21" s="3"/>
-      <c r="AK21" s="3"/>
-      <c r="AL21" s="3"/>
-      <c r="AM21" s="3"/>
-      <c r="AN21" s="3"/>
-      <c r="AO21" s="3"/>
-      <c r="AP21" s="3"/>
     </row>
     <row r="22" spans="2:56">
       <c r="C22" s="3"/>
@@ -6980,10 +6938,52 @@
       <c r="AO24" s="3"/>
       <c r="AP24" s="3"/>
     </row>
+    <row r="25" spans="2:56">
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="3"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="3"/>
+      <c r="U25" s="3"/>
+      <c r="V25" s="3"/>
+      <c r="W25" s="3"/>
+      <c r="X25" s="3"/>
+      <c r="Y25" s="3"/>
+      <c r="Z25" s="3"/>
+      <c r="AA25" s="3"/>
+      <c r="AB25" s="3"/>
+      <c r="AC25" s="3"/>
+      <c r="AD25" s="3"/>
+      <c r="AE25" s="3"/>
+      <c r="AF25" s="3"/>
+      <c r="AG25" s="3"/>
+      <c r="AH25" s="3"/>
+      <c r="AI25" s="3"/>
+      <c r="AJ25" s="3"/>
+      <c r="AK25" s="3"/>
+      <c r="AL25" s="3"/>
+      <c r="AM25" s="3"/>
+      <c r="AN25" s="3"/>
+      <c r="AO25" s="3"/>
+      <c r="AP25" s="3"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="B15:BD19" numberStoredAsText="1"/>
+    <ignoredError sqref="B16:BD20" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -6996,9 +6996,9 @@
       <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" customWidth="1"/>
+    <col min="1" max="1" width="3.265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="28" spans="7:12">

--- a/GMED_Model.xlsx
+++ b/GMED_Model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Equity Research\Models\Health Care\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B07E587-9CD3-4C22-8B5A-067EFD4EDE6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF45DCB7-473A-421F-A733-2F99B3DE150B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28702" yWindow="-98" windowWidth="28995" windowHeight="15675" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="598">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="596">
   <si>
     <t>GMED</t>
   </si>
@@ -409,9 +409,6 @@
     <t>56.77%</t>
   </si>
   <si>
-    <t>59.93%</t>
-  </si>
-  <si>
     <t>Operating Profit Margin</t>
   </si>
   <si>
@@ -551,9 +548,6 @@
   </si>
   <si>
     <t>20.38%</t>
-  </si>
-  <si>
-    <t>22.70%</t>
   </si>
   <si>
     <t>0.10%</t>
@@ -1838,7 +1832,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1887,6 +1881,12 @@
       <sz val="11"/>
       <name val="Calibre"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibre"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1914,7 +1914,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1935,6 +1935,13 @@
     </xf>
     <xf numFmtId="10" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3670,9 +3677,9 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.265625" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3">
@@ -3739,26 +3746,29 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F12961AC-5DA3-4B77-A415-DF08C03E640D}">
-  <dimension ref="B2:BD25"/>
+  <dimension ref="B2:BE25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="AF3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q38" sqref="Q38"/>
+      <selection pane="bottomRight" activeCell="BD16" sqref="BD16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="3.265625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.73046875" style="4" customWidth="1"/>
-    <col min="3" max="5" width="9.265625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.3984375" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="56" width="9.265625" style="4" bestFit="1" customWidth="1"/>
-    <col min="57" max="16384" width="9.1328125" style="4"/>
+    <col min="1" max="1" width="3.28515625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.7109375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="37" width="9.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="9.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="39" max="56" width="9.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="57" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:56">
+    <row r="2" spans="2:57" ht="15">
       <c r="C2" s="6" t="s">
         <v>7</v>
       </c>
@@ -3777,152 +3787,153 @@
       <c r="H2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="M2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="N2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="O2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="P2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="Q2" s="6" t="s">
+      <c r="Q2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="R2" s="6" t="s">
+      <c r="R2" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="S2" s="6" t="s">
+      <c r="S2" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="T2" s="6" t="s">
+      <c r="T2" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="U2" s="6" t="s">
+      <c r="U2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="V2" s="6" t="s">
+      <c r="V2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="W2" s="6" t="s">
+      <c r="W2" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="X2" s="6" t="s">
+      <c r="X2" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="Y2" s="6" t="s">
+      <c r="Y2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="Z2" s="6" t="s">
+      <c r="Z2" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="AA2" s="6" t="s">
+      <c r="AA2" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="AB2" s="6" t="s">
+      <c r="AB2" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="AC2" s="6" t="s">
+      <c r="AC2" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="AD2" s="6" t="s">
+      <c r="AD2" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="AE2" s="6" t="s">
+      <c r="AE2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="AF2" s="6" t="s">
+      <c r="AF2" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="AG2" s="6" t="s">
+      <c r="AG2" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="AH2" s="6" t="s">
+      <c r="AH2" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="AI2" s="6" t="s">
+      <c r="AI2" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="AJ2" s="6" t="s">
+      <c r="AJ2" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="AK2" s="6" t="s">
+      <c r="AK2" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AL2" s="6" t="s">
+      <c r="AL2" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="AM2" s="6" t="s">
+      <c r="AM2" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="AN2" s="6" t="s">
+      <c r="AN2" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="AO2" s="6" t="s">
+      <c r="AO2" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="AP2" s="6" t="s">
+      <c r="AP2" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="AQ2" s="6" t="s">
+      <c r="AQ2" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="AR2" s="6" t="s">
+      <c r="AR2" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="AS2" s="6" t="s">
+      <c r="AS2" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="AT2" s="6" t="s">
+      <c r="AT2" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="AU2" s="6" t="s">
+      <c r="AU2" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AV2" s="6" t="s">
+      <c r="AV2" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="AW2" s="6" t="s">
+      <c r="AW2" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="AX2" s="6" t="s">
+      <c r="AX2" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="AY2" s="6" t="s">
+      <c r="AY2" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="AZ2" s="6" t="s">
+      <c r="AZ2" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="BA2" s="6" t="s">
+      <c r="BA2" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="BB2" s="6" t="s">
+      <c r="BB2" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="BC2" s="6" t="s">
+      <c r="BC2" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="BD2" s="6" t="s">
+      <c r="BD2" s="7" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="3" spans="2:56" ht="13.9">
+      <c r="BE2" s="13"/>
+    </row>
+    <row r="3" spans="2:57" ht="15">
       <c r="B3" s="7" t="s">
         <v>61</v>
       </c>
@@ -4089,7 +4100,7 @@
         <v>657.3</v>
       </c>
     </row>
-    <row r="4" spans="2:56">
+    <row r="4" spans="2:57">
       <c r="B4" s="6" t="s">
         <v>62</v>
       </c>
@@ -4256,7 +4267,7 @@
         <v>263.39999999999998</v>
       </c>
     </row>
-    <row r="5" spans="2:56">
+    <row r="5" spans="2:57">
       <c r="B5" s="6" t="s">
         <v>63</v>
       </c>
@@ -4423,7 +4434,7 @@
         <v>393.9</v>
       </c>
     </row>
-    <row r="6" spans="2:56">
+    <row r="6" spans="2:57">
       <c r="B6" s="6" t="s">
         <v>64</v>
       </c>
@@ -4590,7 +4601,7 @@
         <v>253.5</v>
       </c>
     </row>
-    <row r="7" spans="2:56">
+    <row r="7" spans="2:57">
       <c r="B7" s="6" t="s">
         <v>65</v>
       </c>
@@ -4757,7 +4768,7 @@
         <v>33.4</v>
       </c>
     </row>
-    <row r="8" spans="2:56">
+    <row r="8" spans="2:57">
       <c r="B8" s="6" t="s">
         <v>66</v>
       </c>
@@ -4924,7 +4935,7 @@
         <v>333.6</v>
       </c>
     </row>
-    <row r="9" spans="2:56" ht="13.9">
+    <row r="9" spans="2:57" ht="15">
       <c r="B9" s="7" t="s">
         <v>67</v>
       </c>
@@ -5091,7 +5102,7 @@
         <v>60.3</v>
       </c>
     </row>
-    <row r="10" spans="2:56">
+    <row r="10" spans="2:57">
       <c r="B10" s="6" t="s">
         <v>68</v>
       </c>
@@ -5258,7 +5269,7 @@
         <v>-35.6</v>
       </c>
     </row>
-    <row r="11" spans="2:56">
+    <row r="11" spans="2:57">
       <c r="B11" s="6" t="s">
         <v>69</v>
       </c>
@@ -5425,7 +5436,7 @@
         <v>24.7</v>
       </c>
     </row>
-    <row r="12" spans="2:56">
+    <row r="12" spans="2:57">
       <c r="B12" s="6" t="s">
         <v>70</v>
       </c>
@@ -5592,7 +5603,7 @@
         <v>-1.8</v>
       </c>
     </row>
-    <row r="13" spans="2:56" ht="13.9">
+    <row r="13" spans="2:57" ht="15">
       <c r="B13" s="7" t="s">
         <v>71</v>
       </c>
@@ -5759,1057 +5770,1057 @@
         <v>26.5</v>
       </c>
     </row>
-    <row r="15" spans="2:56">
+    <row r="15" spans="2:57">
       <c r="B15" s="6" t="s">
-        <v>334</v>
-      </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5">
+        <v>332</v>
+      </c>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14">
         <f t="shared" ref="D15:BC15" si="0">D3/C3-1</f>
         <v>4.202719406674893E-2</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="14">
         <f t="shared" si="0"/>
         <v>0.12336892052194548</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F15" s="14">
         <f t="shared" si="0"/>
         <v>1.3727560718056919E-2</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G15" s="14">
         <f t="shared" si="0"/>
         <v>-1.2500000000000067E-2</v>
       </c>
-      <c r="H15" s="5">
+      <c r="H15" s="14">
         <f t="shared" si="0"/>
         <v>6.0126582278481111E-2</v>
       </c>
-      <c r="I15" s="5">
+      <c r="I15" s="14">
         <f t="shared" si="0"/>
         <v>4.4776119402984982E-2</v>
       </c>
-      <c r="J15" s="5">
+      <c r="J15" s="14">
         <f t="shared" si="0"/>
         <v>1.904761904761898E-2</v>
       </c>
-      <c r="K15" s="5">
+      <c r="K15" s="14">
         <f t="shared" si="0"/>
         <v>1.8691588785046953E-3</v>
       </c>
-      <c r="L15" s="5">
+      <c r="L15" s="14">
         <f t="shared" si="0"/>
         <v>7.4626865671641784E-2</v>
       </c>
-      <c r="M15" s="5">
+      <c r="M15" s="14">
         <f t="shared" si="0"/>
         <v>-8.6805555555555802E-3</v>
       </c>
-      <c r="N15" s="5">
+      <c r="N15" s="14">
         <f t="shared" si="0"/>
         <v>-5.2539404553415547E-3</v>
       </c>
-      <c r="O15" s="5">
+      <c r="O15" s="14">
         <f t="shared" si="0"/>
         <v>3.6971830985915499E-2</v>
       </c>
-      <c r="P15" s="5">
+      <c r="P15" s="14">
         <f t="shared" si="0"/>
         <v>9.3378607809847303E-2</v>
       </c>
-      <c r="Q15" s="5">
+      <c r="Q15" s="14">
         <f t="shared" si="0"/>
         <v>2.1739130434782483E-2</v>
       </c>
-      <c r="R15" s="5">
+      <c r="R15" s="14">
         <f t="shared" si="0"/>
         <v>1.5197568389057725E-2</v>
       </c>
-      <c r="S15" s="5">
+      <c r="S15" s="14">
         <f t="shared" si="0"/>
         <v>2.5449101796407136E-2</v>
       </c>
-      <c r="T15" s="5">
+      <c r="T15" s="14">
         <f t="shared" si="0"/>
         <v>4.0875912408758985E-2</v>
       </c>
-      <c r="U15" s="5">
+      <c r="U15" s="14">
         <f t="shared" si="0"/>
         <v>-2.3141654978962034E-2</v>
       </c>
-      <c r="V15" s="5">
+      <c r="V15" s="14">
         <f t="shared" si="0"/>
         <v>-1.2921751615219024E-2</v>
       </c>
-      <c r="W15" s="5">
+      <c r="W15" s="14">
         <f t="shared" si="0"/>
         <v>-1.3090909090909153E-2</v>
       </c>
-      <c r="X15" s="5">
+      <c r="X15" s="14">
         <f t="shared" si="0"/>
         <v>0.1171702284450995</v>
       </c>
-      <c r="Y15" s="5">
+      <c r="Y15" s="14">
         <f t="shared" si="0"/>
         <v>2.7704485488126762E-2</v>
       </c>
-      <c r="Z15" s="5">
+      <c r="Z15" s="14">
         <f t="shared" si="0"/>
         <v>-2.1822849807445532E-2</v>
       </c>
-      <c r="AA15" s="5">
+      <c r="AA15" s="14">
         <f t="shared" si="0"/>
         <v>-4.5931758530184386E-3</v>
       </c>
-      <c r="AB15" s="5">
+      <c r="AB15" s="14">
         <f t="shared" si="0"/>
         <v>0.16018457481872117</v>
       </c>
-      <c r="AC15" s="5">
+      <c r="AC15" s="14">
         <f t="shared" si="0"/>
         <v>-9.0909090909090384E-3</v>
       </c>
-      <c r="AD15" s="5">
+      <c r="AD15" s="14">
         <f t="shared" si="0"/>
         <v>-5.7339449541284893E-3</v>
       </c>
-      <c r="AE15" s="5">
+      <c r="AE15" s="14">
         <f t="shared" si="0"/>
         <v>-2.4221453287197381E-2</v>
       </c>
-      <c r="AF15" s="5">
+      <c r="AF15" s="14">
         <f t="shared" si="0"/>
         <v>0.15780141843971651</v>
       </c>
-      <c r="AG15" s="5">
+      <c r="AG15" s="14">
         <f t="shared" si="0"/>
         <v>-6.6360387953037225E-2</v>
       </c>
-      <c r="AH15" s="5">
+      <c r="AH15" s="14">
         <f t="shared" si="0"/>
         <v>6.3422635319846821E-2</v>
       </c>
-      <c r="AI15" s="5">
+      <c r="AI15" s="14">
         <f t="shared" si="0"/>
         <v>8.7403598971722563E-3</v>
       </c>
-      <c r="AJ15" s="5">
+      <c r="AJ15" s="14">
         <f t="shared" si="0"/>
         <v>7.9001019367991754E-2</v>
       </c>
-      <c r="AK15" s="5">
+      <c r="AK15" s="14">
         <f t="shared" si="0"/>
         <v>-9.9669343410486499E-2</v>
       </c>
-      <c r="AL15" s="5">
+      <c r="AL15" s="14">
         <f t="shared" si="0"/>
         <v>-0.21878279118572919</v>
       </c>
-      <c r="AM15" s="5">
+      <c r="AM15" s="14">
         <f t="shared" si="0"/>
         <v>0.45130960376091322</v>
       </c>
-      <c r="AN15" s="5">
+      <c r="AN15" s="14">
         <f t="shared" si="0"/>
         <v>8.0055529847292917E-2</v>
       </c>
-      <c r="AO15" s="5">
+      <c r="AO15" s="14">
         <f t="shared" si="0"/>
         <v>-2.61353898886032E-2</v>
       </c>
-      <c r="AP15" s="5">
+      <c r="AP15" s="14">
         <f t="shared" si="0"/>
         <v>0.10426748790145179</v>
       </c>
-      <c r="AQ15" s="5">
+      <c r="AQ15" s="14">
         <f t="shared" si="0"/>
         <v>-8.4860557768924316E-2</v>
       </c>
-      <c r="AR15" s="5">
+      <c r="AR15" s="14">
         <f t="shared" si="0"/>
         <v>8.8376142794950097E-2</v>
       </c>
-      <c r="AS15" s="5">
+      <c r="AS15" s="14">
         <f t="shared" si="0"/>
         <v>-7.7999999999999958E-2</v>
       </c>
-      <c r="AT15" s="5">
+      <c r="AT15" s="14">
         <f t="shared" si="0"/>
         <v>0.14360086767895885</v>
       </c>
-      <c r="AU15" s="5">
+      <c r="AU15" s="14">
         <f t="shared" si="0"/>
         <v>-3.60394537177543E-2</v>
       </c>
-      <c r="AV15" s="5">
+      <c r="AV15" s="14">
         <f t="shared" si="0"/>
         <v>8.0283353010625724E-2</v>
       </c>
-      <c r="AW15" s="5">
+      <c r="AW15" s="14">
         <f t="shared" si="0"/>
         <v>8.0145719489981282E-3</v>
       </c>
-      <c r="AX15" s="5">
+      <c r="AX15" s="14">
         <f t="shared" si="0"/>
         <v>5.3848933863390069E-2</v>
       </c>
-      <c r="AY15" s="5">
+      <c r="AY15" s="14">
         <f t="shared" si="0"/>
         <v>0.31550068587105629</v>
       </c>
-      <c r="AZ15" s="5">
+      <c r="AZ15" s="14">
         <f t="shared" si="0"/>
         <v>0.60714285714285698</v>
       </c>
-      <c r="BA15" s="5">
+      <c r="BA15" s="14">
         <f t="shared" si="0"/>
         <v>-1.5896188158961766E-2</v>
       </c>
-      <c r="BB15" s="5">
+      <c r="BB15" s="14">
         <f t="shared" si="0"/>
         <v>3.791000494478336E-2</v>
       </c>
-      <c r="BC15" s="5">
+      <c r="BC15" s="14">
         <f t="shared" si="0"/>
         <v>-6.35223122121642E-3</v>
       </c>
-      <c r="BD15" s="5">
+      <c r="BD15" s="14">
         <f>BD3/BC3-1</f>
         <v>5.0503436151510206E-2</v>
       </c>
     </row>
-    <row r="16" spans="2:56">
+    <row r="16" spans="2:57">
       <c r="B16" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="F16" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="G16" s="6" t="s">
+      <c r="G16" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="H16" s="6" t="s">
+      <c r="H16" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="I16" s="6" t="s">
+      <c r="I16" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="J16" s="6" t="s">
+      <c r="J16" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="K16" s="6" t="s">
+      <c r="K16" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="L16" s="6" t="s">
+      <c r="L16" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="M16" s="6" t="s">
+      <c r="M16" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="N16" s="6" t="s">
+      <c r="N16" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="O16" s="6" t="s">
+      <c r="O16" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="P16" s="6" t="s">
+      <c r="P16" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="Q16" s="6" t="s">
+      <c r="Q16" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="R16" s="6" t="s">
+      <c r="R16" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="S16" s="6" t="s">
+      <c r="S16" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="T16" s="6" t="s">
+      <c r="T16" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="U16" s="6" t="s">
+      <c r="U16" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="V16" s="6" t="s">
+      <c r="V16" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="W16" s="6" t="s">
+      <c r="W16" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="X16" s="6" t="s">
+      <c r="X16" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="Y16" s="6" t="s">
+      <c r="Y16" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="Z16" s="6" t="s">
+      <c r="Z16" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="AA16" s="6" t="s">
+      <c r="AA16" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="AB16" s="6" t="s">
+      <c r="AB16" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="AC16" s="6" t="s">
+      <c r="AC16" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="AD16" s="6" t="s">
+      <c r="AD16" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="AE16" s="6" t="s">
+      <c r="AE16" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="AF16" s="6" t="s">
+      <c r="AF16" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="AG16" s="6" t="s">
+      <c r="AG16" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="AH16" s="6" t="s">
+      <c r="AH16" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="AI16" s="6" t="s">
+      <c r="AI16" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="AJ16" s="6" t="s">
+      <c r="AJ16" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="AK16" s="6" t="s">
+      <c r="AK16" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="AL16" s="6" t="s">
+      <c r="AL16" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="AM16" s="6" t="s">
+      <c r="AM16" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="AN16" s="6" t="s">
+      <c r="AN16" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="AO16" s="6" t="s">
+      <c r="AO16" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="AP16" s="6" t="s">
+      <c r="AP16" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="AQ16" s="6" t="s">
+      <c r="AQ16" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="AR16" s="6" t="s">
+      <c r="AR16" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="AS16" s="6" t="s">
+      <c r="AS16" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="AT16" s="6" t="s">
+      <c r="AT16" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="AU16" s="6" t="s">
+      <c r="AU16" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="AV16" s="6" t="s">
+      <c r="AV16" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="AW16" s="6" t="s">
+      <c r="AW16" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="AX16" s="6" t="s">
+      <c r="AX16" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="AY16" s="6" t="s">
+      <c r="AY16" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="AZ16" s="6" t="s">
+      <c r="AZ16" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="BA16" s="6" t="s">
+      <c r="BA16" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="BB16" s="6" t="s">
+      <c r="BB16" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="BC16" s="6" t="s">
+      <c r="BC16" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="BD16" s="6" t="s">
-        <v>123</v>
+      <c r="BD16" s="15">
+        <v>0.59930000000000005</v>
       </c>
     </row>
     <row r="17" spans="2:56">
       <c r="B17" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C17" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="D17" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="E17" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="F17" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="G17" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="G17" s="6" t="s">
+      <c r="H17" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="H17" s="6" t="s">
+      <c r="I17" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="I17" s="6" t="s">
+      <c r="J17" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="J17" s="6" t="s">
+      <c r="K17" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="K17" s="6" t="s">
+      <c r="L17" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="M17" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="L17" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="M17" s="6" t="s">
+      <c r="N17" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="N17" s="6" t="s">
+      <c r="O17" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="O17" s="6" t="s">
+      <c r="P17" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="P17" s="6" t="s">
+      <c r="Q17" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="Q17" s="6" t="s">
+      <c r="R17" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="R17" s="6" t="s">
+      <c r="S17" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="S17" s="6" t="s">
+      <c r="T17" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="T17" s="6" t="s">
+      <c r="U17" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="U17" s="6" t="s">
+      <c r="V17" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="V17" s="6" t="s">
+      <c r="W17" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="W17" s="6" t="s">
+      <c r="X17" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="X17" s="6" t="s">
+      <c r="Y17" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="Y17" s="6" t="s">
+      <c r="Z17" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="Z17" s="6" t="s">
+      <c r="AA17" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="AA17" s="6" t="s">
+      <c r="AB17" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="AB17" s="6" t="s">
+      <c r="AC17" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="AC17" s="6" t="s">
+      <c r="AD17" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="AD17" s="6" t="s">
+      <c r="AE17" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="AE17" s="6" t="s">
+      <c r="AF17" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="AF17" s="6" t="s">
+      <c r="AG17" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="AG17" s="6" t="s">
+      <c r="AH17" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="AH17" s="6" t="s">
+      <c r="AI17" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="AI17" s="6" t="s">
+      <c r="AJ17" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="AJ17" s="6" t="s">
+      <c r="AK17" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="AK17" s="6" t="s">
+      <c r="AL17" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="AL17" s="6" t="s">
+      <c r="AM17" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="AM17" s="6" t="s">
+      <c r="AN17" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="AN17" s="6" t="s">
+      <c r="AO17" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="AO17" s="6" t="s">
+      <c r="AP17" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="AP17" s="6" t="s">
+      <c r="AQ17" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="AQ17" s="6" t="s">
+      <c r="AR17" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="AR17" s="6" t="s">
+      <c r="AS17" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="AS17" s="6" t="s">
+      <c r="AT17" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="AT17" s="6" t="s">
+      <c r="AU17" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="AU17" s="6" t="s">
+      <c r="AV17" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="AV17" s="6" t="s">
+      <c r="AW17" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="AW17" s="6" t="s">
+      <c r="AX17" s="15">
+        <v>0.22700000000000001</v>
+      </c>
+      <c r="AY17" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="AX17" s="6" t="s">
+      <c r="AZ17" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="AY17" s="6" t="s">
+      <c r="BA17" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="AZ17" s="6" t="s">
+      <c r="BB17" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="BA17" s="6" t="s">
+      <c r="BC17" s="15" t="s">
         <v>174</v>
       </c>
-      <c r="BB17" s="6" t="s">
+      <c r="BD17" s="15" t="s">
         <v>175</v>
-      </c>
-      <c r="BC17" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="BD17" s="6" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="18" spans="2:56">
       <c r="B18" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="D18" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="E18" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="F18" s="15" t="s">
         <v>180</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="G18" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="F18" s="6" t="s">
+      <c r="H18" s="15" t="s">
         <v>182</v>
       </c>
-      <c r="G18" s="6" t="s">
+      <c r="I18" s="15" t="s">
         <v>183</v>
       </c>
-      <c r="H18" s="6" t="s">
+      <c r="J18" s="15" t="s">
         <v>184</v>
       </c>
-      <c r="I18" s="6" t="s">
+      <c r="K18" s="15" t="s">
         <v>185</v>
       </c>
-      <c r="J18" s="6" t="s">
+      <c r="L18" s="15" t="s">
         <v>186</v>
       </c>
-      <c r="K18" s="6" t="s">
+      <c r="M18" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="L18" s="6" t="s">
+      <c r="N18" s="15" t="s">
         <v>188</v>
       </c>
-      <c r="M18" s="6" t="s">
+      <c r="O18" s="15" t="s">
         <v>189</v>
       </c>
-      <c r="N18" s="6" t="s">
+      <c r="P18" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="O18" s="6" t="s">
+      <c r="Q18" s="15" t="s">
         <v>191</v>
       </c>
-      <c r="P18" s="6" t="s">
+      <c r="R18" s="15" t="s">
         <v>192</v>
       </c>
-      <c r="Q18" s="6" t="s">
+      <c r="S18" s="15" t="s">
         <v>193</v>
       </c>
-      <c r="R18" s="6" t="s">
+      <c r="T18" s="15" t="s">
         <v>194</v>
       </c>
-      <c r="S18" s="6" t="s">
+      <c r="U18" s="15" t="s">
         <v>195</v>
       </c>
-      <c r="T18" s="6" t="s">
+      <c r="V18" s="15" t="s">
         <v>196</v>
       </c>
-      <c r="U18" s="6" t="s">
+      <c r="W18" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="V18" s="6" t="s">
+      <c r="X18" s="15" t="s">
         <v>198</v>
       </c>
-      <c r="W18" s="6" t="s">
+      <c r="Y18" s="15" t="s">
         <v>199</v>
       </c>
-      <c r="X18" s="6" t="s">
+      <c r="Z18" s="15" t="s">
         <v>200</v>
       </c>
-      <c r="Y18" s="6" t="s">
+      <c r="AA18" s="15" t="s">
         <v>201</v>
       </c>
-      <c r="Z18" s="6" t="s">
+      <c r="AB18" s="15" t="s">
         <v>202</v>
       </c>
-      <c r="AA18" s="6" t="s">
+      <c r="AC18" s="15" t="s">
         <v>203</v>
       </c>
-      <c r="AB18" s="6" t="s">
+      <c r="AD18" s="15" t="s">
         <v>204</v>
       </c>
-      <c r="AC18" s="6" t="s">
+      <c r="AE18" s="15" t="s">
         <v>205</v>
       </c>
-      <c r="AD18" s="6" t="s">
+      <c r="AF18" s="15" t="s">
         <v>206</v>
       </c>
-      <c r="AE18" s="6" t="s">
+      <c r="AG18" s="15" t="s">
         <v>207</v>
       </c>
-      <c r="AF18" s="6" t="s">
+      <c r="AH18" s="15" t="s">
         <v>208</v>
       </c>
-      <c r="AG18" s="6" t="s">
+      <c r="AI18" s="15" t="s">
         <v>209</v>
       </c>
-      <c r="AH18" s="6" t="s">
+      <c r="AJ18" s="15" t="s">
         <v>210</v>
       </c>
-      <c r="AI18" s="6" t="s">
+      <c r="AK18" s="15" t="s">
         <v>211</v>
       </c>
-      <c r="AJ18" s="6" t="s">
+      <c r="AL18" s="15" t="s">
         <v>212</v>
       </c>
-      <c r="AK18" s="6" t="s">
+      <c r="AM18" s="15" t="s">
         <v>213</v>
       </c>
-      <c r="AL18" s="6" t="s">
+      <c r="AN18" s="15" t="s">
         <v>214</v>
       </c>
-      <c r="AM18" s="6" t="s">
+      <c r="AO18" s="15" t="s">
         <v>215</v>
       </c>
-      <c r="AN18" s="6" t="s">
+      <c r="AP18" s="15" t="s">
         <v>216</v>
       </c>
-      <c r="AO18" s="6" t="s">
+      <c r="AQ18" s="15" t="s">
         <v>217</v>
       </c>
-      <c r="AP18" s="6" t="s">
+      <c r="AR18" s="15" t="s">
         <v>218</v>
       </c>
-      <c r="AQ18" s="6" t="s">
+      <c r="AS18" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="AT18" s="15" t="s">
         <v>219</v>
       </c>
-      <c r="AR18" s="6" t="s">
+      <c r="AU18" s="15" t="s">
         <v>220</v>
       </c>
-      <c r="AS18" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="AT18" s="6" t="s">
+      <c r="AV18" s="15" t="s">
         <v>221</v>
       </c>
-      <c r="AU18" s="6" t="s">
+      <c r="AW18" s="15" t="s">
         <v>222</v>
       </c>
-      <c r="AV18" s="6" t="s">
+      <c r="AX18" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="AY18" s="15" t="s">
         <v>223</v>
       </c>
-      <c r="AW18" s="6" t="s">
+      <c r="AZ18" s="15" t="s">
         <v>224</v>
       </c>
-      <c r="AX18" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="AY18" s="6" t="s">
+      <c r="BA18" s="15" t="s">
         <v>225</v>
       </c>
-      <c r="AZ18" s="6" t="s">
+      <c r="BB18" s="15" t="s">
         <v>226</v>
       </c>
-      <c r="BA18" s="6" t="s">
+      <c r="BC18" s="15" t="s">
         <v>227</v>
       </c>
-      <c r="BB18" s="6" t="s">
+      <c r="BD18" s="15" t="s">
         <v>228</v>
-      </c>
-      <c r="BC18" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="BD18" s="6" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="19" spans="2:56">
       <c r="B19" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="D19" s="15" t="s">
         <v>231</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="E19" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="F19" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="G19" s="15" t="s">
         <v>234</v>
       </c>
-      <c r="F19" s="6" t="s">
+      <c r="H19" s="15" t="s">
         <v>235</v>
       </c>
-      <c r="G19" s="6" t="s">
+      <c r="I19" s="15" t="s">
         <v>236</v>
       </c>
-      <c r="H19" s="6" t="s">
+      <c r="J19" s="15" t="s">
         <v>237</v>
       </c>
-      <c r="I19" s="6" t="s">
+      <c r="K19" s="15" t="s">
         <v>238</v>
       </c>
-      <c r="J19" s="6" t="s">
+      <c r="L19" s="15" t="s">
         <v>239</v>
       </c>
-      <c r="K19" s="6" t="s">
+      <c r="M19" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="N19" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="L19" s="6" t="s">
+      <c r="O19" s="15" t="s">
         <v>241</v>
       </c>
-      <c r="M19" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="N19" s="6" t="s">
+      <c r="P19" s="15" t="s">
         <v>242</v>
       </c>
-      <c r="O19" s="6" t="s">
+      <c r="Q19" s="15" t="s">
         <v>243</v>
       </c>
-      <c r="P19" s="6" t="s">
+      <c r="R19" s="15" t="s">
         <v>244</v>
       </c>
-      <c r="Q19" s="6" t="s">
+      <c r="S19" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="R19" s="6" t="s">
+      <c r="T19" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="S19" s="6" t="s">
+      <c r="U19" s="15" t="s">
         <v>247</v>
       </c>
-      <c r="T19" s="6" t="s">
+      <c r="V19" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="U19" s="6" t="s">
+      <c r="W19" s="15" t="s">
         <v>249</v>
       </c>
-      <c r="V19" s="6" t="s">
+      <c r="X19" s="15" t="s">
         <v>250</v>
       </c>
-      <c r="W19" s="6" t="s">
+      <c r="Y19" s="15" t="s">
         <v>251</v>
       </c>
-      <c r="X19" s="6" t="s">
+      <c r="Z19" s="15" t="s">
         <v>252</v>
       </c>
-      <c r="Y19" s="6" t="s">
+      <c r="AA19" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="AB19" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="AC19" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="AD19" s="15" t="s">
         <v>253</v>
       </c>
-      <c r="Z19" s="6" t="s">
+      <c r="AE19" s="15" t="s">
         <v>254</v>
       </c>
-      <c r="AA19" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="AB19" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="AC19" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="AD19" s="6" t="s">
+      <c r="AF19" s="15" t="s">
         <v>255</v>
       </c>
-      <c r="AE19" s="6" t="s">
+      <c r="AG19" s="15" t="s">
         <v>256</v>
       </c>
-      <c r="AF19" s="6" t="s">
+      <c r="AH19" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="AG19" s="6" t="s">
+      <c r="AI19" s="15" t="s">
         <v>258</v>
       </c>
-      <c r="AH19" s="6" t="s">
+      <c r="AJ19" s="15" t="s">
         <v>259</v>
       </c>
-      <c r="AI19" s="6" t="s">
+      <c r="AK19" s="15" t="s">
         <v>260</v>
       </c>
-      <c r="AJ19" s="6" t="s">
+      <c r="AL19" s="15" t="s">
         <v>261</v>
       </c>
-      <c r="AK19" s="6" t="s">
+      <c r="AM19" s="15" t="s">
         <v>262</v>
       </c>
-      <c r="AL19" s="6" t="s">
+      <c r="AN19" s="15" t="s">
         <v>263</v>
       </c>
-      <c r="AM19" s="6" t="s">
+      <c r="AO19" s="15" t="s">
         <v>264</v>
       </c>
-      <c r="AN19" s="6" t="s">
+      <c r="AP19" s="15" t="s">
         <v>265</v>
       </c>
-      <c r="AO19" s="6" t="s">
+      <c r="AQ19" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="AR19" s="15" t="s">
         <v>266</v>
       </c>
-      <c r="AP19" s="6" t="s">
+      <c r="AS19" s="15" t="s">
         <v>267</v>
       </c>
-      <c r="AQ19" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="AR19" s="6" t="s">
+      <c r="AT19" s="15" t="s">
         <v>268</v>
       </c>
-      <c r="AS19" s="6" t="s">
+      <c r="AU19" s="15" t="s">
         <v>269</v>
       </c>
-      <c r="AT19" s="6" t="s">
+      <c r="AV19" s="15" t="s">
         <v>270</v>
       </c>
-      <c r="AU19" s="6" t="s">
+      <c r="AW19" s="15" t="s">
         <v>271</v>
       </c>
-      <c r="AV19" s="6" t="s">
+      <c r="AX19" s="15" t="s">
         <v>272</v>
       </c>
-      <c r="AW19" s="6" t="s">
+      <c r="AY19" s="15" t="s">
         <v>273</v>
       </c>
-      <c r="AX19" s="6" t="s">
+      <c r="AZ19" s="15" t="s">
         <v>274</v>
       </c>
-      <c r="AY19" s="6" t="s">
+      <c r="BA19" s="15" t="s">
         <v>275</v>
       </c>
-      <c r="AZ19" s="6" t="s">
+      <c r="BB19" s="15" t="s">
         <v>276</v>
       </c>
-      <c r="BA19" s="6" t="s">
+      <c r="BC19" s="15" t="s">
         <v>277</v>
       </c>
-      <c r="BB19" s="6" t="s">
+      <c r="BD19" s="15" t="s">
         <v>278</v>
-      </c>
-      <c r="BC19" s="6" t="s">
-        <v>279</v>
-      </c>
-      <c r="BD19" s="6" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="20" spans="2:56">
       <c r="B20" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="D20" s="15" t="s">
         <v>281</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="E20" s="15" t="s">
         <v>282</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="F20" s="15" t="s">
         <v>283</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="G20" s="15" t="s">
         <v>284</v>
       </c>
-      <c r="F20" s="6" t="s">
+      <c r="H20" s="15" t="s">
         <v>285</v>
       </c>
-      <c r="G20" s="6" t="s">
+      <c r="I20" s="15" t="s">
         <v>286</v>
       </c>
-      <c r="H20" s="6" t="s">
+      <c r="J20" s="15" t="s">
         <v>287</v>
       </c>
-      <c r="I20" s="6" t="s">
+      <c r="K20" s="15" t="s">
         <v>288</v>
       </c>
-      <c r="J20" s="6" t="s">
+      <c r="L20" s="15" t="s">
         <v>289</v>
       </c>
-      <c r="K20" s="6" t="s">
+      <c r="M20" s="15" t="s">
         <v>290</v>
       </c>
-      <c r="L20" s="6" t="s">
+      <c r="N20" s="15" t="s">
         <v>291</v>
       </c>
-      <c r="M20" s="6" t="s">
+      <c r="O20" s="15" t="s">
         <v>292</v>
       </c>
-      <c r="N20" s="6" t="s">
+      <c r="P20" s="15" t="s">
         <v>293</v>
       </c>
-      <c r="O20" s="6" t="s">
+      <c r="Q20" s="15" t="s">
         <v>294</v>
       </c>
-      <c r="P20" s="6" t="s">
+      <c r="R20" s="15" t="s">
         <v>295</v>
       </c>
-      <c r="Q20" s="6" t="s">
+      <c r="S20" s="15" t="s">
         <v>296</v>
       </c>
-      <c r="R20" s="6" t="s">
+      <c r="T20" s="15" t="s">
         <v>297</v>
       </c>
-      <c r="S20" s="6" t="s">
+      <c r="U20" s="15" t="s">
         <v>298</v>
       </c>
-      <c r="T20" s="6" t="s">
+      <c r="V20" s="15" t="s">
         <v>299</v>
       </c>
-      <c r="U20" s="6" t="s">
+      <c r="W20" s="15" t="s">
         <v>300</v>
       </c>
-      <c r="V20" s="6" t="s">
+      <c r="X20" s="15" t="s">
         <v>301</v>
       </c>
-      <c r="W20" s="6" t="s">
+      <c r="Y20" s="15" t="s">
         <v>302</v>
       </c>
-      <c r="X20" s="6" t="s">
+      <c r="Z20" s="15" t="s">
         <v>303</v>
       </c>
-      <c r="Y20" s="6" t="s">
+      <c r="AA20" s="15" t="s">
         <v>304</v>
       </c>
-      <c r="Z20" s="6" t="s">
+      <c r="AB20" s="15" t="s">
         <v>305</v>
       </c>
-      <c r="AA20" s="6" t="s">
+      <c r="AC20" s="15" t="s">
         <v>306</v>
       </c>
-      <c r="AB20" s="6" t="s">
+      <c r="AD20" s="15" t="s">
         <v>307</v>
       </c>
-      <c r="AC20" s="6" t="s">
+      <c r="AE20" s="15" t="s">
         <v>308</v>
       </c>
-      <c r="AD20" s="6" t="s">
+      <c r="AF20" s="15" t="s">
         <v>309</v>
       </c>
-      <c r="AE20" s="6" t="s">
+      <c r="AG20" s="15" t="s">
         <v>310</v>
       </c>
-      <c r="AF20" s="6" t="s">
+      <c r="AH20" s="15" t="s">
         <v>311</v>
       </c>
-      <c r="AG20" s="6" t="s">
+      <c r="AI20" s="15" t="s">
         <v>312</v>
       </c>
-      <c r="AH20" s="6" t="s">
+      <c r="AJ20" s="15" t="s">
         <v>313</v>
       </c>
-      <c r="AI20" s="6" t="s">
+      <c r="AK20" s="15" t="s">
         <v>314</v>
       </c>
-      <c r="AJ20" s="6" t="s">
+      <c r="AL20" s="15" t="s">
         <v>315</v>
       </c>
-      <c r="AK20" s="6" t="s">
+      <c r="AM20" s="15" t="s">
+        <v>281</v>
+      </c>
+      <c r="AN20" s="15" t="s">
         <v>316</v>
       </c>
-      <c r="AL20" s="6" t="s">
+      <c r="AO20" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="AP20" s="15" t="s">
         <v>317</v>
       </c>
-      <c r="AM20" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="AN20" s="6" t="s">
+      <c r="AQ20" s="15" t="s">
         <v>318</v>
       </c>
-      <c r="AO20" s="6" t="s">
-        <v>304</v>
-      </c>
-      <c r="AP20" s="6" t="s">
+      <c r="AR20" s="15" t="s">
         <v>319</v>
       </c>
-      <c r="AQ20" s="6" t="s">
+      <c r="AS20" s="15" t="s">
         <v>320</v>
       </c>
-      <c r="AR20" s="6" t="s">
+      <c r="AT20" s="15" t="s">
         <v>321</v>
       </c>
-      <c r="AS20" s="6" t="s">
+      <c r="AU20" s="15" t="s">
         <v>322</v>
       </c>
-      <c r="AT20" s="6" t="s">
+      <c r="AV20" s="15" t="s">
         <v>323</v>
       </c>
-      <c r="AU20" s="6" t="s">
+      <c r="AW20" s="15" t="s">
         <v>324</v>
       </c>
-      <c r="AV20" s="6" t="s">
+      <c r="AX20" s="15" t="s">
         <v>325</v>
       </c>
-      <c r="AW20" s="6" t="s">
+      <c r="AY20" s="15" t="s">
         <v>326</v>
       </c>
-      <c r="AX20" s="6" t="s">
+      <c r="AZ20" s="15" t="s">
         <v>327</v>
       </c>
-      <c r="AY20" s="6" t="s">
+      <c r="BA20" s="15" t="s">
         <v>328</v>
       </c>
-      <c r="AZ20" s="6" t="s">
+      <c r="BB20" s="15" t="s">
         <v>329</v>
       </c>
-      <c r="BA20" s="6" t="s">
+      <c r="BC20" s="15" t="s">
         <v>330</v>
       </c>
-      <c r="BB20" s="6" t="s">
+      <c r="BD20" s="15" t="s">
         <v>331</v>
-      </c>
-      <c r="BC20" s="6" t="s">
-        <v>332</v>
-      </c>
-      <c r="BD20" s="6" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="22" spans="2:56">
@@ -6983,7 +6994,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="B16:BD20" numberStoredAsText="1"/>
+    <ignoredError sqref="B16:BC16 B18:BD20 B17:AW17 AY17:BD17" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -6996,21 +7007,21 @@
       <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.265625" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="28" spans="7:12">
       <c r="G28" s="8" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="H28" s="11">
         <f>MAX(H34:H284)</f>
         <v>9.6869462492616742E-2</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="K28" s="4"/>
       <c r="L28" s="5">
@@ -7020,7 +7031,7 @@
     </row>
     <row r="29" spans="7:12">
       <c r="G29" s="8" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="H29" s="11">
         <f>MIN(H34:H284)</f>
@@ -7029,7 +7040,7 @@
     </row>
     <row r="30" spans="7:12">
       <c r="G30" s="9" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="H30" s="12">
         <f>_xlfn.STDEV.S(H34:H284)</f>
@@ -7038,7 +7049,7 @@
     </row>
     <row r="31" spans="7:12">
       <c r="G31" s="9" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="H31" s="11">
         <f>AVERAGE(H34:H284)</f>
@@ -7047,25 +7058,25 @@
     </row>
     <row r="33" spans="2:8">
       <c r="B33" s="8" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="H33" s="8" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="34" spans="2:8">
@@ -7085,7 +7096,7 @@
         <v>944290</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="H34" s="10">
         <f>B34/E34-1</f>
@@ -7109,7 +7120,7 @@
         <v>1158241</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="H35" s="10">
         <f t="shared" ref="H35:H98" si="0">B35/E35-1</f>
@@ -7133,7 +7144,7 @@
         <v>1045763</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="H36" s="10">
         <f t="shared" si="0"/>
@@ -7157,7 +7168,7 @@
         <v>2211559</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="H37" s="10">
         <f t="shared" si="0"/>
@@ -7181,7 +7192,7 @@
         <v>1287307</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="H38" s="10">
         <f t="shared" si="0"/>
@@ -7205,7 +7216,7 @@
         <v>1844150</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="H39" s="10">
         <f t="shared" si="0"/>
@@ -7229,7 +7240,7 @@
         <v>2057719</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="H40" s="10">
         <f t="shared" si="0"/>
@@ -7253,7 +7264,7 @@
         <v>1394547</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="H41" s="10">
         <f t="shared" si="0"/>
@@ -7277,7 +7288,7 @@
         <v>1305366</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="H42" s="10">
         <f t="shared" si="0"/>
@@ -7301,7 +7312,7 @@
         <v>867462</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="H43" s="10">
         <f t="shared" si="0"/>
@@ -7325,7 +7336,7 @@
         <v>1083738</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="H44" s="10">
         <f t="shared" si="0"/>
@@ -7349,7 +7360,7 @@
         <v>924703</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="H45" s="10">
         <f t="shared" si="0"/>
@@ -7373,7 +7384,7 @@
         <v>899787</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="H46" s="10">
         <f t="shared" si="0"/>
@@ -7397,7 +7408,7 @@
         <v>1034525</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="H47" s="10">
         <f t="shared" si="0"/>
@@ -7421,7 +7432,7 @@
         <v>1512417</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="H48" s="10">
         <f t="shared" si="0"/>
@@ -7445,7 +7456,7 @@
         <v>1439709</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="H49" s="10">
         <f t="shared" si="0"/>
@@ -7469,7 +7480,7 @@
         <v>2667230</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="H50" s="10">
         <f t="shared" si="0"/>
@@ -7493,7 +7504,7 @@
         <v>1151276</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="H51" s="10">
         <f t="shared" si="0"/>
@@ -7517,7 +7528,7 @@
         <v>1252537</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="H52" s="10">
         <f t="shared" si="0"/>
@@ -7541,7 +7552,7 @@
         <v>1097107</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="H53" s="10">
         <f t="shared" si="0"/>
@@ -7565,7 +7576,7 @@
         <v>1234326</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="H54" s="10">
         <f t="shared" si="0"/>
@@ -7589,7 +7600,7 @@
         <v>1056097</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="H55" s="10">
         <f t="shared" si="0"/>
@@ -7613,7 +7624,7 @@
         <v>1886552</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="H56" s="10">
         <f t="shared" si="0"/>
@@ -7637,7 +7648,7 @@
         <v>2469317</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="H57" s="10">
         <f t="shared" si="0"/>
@@ -7661,7 +7672,7 @@
         <v>2067785</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="H58" s="10">
         <f t="shared" si="0"/>
@@ -7685,7 +7696,7 @@
         <v>1898300</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="H59" s="10">
         <f t="shared" si="0"/>
@@ -7709,7 +7720,7 @@
         <v>1230429</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="H60" s="10">
         <f t="shared" si="0"/>
@@ -7733,7 +7744,7 @@
         <v>1405908</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="H61" s="10">
         <f t="shared" si="0"/>
@@ -7757,7 +7768,7 @@
         <v>844753</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="H62" s="10">
         <f t="shared" si="0"/>
@@ -7781,7 +7792,7 @@
         <v>805824</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="H63" s="10">
         <f t="shared" si="0"/>
@@ -7805,7 +7816,7 @@
         <v>742629</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="H64" s="10">
         <f t="shared" si="0"/>
@@ -7829,7 +7840,7 @@
         <v>984676</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="H65" s="10">
         <f t="shared" si="0"/>
@@ -7853,7 +7864,7 @@
         <v>960841</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="H66" s="10">
         <f t="shared" si="0"/>
@@ -7877,7 +7888,7 @@
         <v>894534</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="H67" s="10">
         <f t="shared" si="0"/>
@@ -7901,7 +7912,7 @@
         <v>1693996</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="H68" s="10">
         <f t="shared" si="0"/>
@@ -7925,7 +7936,7 @@
         <v>2083836</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="H69" s="10">
         <f t="shared" si="0"/>
@@ -7949,7 +7960,7 @@
         <v>3351068</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="H70" s="10">
         <f t="shared" si="0"/>
@@ -7973,7 +7984,7 @@
         <v>1142264</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="H71" s="10">
         <f t="shared" si="0"/>
@@ -7997,7 +8008,7 @@
         <v>895167</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="H72" s="10">
         <f t="shared" si="0"/>
@@ -8021,7 +8032,7 @@
         <v>858942</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="H73" s="10">
         <f t="shared" si="0"/>
@@ -8045,7 +8056,7 @@
         <v>671715</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="H74" s="10">
         <f t="shared" si="0"/>
@@ -8069,7 +8080,7 @@
         <v>1269890</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="H75" s="10">
         <f t="shared" si="0"/>
@@ -8093,7 +8104,7 @@
         <v>913641</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="H76" s="10">
         <f t="shared" si="0"/>
@@ -8117,7 +8128,7 @@
         <v>1105538</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="H77" s="10">
         <f t="shared" si="0"/>
@@ -8141,7 +8152,7 @@
         <v>804185</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="H78" s="10">
         <f t="shared" si="0"/>
@@ -8165,7 +8176,7 @@
         <v>1212000</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H79" s="10">
         <f t="shared" si="0"/>
@@ -8189,7 +8200,7 @@
         <v>4419810</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="H80" s="10">
         <f t="shared" si="0"/>
@@ -8213,7 +8224,7 @@
         <v>1190215</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="H81" s="10">
         <f t="shared" si="0"/>
@@ -8237,7 +8248,7 @@
         <v>920157</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="H82" s="10">
         <f t="shared" si="0"/>
@@ -8261,7 +8272,7 @@
         <v>1007987</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="H83" s="10">
         <f t="shared" si="0"/>
@@ -8285,7 +8296,7 @@
         <v>1120816</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="H84" s="10">
         <f t="shared" si="0"/>
@@ -8309,7 +8320,7 @@
         <v>873011</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="H85" s="10">
         <f t="shared" si="0"/>
@@ -8333,7 +8344,7 @@
         <v>804883</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="H86" s="10">
         <f t="shared" si="0"/>
@@ -8357,7 +8368,7 @@
         <v>960590</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="H87" s="10">
         <f t="shared" si="0"/>
@@ -8381,7 +8392,7 @@
         <v>780463</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="H88" s="10">
         <f t="shared" si="0"/>
@@ -8405,7 +8416,7 @@
         <v>890488</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="H89" s="10">
         <f t="shared" si="0"/>
@@ -8429,7 +8440,7 @@
         <v>950932</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="H90" s="10">
         <f t="shared" si="0"/>
@@ -8453,7 +8464,7 @@
         <v>1039060</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="H91" s="10">
         <f t="shared" si="0"/>
@@ -8477,7 +8488,7 @@
         <v>1546560</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="H92" s="10">
         <f t="shared" si="0"/>
@@ -8501,7 +8512,7 @@
         <v>1863940</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="H93" s="10">
         <f t="shared" si="0"/>
@@ -8525,7 +8536,7 @@
         <v>1705115</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="H94" s="10">
         <f t="shared" si="0"/>
@@ -8549,7 +8560,7 @@
         <v>1676703</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="H95" s="10">
         <f t="shared" si="0"/>
@@ -8573,7 +8584,7 @@
         <v>1022957</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="H96" s="10">
         <f t="shared" si="0"/>
@@ -8597,7 +8608,7 @@
         <v>1510108</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="H97" s="10">
         <f t="shared" si="0"/>
@@ -8621,7 +8632,7 @@
         <v>2977280</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="H98" s="10">
         <f t="shared" si="0"/>
@@ -8645,7 +8656,7 @@
         <v>1474726</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="H99" s="10">
         <f t="shared" ref="H99:H162" si="1">B99/E99-1</f>
@@ -8669,7 +8680,7 @@
         <v>1066508</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="H100" s="10">
         <f t="shared" si="1"/>
@@ -8693,7 +8704,7 @@
         <v>794594</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="H101" s="10">
         <f t="shared" si="1"/>
@@ -8717,7 +8728,7 @@
         <v>646568</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="H102" s="10">
         <f t="shared" si="1"/>
@@ -8741,7 +8752,7 @@
         <v>987474</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="H103" s="10">
         <f t="shared" si="1"/>
@@ -8765,7 +8776,7 @@
         <v>425526</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="H104" s="10">
         <f t="shared" si="1"/>
@@ -8789,7 +8800,7 @@
         <v>490328</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="H105" s="10">
         <f t="shared" si="1"/>
@@ -8813,7 +8824,7 @@
         <v>611314</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="H106" s="10">
         <f t="shared" si="1"/>
@@ -8837,7 +8848,7 @@
         <v>349037</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="H107" s="10">
         <f t="shared" si="1"/>
@@ -8861,7 +8872,7 @@
         <v>287270</v>
       </c>
       <c r="G108" s="3" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="H108" s="10">
         <f t="shared" si="1"/>
@@ -8885,7 +8896,7 @@
         <v>793810</v>
       </c>
       <c r="G109" s="3" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="H109" s="10">
         <f t="shared" si="1"/>
@@ -8909,7 +8920,7 @@
         <v>2828721</v>
       </c>
       <c r="G110" s="3" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="H110" s="10">
         <f t="shared" si="1"/>
@@ -8933,7 +8944,7 @@
         <v>931314</v>
       </c>
       <c r="G111" s="3" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="H111" s="10">
         <f t="shared" si="1"/>
@@ -8957,7 +8968,7 @@
         <v>1347719</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="H112" s="10">
         <f t="shared" si="1"/>
@@ -8981,7 +8992,7 @@
         <v>1407074</v>
       </c>
       <c r="G113" s="3" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="H113" s="10">
         <f t="shared" si="1"/>
@@ -9005,7 +9016,7 @@
         <v>760434</v>
       </c>
       <c r="G114" s="3" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="H114" s="10">
         <f t="shared" si="1"/>
@@ -9029,7 +9040,7 @@
         <v>990293</v>
       </c>
       <c r="G115" s="3" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="H115" s="10">
         <f t="shared" si="1"/>
@@ -9053,7 +9064,7 @@
         <v>836458</v>
       </c>
       <c r="G116" s="3" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="H116" s="10">
         <f t="shared" si="1"/>
@@ -9077,7 +9088,7 @@
         <v>613150</v>
       </c>
       <c r="G117" s="3" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="H117" s="10">
         <f t="shared" si="1"/>
@@ -9101,7 +9112,7 @@
         <v>556894</v>
       </c>
       <c r="G118" s="3" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="H118" s="10">
         <f t="shared" si="1"/>
@@ -9125,7 +9136,7 @@
         <v>628145</v>
       </c>
       <c r="G119" s="3" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="H119" s="10">
         <f t="shared" si="1"/>
@@ -9149,7 +9160,7 @@
         <v>472187</v>
       </c>
       <c r="G120" s="3" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="H120" s="10">
         <f t="shared" si="1"/>
@@ -9173,7 +9184,7 @@
         <v>594712</v>
       </c>
       <c r="G121" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="H121" s="10">
         <f t="shared" si="1"/>
@@ -9197,7 +9208,7 @@
         <v>680497</v>
       </c>
       <c r="G122" s="3" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="H122" s="10">
         <f t="shared" si="1"/>
@@ -9221,7 +9232,7 @@
         <v>1016513</v>
       </c>
       <c r="G123" s="3" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="H123" s="10">
         <f t="shared" si="1"/>
@@ -9245,7 +9256,7 @@
         <v>1149053</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="H124" s="10">
         <f t="shared" si="1"/>
@@ -9269,7 +9280,7 @@
         <v>341367</v>
       </c>
       <c r="G125" s="3" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="H125" s="10">
         <f t="shared" si="1"/>
@@ -9293,7 +9304,7 @@
         <v>711825</v>
       </c>
       <c r="G126" s="3" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="H126" s="10">
         <f t="shared" si="1"/>
@@ -9317,7 +9328,7 @@
         <v>594220</v>
       </c>
       <c r="G127" s="3" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="H127" s="10">
         <f t="shared" si="1"/>
@@ -9341,7 +9352,7 @@
         <v>1138187</v>
       </c>
       <c r="G128" s="3" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="H128" s="10">
         <f t="shared" si="1"/>
@@ -9365,7 +9376,7 @@
         <v>966796</v>
       </c>
       <c r="G129" s="3" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="H129" s="10">
         <f t="shared" si="1"/>
@@ -9389,7 +9400,7 @@
         <v>1750251</v>
       </c>
       <c r="G130" s="3" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H130" s="10">
         <f t="shared" si="1"/>
@@ -9413,7 +9424,7 @@
         <v>1038268</v>
       </c>
       <c r="G131" s="3" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H131" s="10">
         <f t="shared" si="1"/>
@@ -9437,7 +9448,7 @@
         <v>888750</v>
       </c>
       <c r="G132" s="3" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H132" s="10">
         <f t="shared" si="1"/>
@@ -9461,7 +9472,7 @@
         <v>760506</v>
       </c>
       <c r="G133" s="3" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="H133" s="10">
         <f t="shared" si="1"/>
@@ -9485,7 +9496,7 @@
         <v>982026</v>
       </c>
       <c r="G134" s="3" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="H134" s="10">
         <f t="shared" si="1"/>
@@ -9509,7 +9520,7 @@
         <v>709353</v>
       </c>
       <c r="G135" s="3" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="H135" s="10">
         <f t="shared" si="1"/>
@@ -9533,7 +9544,7 @@
         <v>955300</v>
       </c>
       <c r="G136" s="3" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="H136" s="10">
         <f t="shared" si="1"/>
@@ -9557,7 +9568,7 @@
         <v>1444116</v>
       </c>
       <c r="G137" s="3" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="H137" s="10">
         <f t="shared" si="1"/>
@@ -9581,7 +9592,7 @@
         <v>1634192</v>
       </c>
       <c r="G138" s="3" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="H138" s="10">
         <f t="shared" si="1"/>
@@ -9605,7 +9616,7 @@
         <v>1804199</v>
       </c>
       <c r="G139" s="3" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="H139" s="10">
         <f t="shared" si="1"/>
@@ -9629,7 +9640,7 @@
         <v>1414133</v>
       </c>
       <c r="G140" s="3" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="H140" s="10">
         <f t="shared" si="1"/>
@@ -9653,7 +9664,7 @@
         <v>3866306</v>
       </c>
       <c r="G141" s="3" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="H141" s="10">
         <f t="shared" si="1"/>
@@ -9677,7 +9688,7 @@
         <v>1275306</v>
       </c>
       <c r="G142" s="3" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="H142" s="10">
         <f t="shared" si="1"/>
@@ -9701,7 +9712,7 @@
         <v>713179</v>
       </c>
       <c r="G143" s="3" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="H143" s="10">
         <f t="shared" si="1"/>
@@ -9725,7 +9736,7 @@
         <v>686225</v>
       </c>
       <c r="G144" s="3" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="H144" s="10">
         <f t="shared" si="1"/>
@@ -9749,7 +9760,7 @@
         <v>602015</v>
       </c>
       <c r="G145" s="3" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="H145" s="10">
         <f t="shared" si="1"/>
@@ -9773,7 +9784,7 @@
         <v>860414</v>
       </c>
       <c r="G146" s="3" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="H146" s="10">
         <f t="shared" si="1"/>
@@ -9797,7 +9808,7 @@
         <v>534198</v>
       </c>
       <c r="G147" s="3" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="H147" s="10">
         <f t="shared" si="1"/>
@@ -9821,7 +9832,7 @@
         <v>547278</v>
       </c>
       <c r="G148" s="3" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="H148" s="10">
         <f t="shared" si="1"/>
@@ -9845,7 +9856,7 @@
         <v>420464</v>
       </c>
       <c r="G149" s="3" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="H149" s="10">
         <f t="shared" si="1"/>
@@ -9869,7 +9880,7 @@
         <v>416184</v>
       </c>
       <c r="G150" s="3" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="H150" s="10">
         <f t="shared" si="1"/>
@@ -9893,7 +9904,7 @@
         <v>616160</v>
       </c>
       <c r="G151" s="3" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="H151" s="10">
         <f t="shared" si="1"/>
@@ -9917,7 +9928,7 @@
         <v>470913</v>
       </c>
       <c r="G152" s="3" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="H152" s="10">
         <f t="shared" si="1"/>
@@ -9941,7 +9952,7 @@
         <v>606212</v>
       </c>
       <c r="G153" s="3" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="H153" s="10">
         <f t="shared" si="1"/>
@@ -9965,7 +9976,7 @@
         <v>1112080</v>
       </c>
       <c r="G154" s="3" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="H154" s="10">
         <f t="shared" si="1"/>
@@ -9989,7 +10000,7 @@
         <v>970470</v>
       </c>
       <c r="G155" s="3" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="H155" s="10">
         <f t="shared" si="1"/>
@@ -10013,7 +10024,7 @@
         <v>1480335</v>
       </c>
       <c r="G156" s="3" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="H156" s="10">
         <f t="shared" si="1"/>
@@ -10037,7 +10048,7 @@
         <v>1755886</v>
       </c>
       <c r="G157" s="3" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="H157" s="10">
         <f t="shared" si="1"/>
@@ -10061,7 +10072,7 @@
         <v>403919</v>
       </c>
       <c r="G158" s="3" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="H158" s="10">
         <f t="shared" si="1"/>
@@ -10085,7 +10096,7 @@
         <v>758023</v>
       </c>
       <c r="G159" s="3" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="H159" s="10">
         <f t="shared" si="1"/>
@@ -10109,7 +10120,7 @@
         <v>592717</v>
       </c>
       <c r="G160" s="3" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="H160" s="10">
         <f t="shared" si="1"/>
@@ -10133,7 +10144,7 @@
         <v>363752</v>
       </c>
       <c r="G161" s="3" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="H161" s="10">
         <f t="shared" si="1"/>
@@ -10157,7 +10168,7 @@
         <v>305808</v>
       </c>
       <c r="G162" s="3" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="H162" s="10">
         <f t="shared" si="1"/>
@@ -10181,7 +10192,7 @@
         <v>556104</v>
       </c>
       <c r="G163" s="3" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="H163" s="10">
         <f t="shared" ref="H163:H226" si="2">B163/E163-1</f>
@@ -10205,7 +10216,7 @@
         <v>461793</v>
       </c>
       <c r="G164" s="3" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="H164" s="10">
         <f t="shared" si="2"/>
@@ -10229,7 +10240,7 @@
         <v>512831</v>
       </c>
       <c r="G165" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="H165" s="10">
         <f t="shared" si="2"/>
@@ -10253,7 +10264,7 @@
         <v>474644</v>
       </c>
       <c r="G166" s="3" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="H166" s="10">
         <f t="shared" si="2"/>
@@ -10277,7 +10288,7 @@
         <v>537194</v>
       </c>
       <c r="G167" s="3" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="H167" s="10">
         <f t="shared" si="2"/>
@@ -10301,7 +10312,7 @@
         <v>607814</v>
       </c>
       <c r="G168" s="3" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="H168" s="10">
         <f t="shared" si="2"/>
@@ -10325,7 +10336,7 @@
         <v>662095</v>
       </c>
       <c r="G169" s="3" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="H169" s="10">
         <f t="shared" si="2"/>
@@ -10349,7 +10360,7 @@
         <v>519472</v>
       </c>
       <c r="G170" s="3" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="H170" s="10">
         <f t="shared" si="2"/>
@@ -10373,7 +10384,7 @@
         <v>599786</v>
       </c>
       <c r="G171" s="3" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="H171" s="10">
         <f t="shared" si="2"/>
@@ -10397,7 +10408,7 @@
         <v>510982</v>
       </c>
       <c r="G172" s="3" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="H172" s="10">
         <f t="shared" si="2"/>
@@ -10421,7 +10432,7 @@
         <v>840064</v>
       </c>
       <c r="G173" s="3" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="H173" s="10">
         <f t="shared" si="2"/>
@@ -10445,7 +10456,7 @@
         <v>1552067</v>
       </c>
       <c r="G174" s="3" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="H174" s="10">
         <f t="shared" si="2"/>
@@ -10469,7 +10480,7 @@
         <v>592677</v>
       </c>
       <c r="G175" s="3" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H175" s="10">
         <f t="shared" si="2"/>
@@ -10493,7 +10504,7 @@
         <v>513762</v>
       </c>
       <c r="G176" s="3" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="H176" s="10">
         <f t="shared" si="2"/>
@@ -10517,7 +10528,7 @@
         <v>478424</v>
       </c>
       <c r="G177" s="3" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="H177" s="10">
         <f t="shared" si="2"/>
@@ -10541,7 +10552,7 @@
         <v>673961</v>
       </c>
       <c r="G178" s="3" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="H178" s="10">
         <f t="shared" si="2"/>
@@ -10565,7 +10576,7 @@
         <v>469303</v>
       </c>
       <c r="G179" s="3" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="H179" s="10">
         <f t="shared" si="2"/>
@@ -10589,7 +10600,7 @@
         <v>403199</v>
       </c>
       <c r="G180" s="3" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="H180" s="10">
         <f t="shared" si="2"/>
@@ -10613,7 +10624,7 @@
         <v>419007</v>
       </c>
       <c r="G181" s="3" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="H181" s="10">
         <f t="shared" si="2"/>
@@ -10637,7 +10648,7 @@
         <v>434592</v>
       </c>
       <c r="G182" s="3" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="H182" s="10">
         <f t="shared" si="2"/>
@@ -10661,7 +10672,7 @@
         <v>434937</v>
       </c>
       <c r="G183" s="3" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="H183" s="10">
         <f t="shared" si="2"/>
@@ -10685,7 +10696,7 @@
         <v>403147</v>
       </c>
       <c r="G184" s="3" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="H184" s="10">
         <f t="shared" si="2"/>
@@ -10709,7 +10720,7 @@
         <v>531223</v>
       </c>
       <c r="G185" s="3" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="H185" s="10">
         <f t="shared" si="2"/>
@@ -10733,7 +10744,7 @@
         <v>555356</v>
       </c>
       <c r="G186" s="3" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="H186" s="10">
         <f t="shared" si="2"/>
@@ -10757,7 +10768,7 @@
         <v>826861</v>
       </c>
       <c r="G187" s="3" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="H187" s="10">
         <f t="shared" si="2"/>
@@ -10781,7 +10792,7 @@
         <v>731688</v>
       </c>
       <c r="G188" s="3" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="H188" s="10">
         <f t="shared" si="2"/>
@@ -10805,7 +10816,7 @@
         <v>637682</v>
       </c>
       <c r="G189" s="3" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="H189" s="10">
         <f t="shared" si="2"/>
@@ -10829,7 +10840,7 @@
         <v>493808</v>
       </c>
       <c r="G190" s="3" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="H190" s="10">
         <f t="shared" si="2"/>
@@ -10853,7 +10864,7 @@
         <v>558043</v>
       </c>
       <c r="G191" s="3" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="H191" s="10">
         <f t="shared" si="2"/>
@@ -10877,7 +10888,7 @@
         <v>471396</v>
       </c>
       <c r="G192" s="3" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="H192" s="10">
         <f t="shared" si="2"/>
@@ -10901,7 +10912,7 @@
         <v>623777</v>
       </c>
       <c r="G193" s="3" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="H193" s="10">
         <f t="shared" si="2"/>
@@ -10925,7 +10936,7 @@
         <v>415058</v>
       </c>
       <c r="G194" s="3" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="H194" s="10">
         <f t="shared" si="2"/>
@@ -10949,7 +10960,7 @@
         <v>522479</v>
       </c>
       <c r="G195" s="3" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="H195" s="10">
         <f t="shared" si="2"/>
@@ -10973,7 +10984,7 @@
         <v>448706</v>
       </c>
       <c r="G196" s="3" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="H196" s="10">
         <f t="shared" si="2"/>
@@ -10997,7 +11008,7 @@
         <v>713793</v>
       </c>
       <c r="G197" s="3" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="H197" s="10">
         <f t="shared" si="2"/>
@@ -11021,7 +11032,7 @@
         <v>870131</v>
       </c>
       <c r="G198" s="3" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="H198" s="10">
         <f t="shared" si="2"/>
@@ -11045,7 +11056,7 @@
         <v>1449166</v>
       </c>
       <c r="G199" s="3" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="H199" s="10">
         <f t="shared" si="2"/>
@@ -11069,7 +11080,7 @@
         <v>1380568</v>
       </c>
       <c r="G200" s="3" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="H200" s="10">
         <f t="shared" si="2"/>
@@ -11093,7 +11104,7 @@
         <v>4808853</v>
       </c>
       <c r="G201" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="H201" s="10">
         <f t="shared" si="2"/>
@@ -11117,7 +11128,7 @@
         <v>618228</v>
       </c>
       <c r="G202" s="3" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="H202" s="10">
         <f t="shared" si="2"/>
@@ -11141,7 +11152,7 @@
         <v>1164814</v>
       </c>
       <c r="G203" s="3" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="H203" s="10">
         <f t="shared" si="2"/>
@@ -11165,7 +11176,7 @@
         <v>1446515</v>
       </c>
       <c r="G204" s="3" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="H204" s="10">
         <f t="shared" si="2"/>
@@ -11189,7 +11200,7 @@
         <v>2108536</v>
       </c>
       <c r="G205" s="3" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="H205" s="10">
         <f t="shared" si="2"/>
@@ -11213,7 +11224,7 @@
         <v>1066325</v>
       </c>
       <c r="G206" s="3" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="H206" s="10">
         <f t="shared" si="2"/>
@@ -11237,7 +11248,7 @@
         <v>1149043</v>
       </c>
       <c r="G207" s="3" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="H207" s="10">
         <f t="shared" si="2"/>
@@ -11261,7 +11272,7 @@
         <v>777828</v>
       </c>
       <c r="G208" s="3" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="H208" s="10">
         <f t="shared" si="2"/>
@@ -11285,7 +11296,7 @@
         <v>1083006</v>
       </c>
       <c r="G209" s="3" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="H209" s="10">
         <f t="shared" si="2"/>
@@ -11309,7 +11320,7 @@
         <v>724209</v>
       </c>
       <c r="G210" s="3" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="H210" s="10">
         <f t="shared" si="2"/>
@@ -11333,7 +11344,7 @@
         <v>771769</v>
       </c>
       <c r="G211" s="3" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="H211" s="10">
         <f t="shared" si="2"/>
@@ -11357,7 +11368,7 @@
         <v>985201</v>
       </c>
       <c r="G212" s="3" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="H212" s="10">
         <f t="shared" si="2"/>
@@ -11381,7 +11392,7 @@
         <v>786116</v>
       </c>
       <c r="G213" s="3" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="H213" s="10">
         <f t="shared" si="2"/>
@@ -11405,7 +11416,7 @@
         <v>989010</v>
       </c>
       <c r="G214" s="3" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H214" s="10">
         <f t="shared" si="2"/>
@@ -11429,7 +11440,7 @@
         <v>948162</v>
       </c>
       <c r="G215" s="3" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="H215" s="10">
         <f t="shared" si="2"/>
@@ -11453,7 +11464,7 @@
         <v>642555</v>
       </c>
       <c r="G216" s="3" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="H216" s="10">
         <f t="shared" si="2"/>
@@ -11477,7 +11488,7 @@
         <v>699925</v>
       </c>
       <c r="G217" s="3" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="H217" s="10">
         <f t="shared" si="2"/>
@@ -11501,7 +11512,7 @@
         <v>765516</v>
       </c>
       <c r="G218" s="3" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="H218" s="10">
         <f t="shared" si="2"/>
@@ -11525,7 +11536,7 @@
         <v>1262732</v>
       </c>
       <c r="G219" s="3" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="H219" s="10">
         <f t="shared" si="2"/>
@@ -11549,7 +11560,7 @@
         <v>1020828</v>
       </c>
       <c r="G220" s="3" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="H220" s="10">
         <f t="shared" si="2"/>
@@ -11573,7 +11584,7 @@
         <v>1098925</v>
       </c>
       <c r="G221" s="3" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="H221" s="10">
         <f t="shared" si="2"/>
@@ -11597,7 +11608,7 @@
         <v>833184</v>
       </c>
       <c r="G222" s="3" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="H222" s="10">
         <f t="shared" si="2"/>
@@ -11621,7 +11632,7 @@
         <v>608765</v>
       </c>
       <c r="G223" s="3" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="H223" s="10">
         <f t="shared" si="2"/>
@@ -11645,7 +11656,7 @@
         <v>737308</v>
       </c>
       <c r="G224" s="3" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="H224" s="10">
         <f t="shared" si="2"/>
@@ -11669,7 +11680,7 @@
         <v>472838</v>
       </c>
       <c r="G225" s="3" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="H225" s="10">
         <f t="shared" si="2"/>
@@ -11693,7 +11704,7 @@
         <v>433508</v>
       </c>
       <c r="G226" s="3" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="H226" s="10">
         <f t="shared" si="2"/>
@@ -11717,7 +11728,7 @@
         <v>912333</v>
       </c>
       <c r="G227" s="3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="H227" s="10">
         <f t="shared" ref="H227:H284" si="3">B227/E227-1</f>
@@ -11741,7 +11752,7 @@
         <v>505867</v>
       </c>
       <c r="G228" s="3" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="H228" s="10">
         <f t="shared" si="3"/>
@@ -11765,7 +11776,7 @@
         <v>389893</v>
       </c>
       <c r="G229" s="3" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="H229" s="10">
         <f t="shared" si="3"/>
@@ -11789,7 +11800,7 @@
         <v>693167</v>
       </c>
       <c r="G230" s="3" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="H230" s="10">
         <f t="shared" si="3"/>
@@ -11813,7 +11824,7 @@
         <v>848793</v>
       </c>
       <c r="G231" s="3" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="H231" s="10">
         <f t="shared" si="3"/>
@@ -11837,7 +11848,7 @@
         <v>2187437</v>
       </c>
       <c r="G232" s="3" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="H232" s="10">
         <f t="shared" si="3"/>
@@ -11861,7 +11872,7 @@
         <v>1265750</v>
       </c>
       <c r="G233" s="3" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="H233" s="10">
         <f t="shared" si="3"/>
@@ -11885,7 +11896,7 @@
         <v>768276</v>
       </c>
       <c r="G234" s="3" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="H234" s="10">
         <f t="shared" si="3"/>
@@ -11909,7 +11920,7 @@
         <v>643201</v>
       </c>
       <c r="G235" s="3" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="H235" s="10">
         <f t="shared" si="3"/>
@@ -11933,7 +11944,7 @@
         <v>781130</v>
       </c>
       <c r="G236" s="3" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="H236" s="10">
         <f t="shared" si="3"/>
@@ -11957,7 +11968,7 @@
         <v>2115456</v>
       </c>
       <c r="G237" s="3" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="H237" s="10">
         <f t="shared" si="3"/>
@@ -11981,7 +11992,7 @@
         <v>945357</v>
       </c>
       <c r="G238" s="3" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="H238" s="10">
         <f t="shared" si="3"/>
@@ -12005,7 +12016,7 @@
         <v>1189365</v>
       </c>
       <c r="G239" s="3" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="H239" s="10">
         <f t="shared" si="3"/>
@@ -12029,7 +12040,7 @@
         <v>1109626</v>
       </c>
       <c r="G240" s="3" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="H240" s="10">
         <f t="shared" si="3"/>
@@ -12053,7 +12064,7 @@
         <v>590455</v>
       </c>
       <c r="G241" s="3" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="H241" s="10">
         <f t="shared" si="3"/>
@@ -12077,7 +12088,7 @@
         <v>1056994</v>
       </c>
       <c r="G242" s="3" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="H242" s="10">
         <f t="shared" si="3"/>
@@ -12101,7 +12112,7 @@
         <v>806455</v>
       </c>
       <c r="G243" s="3" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="H243" s="10">
         <f t="shared" si="3"/>
@@ -12125,7 +12136,7 @@
         <v>1327662</v>
       </c>
       <c r="G244" s="3" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="H244" s="10">
         <f t="shared" si="3"/>
@@ -12149,7 +12160,7 @@
         <v>967867</v>
       </c>
       <c r="G245" s="3" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="H245" s="10">
         <f t="shared" si="3"/>
@@ -12173,7 +12184,7 @@
         <v>594657</v>
       </c>
       <c r="G246" s="3" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="H246" s="10">
         <f t="shared" si="3"/>
@@ -12197,7 +12208,7 @@
         <v>592735</v>
       </c>
       <c r="G247" s="3" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="H247" s="10">
         <f t="shared" si="3"/>
@@ -12221,7 +12232,7 @@
         <v>667331</v>
       </c>
       <c r="G248" s="3" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="H248" s="10">
         <f t="shared" si="3"/>
@@ -12245,7 +12256,7 @@
         <v>920997</v>
       </c>
       <c r="G249" s="3" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="H249" s="10">
         <f t="shared" si="3"/>
@@ -12269,7 +12280,7 @@
         <v>1063743</v>
       </c>
       <c r="G250" s="3" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="H250" s="10">
         <f t="shared" si="3"/>
@@ -12293,7 +12304,7 @@
         <v>977582</v>
       </c>
       <c r="G251" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="H251" s="10">
         <f t="shared" si="3"/>
@@ -12317,7 +12328,7 @@
         <v>853511</v>
       </c>
       <c r="G252" s="3" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="H252" s="10">
         <f t="shared" si="3"/>
@@ -12341,7 +12352,7 @@
         <v>625992</v>
       </c>
       <c r="G253" s="3" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="H253" s="10">
         <f t="shared" si="3"/>
@@ -12365,7 +12376,7 @@
         <v>577402</v>
       </c>
       <c r="G254" s="3" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="H254" s="10">
         <f t="shared" si="3"/>
@@ -12389,7 +12400,7 @@
         <v>636464</v>
       </c>
       <c r="G255" s="3" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="H255" s="10">
         <f t="shared" si="3"/>
@@ -12413,7 +12424,7 @@
         <v>627365</v>
       </c>
       <c r="G256" s="3" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="H256" s="10">
         <f t="shared" si="3"/>
@@ -12437,7 +12448,7 @@
         <v>959877</v>
       </c>
       <c r="G257" s="3" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="H257" s="10">
         <f t="shared" si="3"/>
@@ -12461,7 +12472,7 @@
         <v>870799</v>
       </c>
       <c r="G258" s="3" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="H258" s="10">
         <f t="shared" si="3"/>
@@ -12485,7 +12496,7 @@
         <v>1094834</v>
       </c>
       <c r="G259" s="3" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="H259" s="10">
         <f t="shared" si="3"/>
@@ -12509,7 +12520,7 @@
         <v>733075</v>
       </c>
       <c r="G260" s="3" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="H260" s="10">
         <f t="shared" si="3"/>
@@ -12533,7 +12544,7 @@
         <v>853680</v>
       </c>
       <c r="G261" s="3" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="H261" s="10">
         <f t="shared" si="3"/>
@@ -12557,7 +12568,7 @@
         <v>1003929</v>
       </c>
       <c r="G262" s="3" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="H262" s="10">
         <f t="shared" si="3"/>
@@ -12581,7 +12592,7 @@
         <v>741828</v>
       </c>
       <c r="G263" s="3" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="H263" s="10">
         <f t="shared" si="3"/>
@@ -12605,7 +12616,7 @@
         <v>1216267</v>
       </c>
       <c r="G264" s="3" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="H264" s="10">
         <f t="shared" si="3"/>
@@ -12629,7 +12640,7 @@
         <v>1794249</v>
       </c>
       <c r="G265" s="3" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="H265" s="10">
         <f t="shared" si="3"/>
@@ -12653,7 +12664,7 @@
         <v>2366968</v>
       </c>
       <c r="G266" s="3" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="H266" s="10">
         <f t="shared" si="3"/>
@@ -12677,7 +12688,7 @@
         <v>6662790</v>
       </c>
       <c r="G267" s="3" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="H267" s="10">
         <f t="shared" si="3"/>
@@ -12701,7 +12712,7 @@
         <v>1831092</v>
       </c>
       <c r="G268" s="3" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="H268" s="10">
         <f t="shared" si="3"/>
@@ -12725,7 +12736,7 @@
         <v>1755937</v>
       </c>
       <c r="G269" s="3" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="H269" s="10">
         <f t="shared" si="3"/>
@@ -12749,7 +12760,7 @@
         <v>1061977</v>
       </c>
       <c r="G270" s="3" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="H270" s="10">
         <f t="shared" si="3"/>
@@ -12773,7 +12784,7 @@
         <v>707973</v>
       </c>
       <c r="G271" s="3" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="H271" s="10">
         <f t="shared" si="3"/>
@@ -12797,7 +12808,7 @@
         <v>897336</v>
       </c>
       <c r="G272" s="3" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="H272" s="10">
         <f t="shared" si="3"/>
@@ -12821,7 +12832,7 @@
         <v>519896</v>
       </c>
       <c r="G273" s="3" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="H273" s="10">
         <f t="shared" si="3"/>
@@ -12845,7 +12856,7 @@
         <v>579998</v>
       </c>
       <c r="G274" s="3" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="H274" s="10">
         <f t="shared" si="3"/>
@@ -12869,7 +12880,7 @@
         <v>545156</v>
       </c>
       <c r="G275" s="3" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="H275" s="10">
         <f t="shared" si="3"/>
@@ -12893,7 +12904,7 @@
         <v>613282</v>
       </c>
       <c r="G276" s="3" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H276" s="10">
         <f t="shared" si="3"/>
@@ -12917,7 +12928,7 @@
         <v>883839</v>
       </c>
       <c r="G277" s="3" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="H277" s="10">
         <f t="shared" si="3"/>
@@ -12941,7 +12952,7 @@
         <v>900470</v>
       </c>
       <c r="G278" s="3" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="H278" s="10">
         <f t="shared" si="3"/>
@@ -12965,7 +12976,7 @@
         <v>967602</v>
       </c>
       <c r="G279" s="3" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="H279" s="10">
         <f t="shared" si="3"/>
@@ -12989,7 +13000,7 @@
         <v>1059314</v>
       </c>
       <c r="G280" s="3" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="H280" s="10">
         <f t="shared" si="3"/>
@@ -13013,7 +13024,7 @@
         <v>969555</v>
       </c>
       <c r="G281" s="3" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="H281" s="10">
         <f t="shared" si="3"/>
@@ -13037,7 +13048,7 @@
         <v>1160564</v>
       </c>
       <c r="G282" s="3" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="H282" s="10">
         <f t="shared" si="3"/>
@@ -13061,7 +13072,7 @@
         <v>1091496</v>
       </c>
       <c r="G283" s="3" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="H283" s="10">
         <f t="shared" si="3"/>
@@ -13085,7 +13096,7 @@
         <v>757042</v>
       </c>
       <c r="G284" s="3" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="H284" s="10">
         <f t="shared" si="3"/>

--- a/GMED_Model.xlsx
+++ b/GMED_Model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Equity Research\Models\Health Care\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E3A82ED-F8AD-4EA1-8BDD-325B95590986}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{069975F1-BD57-49FF-9869-1910DC4746B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="43095" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="347">
   <si>
     <t>GMED</t>
   </si>
@@ -1061,16 +1061,36 @@
   </si>
   <si>
     <t>3 σ 1-Day Delta: ±</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Discount </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Terminal </t>
+  </si>
+  <si>
+    <t>NPV</t>
+  </si>
+  <si>
+    <t>FV</t>
+  </si>
+  <si>
+    <t>CP</t>
+  </si>
+  <si>
+    <t>Change</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="3">
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="164" formatCode="0.0%"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1125,6 +1145,17 @@
       <color theme="1"/>
       <name val="Calibre"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="8" tint="-0.249977111117893"/>
+      <name val="Calibre"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="8" tint="-0.249977111117893"/>
+      <name val="Calibre"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1152,7 +1183,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1181,6 +1212,16 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="8" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2607,6 +2648,111 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>41462</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2" name="Straight Connector 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3170FDFD-F766-4BD0-8EE9-C3F8307A0A99}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="35823525" y="0"/>
+          <a:ext cx="0" cy="19434362"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>75</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>75</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>41462</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6EA937BB-6997-4FF6-92FA-249F33D0A6CB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="47405925" y="0"/>
+          <a:ext cx="0" cy="19434362"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
@@ -2984,13 +3130,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F12961AC-5DA3-4B77-A415-DF08C03E640D}">
-  <dimension ref="B2:CZ49"/>
+  <dimension ref="B2:DQ57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AZ21" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="BV27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A38" sqref="A38:XFD38"/>
+      <selection pane="bottomRight" activeCell="BZ52" sqref="BZ52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
@@ -3003,10 +3149,15 @@
     <col min="7" max="37" width="9.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="9.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="39" max="56" width="9.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="57" max="16384" width="9.140625" style="4"/>
+    <col min="57" max="75" width="9.140625" style="4"/>
+    <col min="76" max="76" width="9.140625" style="17" customWidth="1"/>
+    <col min="77" max="77" width="9.28515625" style="17" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="9.140625" style="17" customWidth="1"/>
+    <col min="79" max="121" width="9.28515625" style="17" bestFit="1" customWidth="1"/>
+    <col min="122" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:104" s="13" customFormat="1" ht="15">
+    <row r="2" spans="3:121" s="13" customFormat="1" ht="15">
       <c r="C2" s="7" t="s">
         <v>7</v>
       </c>
@@ -3224,124 +3375,192 @@
         <f t="shared" si="0"/>
         <v>2024</v>
       </c>
-      <c r="BX2" s="13">
-        <f t="shared" si="0"/>
+      <c r="BX2" s="16">
+        <f>BW2+1</f>
         <v>2025</v>
       </c>
-      <c r="BY2" s="13">
-        <f t="shared" si="0"/>
+      <c r="BY2" s="16">
+        <f>BX2+1</f>
         <v>2026</v>
       </c>
-      <c r="BZ2" s="13">
+      <c r="BZ2" s="16">
         <f t="shared" si="0"/>
         <v>2027</v>
       </c>
-      <c r="CA2" s="13">
+      <c r="CA2" s="16">
         <f t="shared" si="0"/>
         <v>2028</v>
       </c>
-      <c r="CB2" s="13">
+      <c r="CB2" s="16">
         <f t="shared" si="0"/>
         <v>2029</v>
       </c>
-      <c r="CC2" s="13">
+      <c r="CC2" s="16">
         <f t="shared" si="0"/>
         <v>2030</v>
       </c>
-      <c r="CD2" s="13">
+      <c r="CD2" s="16">
         <f t="shared" si="0"/>
         <v>2031</v>
       </c>
-      <c r="CE2" s="13">
+      <c r="CE2" s="16">
         <f t="shared" si="0"/>
         <v>2032</v>
       </c>
-      <c r="CF2" s="13">
+      <c r="CF2" s="16">
         <f t="shared" si="0"/>
         <v>2033</v>
       </c>
-      <c r="CG2" s="13">
+      <c r="CG2" s="16">
         <f t="shared" si="0"/>
         <v>2034</v>
       </c>
-      <c r="CH2" s="13">
+      <c r="CH2" s="16">
         <f t="shared" si="0"/>
         <v>2035</v>
       </c>
-      <c r="CI2" s="13">
+      <c r="CI2" s="16">
         <f t="shared" si="0"/>
         <v>2036</v>
       </c>
-      <c r="CJ2" s="13">
+      <c r="CJ2" s="16">
         <f t="shared" si="0"/>
         <v>2037</v>
       </c>
-      <c r="CK2" s="13">
+      <c r="CK2" s="16">
         <f t="shared" si="0"/>
         <v>2038</v>
       </c>
-      <c r="CL2" s="13">
+      <c r="CL2" s="16">
         <f t="shared" si="0"/>
         <v>2039</v>
       </c>
-      <c r="CM2" s="13">
+      <c r="CM2" s="16">
         <f t="shared" si="0"/>
         <v>2040</v>
       </c>
-      <c r="CN2" s="13">
+      <c r="CN2" s="16">
         <f t="shared" si="0"/>
         <v>2041</v>
       </c>
-      <c r="CO2" s="13">
+      <c r="CO2" s="16">
         <f t="shared" si="0"/>
         <v>2042</v>
       </c>
-      <c r="CP2" s="13">
+      <c r="CP2" s="16">
         <f t="shared" si="0"/>
         <v>2043</v>
       </c>
-      <c r="CQ2" s="13">
+      <c r="CQ2" s="16">
         <f t="shared" si="0"/>
         <v>2044</v>
       </c>
-      <c r="CR2" s="13">
+      <c r="CR2" s="16">
         <f t="shared" si="0"/>
         <v>2045</v>
       </c>
-      <c r="CS2" s="13">
+      <c r="CS2" s="16">
         <f t="shared" si="0"/>
         <v>2046</v>
       </c>
-      <c r="CT2" s="13">
+      <c r="CT2" s="16">
         <f t="shared" si="0"/>
         <v>2047</v>
       </c>
-      <c r="CU2" s="13">
+      <c r="CU2" s="16">
         <f t="shared" si="0"/>
         <v>2048</v>
       </c>
-      <c r="CV2" s="13">
+      <c r="CV2" s="16">
         <f t="shared" si="0"/>
         <v>2049</v>
       </c>
-      <c r="CW2" s="13">
+      <c r="CW2" s="16">
         <f t="shared" si="0"/>
         <v>2050</v>
       </c>
-      <c r="CX2" s="13">
+      <c r="CX2" s="16">
         <f t="shared" si="0"/>
         <v>2051</v>
       </c>
-      <c r="CY2" s="13">
+      <c r="CY2" s="16">
         <f t="shared" si="0"/>
         <v>2052</v>
       </c>
-      <c r="CZ2" s="13">
+      <c r="CZ2" s="16">
         <f t="shared" si="0"/>
         <v>2053</v>
       </c>
-    </row>
-    <row r="22" spans="2:75">
+      <c r="DA2" s="16">
+        <f t="shared" ref="DA2" si="1">CZ2+1</f>
+        <v>2054</v>
+      </c>
+      <c r="DB2" s="16">
+        <f t="shared" ref="DB2" si="2">DA2+1</f>
+        <v>2055</v>
+      </c>
+      <c r="DC2" s="16">
+        <f t="shared" ref="DC2" si="3">DB2+1</f>
+        <v>2056</v>
+      </c>
+      <c r="DD2" s="16">
+        <f t="shared" ref="DD2" si="4">DC2+1</f>
+        <v>2057</v>
+      </c>
+      <c r="DE2" s="16">
+        <f t="shared" ref="DE2" si="5">DD2+1</f>
+        <v>2058</v>
+      </c>
+      <c r="DF2" s="16">
+        <f t="shared" ref="DF2" si="6">DE2+1</f>
+        <v>2059</v>
+      </c>
+      <c r="DG2" s="16">
+        <f t="shared" ref="DG2" si="7">DF2+1</f>
+        <v>2060</v>
+      </c>
+      <c r="DH2" s="16">
+        <f t="shared" ref="DH2" si="8">DG2+1</f>
+        <v>2061</v>
+      </c>
+      <c r="DI2" s="16">
+        <f t="shared" ref="DI2" si="9">DH2+1</f>
+        <v>2062</v>
+      </c>
+      <c r="DJ2" s="16">
+        <f t="shared" ref="DJ2" si="10">DI2+1</f>
+        <v>2063</v>
+      </c>
+      <c r="DK2" s="16">
+        <f t="shared" ref="DK2" si="11">DJ2+1</f>
+        <v>2064</v>
+      </c>
+      <c r="DL2" s="16">
+        <f t="shared" ref="DL2" si="12">DK2+1</f>
+        <v>2065</v>
+      </c>
+      <c r="DM2" s="16">
+        <f t="shared" ref="DM2" si="13">DL2+1</f>
+        <v>2066</v>
+      </c>
+      <c r="DN2" s="16">
+        <f t="shared" ref="DN2" si="14">DM2+1</f>
+        <v>2067</v>
+      </c>
+      <c r="DO2" s="16">
+        <f t="shared" ref="DO2" si="15">DN2+1</f>
+        <v>2068</v>
+      </c>
+      <c r="DP2" s="16">
+        <f t="shared" ref="DP2" si="16">DO2+1</f>
+        <v>2069</v>
+      </c>
+      <c r="DQ2" s="16">
+        <f t="shared" ref="DQ2" si="17">DP2+1</f>
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="22" spans="2:121">
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
@@ -3383,7 +3602,7 @@
       <c r="AO22" s="3"/>
       <c r="AP22" s="3"/>
     </row>
-    <row r="23" spans="2:75">
+    <row r="23" spans="2:121">
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
@@ -3425,7 +3644,7 @@
       <c r="AO23" s="3"/>
       <c r="AP23" s="3"/>
     </row>
-    <row r="24" spans="2:75">
+    <row r="24" spans="2:121">
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
@@ -3467,7 +3686,7 @@
       <c r="AO24" s="3"/>
       <c r="AP24" s="3"/>
     </row>
-    <row r="25" spans="2:75">
+    <row r="25" spans="2:121">
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
@@ -3509,7 +3728,7 @@
       <c r="AO25" s="3"/>
       <c r="AP25" s="3"/>
     </row>
-    <row r="32" spans="2:75" s="13" customFormat="1" ht="15">
+    <row r="32" spans="2:121" s="13" customFormat="1" ht="15">
       <c r="B32" s="7" t="s">
         <v>61</v>
       </c>
@@ -3727,8 +3946,84 @@
         <f>SUM(BA32:BD32)</f>
         <v>2519.4</v>
       </c>
-    </row>
-    <row r="33" spans="2:75">
+      <c r="BX32" s="18">
+        <f t="shared" ref="BX32:CG32" si="18">BW32*(1+BX49)</f>
+        <v>2695.7580000000003</v>
+      </c>
+      <c r="BY32" s="18">
+        <f t="shared" si="18"/>
+        <v>2911.4186400000003</v>
+      </c>
+      <c r="BZ32" s="18">
+        <f t="shared" si="18"/>
+        <v>3115.2179448000006</v>
+      </c>
+      <c r="CA32" s="18">
+        <f t="shared" si="18"/>
+        <v>3302.1310214880009</v>
+      </c>
+      <c r="CB32" s="18">
+        <f t="shared" si="18"/>
+        <v>3500.2588827772811</v>
+      </c>
+      <c r="CC32" s="18">
+        <f t="shared" si="18"/>
+        <v>3675.2718269161451</v>
+      </c>
+      <c r="CD32" s="18">
+        <f t="shared" si="18"/>
+        <v>3859.0354182619526</v>
+      </c>
+      <c r="CE32" s="18">
+        <f t="shared" si="18"/>
+        <v>4013.3968349924307</v>
+      </c>
+      <c r="CF32" s="18">
+        <f t="shared" si="18"/>
+        <v>4173.932708392128</v>
+      </c>
+      <c r="CG32" s="18">
+        <f t="shared" si="18"/>
+        <v>4340.8900167278134</v>
+      </c>
+      <c r="CH32" s="16"/>
+      <c r="CI32" s="16"/>
+      <c r="CJ32" s="16"/>
+      <c r="CK32" s="16"/>
+      <c r="CL32" s="16"/>
+      <c r="CM32" s="16"/>
+      <c r="CN32" s="16"/>
+      <c r="CO32" s="16"/>
+      <c r="CP32" s="16"/>
+      <c r="CQ32" s="16"/>
+      <c r="CR32" s="16"/>
+      <c r="CS32" s="16"/>
+      <c r="CT32" s="16"/>
+      <c r="CU32" s="16"/>
+      <c r="CV32" s="16"/>
+      <c r="CW32" s="16"/>
+      <c r="CX32" s="16"/>
+      <c r="CY32" s="16"/>
+      <c r="CZ32" s="16"/>
+      <c r="DA32" s="16"/>
+      <c r="DB32" s="16"/>
+      <c r="DC32" s="16"/>
+      <c r="DD32" s="16"/>
+      <c r="DE32" s="16"/>
+      <c r="DF32" s="16"/>
+      <c r="DG32" s="16"/>
+      <c r="DH32" s="16"/>
+      <c r="DI32" s="16"/>
+      <c r="DJ32" s="16"/>
+      <c r="DK32" s="16"/>
+      <c r="DL32" s="16"/>
+      <c r="DM32" s="16"/>
+      <c r="DN32" s="16"/>
+      <c r="DO32" s="16"/>
+      <c r="DP32" s="16"/>
+      <c r="DQ32" s="16"/>
+    </row>
+    <row r="33" spans="2:121">
       <c r="B33" s="6" t="s">
         <v>62</v>
       </c>
@@ -3895,59 +4190,69 @@
         <v>263.39999999999998</v>
       </c>
       <c r="BK33" s="4">
-        <f t="shared" ref="BK33:BK42" si="1">SUM(E33:H33)</f>
+        <f t="shared" ref="BK33:BK42" si="19">SUM(E33:H33)</f>
         <v>75.3</v>
       </c>
       <c r="BL33" s="4">
-        <f t="shared" ref="BL33:BL42" si="2">SUM(I33:L33)</f>
+        <f t="shared" ref="BL33:BL42" si="20">SUM(I33:L33)</f>
         <v>100.39999999999999</v>
       </c>
       <c r="BM33" s="4">
-        <f t="shared" ref="BM33:BM42" si="3">SUM(M33:P33)</f>
+        <f t="shared" ref="BM33:BM42" si="21">SUM(M33:P33)</f>
         <v>110.80000000000001</v>
       </c>
       <c r="BN33" s="4">
-        <f t="shared" ref="BN33:BN42" si="4">SUM(Q33:T33)</f>
+        <f t="shared" ref="BN33:BN42" si="22">SUM(Q33:T33)</f>
         <v>132.30000000000001</v>
       </c>
       <c r="BO33" s="4">
-        <f t="shared" ref="BO33:BO42" si="5">SUM(U33:X33)</f>
+        <f t="shared" ref="BO33:BO42" si="23">SUM(U33:X33)</f>
         <v>134.69999999999999</v>
       </c>
       <c r="BP33" s="4">
-        <f t="shared" ref="BP33:BP42" si="6">SUM(Y33:AB33)</f>
+        <f t="shared" ref="BP33:BP42" si="24">SUM(Y33:AB33)</f>
         <v>150.5</v>
       </c>
       <c r="BQ33" s="4">
-        <f t="shared" ref="BQ33:BQ42" si="7">SUM(AC33:AF33)</f>
+        <f t="shared" ref="BQ33:BQ42" si="25">SUM(AC33:AF33)</f>
         <v>159.39999999999998</v>
       </c>
       <c r="BR33" s="4">
-        <f t="shared" ref="BR33:BR42" si="8">SUM(AG33:AJ33)</f>
+        <f t="shared" ref="BR33:BR42" si="26">SUM(AG33:AJ33)</f>
         <v>180</v>
       </c>
       <c r="BS33" s="4">
-        <f t="shared" ref="BS33:BS42" si="9">SUM(AK33:AN33)</f>
+        <f t="shared" ref="BS33:BS42" si="27">SUM(AK33:AN33)</f>
         <v>217.5</v>
       </c>
       <c r="BT33" s="4">
-        <f t="shared" ref="BT33:BT42" si="10">SUM(AO33:AR33)</f>
+        <f t="shared" ref="BT33:BT42" si="28">SUM(AO33:AR33)</f>
         <v>239.2</v>
       </c>
       <c r="BU33" s="4">
-        <f t="shared" ref="BU33:BU42" si="11">SUM(AS33:AV33)</f>
+        <f t="shared" ref="BU33:BU42" si="29">SUM(AS33:AV33)</f>
         <v>263.79999999999995</v>
       </c>
       <c r="BV33" s="4">
-        <f t="shared" ref="BV33:BV42" si="12">SUM(AW33:AZ33)</f>
+        <f t="shared" ref="BV33:BV42" si="30">SUM(AW33:AZ33)</f>
         <v>548.20000000000005</v>
       </c>
       <c r="BW33" s="4">
-        <f t="shared" ref="BW33:BW42" si="13">SUM(BA33:BD33)</f>
+        <f t="shared" ref="BW33:BW42" si="31">SUM(BA33:BD33)</f>
         <v>1035.4000000000001</v>
       </c>
-    </row>
-    <row r="34" spans="2:75">
+      <c r="BX33" s="19"/>
+      <c r="BY33" s="19"/>
+      <c r="BZ33" s="19"/>
+      <c r="CA33" s="19"/>
+      <c r="CB33" s="19"/>
+      <c r="CC33" s="19"/>
+      <c r="CD33" s="19"/>
+      <c r="CE33" s="19"/>
+      <c r="CF33" s="19"/>
+      <c r="CG33" s="19"/>
+    </row>
+    <row r="34" spans="2:121">
       <c r="B34" s="6" t="s">
         <v>63</v>
       </c>
@@ -4114,59 +4419,69 @@
         <v>393.9</v>
       </c>
       <c r="BK34" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="19"/>
         <v>310.79999999999995</v>
       </c>
       <c r="BL34" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="20"/>
         <v>334.1</v>
       </c>
       <c r="BM34" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="21"/>
         <v>363.6</v>
       </c>
       <c r="BN34" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="22"/>
         <v>412.5</v>
       </c>
       <c r="BO34" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="23"/>
         <v>429.29999999999995</v>
       </c>
       <c r="BP34" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="24"/>
         <v>485.5</v>
       </c>
       <c r="BQ34" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="25"/>
         <v>553.5</v>
       </c>
       <c r="BR34" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="26"/>
         <v>605.30000000000007</v>
       </c>
       <c r="BS34" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="27"/>
         <v>571.6</v>
       </c>
       <c r="BT34" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="28"/>
         <v>718.90000000000009</v>
       </c>
       <c r="BU34" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="29"/>
         <v>759.19999999999993</v>
       </c>
       <c r="BV34" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="30"/>
         <v>1020.2</v>
       </c>
       <c r="BW34" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="31"/>
         <v>1484</v>
       </c>
-    </row>
-    <row r="35" spans="2:75">
+      <c r="BX34" s="19"/>
+      <c r="BY34" s="19"/>
+      <c r="BZ34" s="19"/>
+      <c r="CA34" s="19"/>
+      <c r="CB34" s="19"/>
+      <c r="CC34" s="19"/>
+      <c r="CD34" s="19"/>
+      <c r="CE34" s="19"/>
+      <c r="CF34" s="19"/>
+      <c r="CG34" s="19"/>
+    </row>
+    <row r="35" spans="2:121">
       <c r="B35" s="6" t="s">
         <v>64</v>
       </c>
@@ -4333,59 +4648,69 @@
         <v>253.5</v>
       </c>
       <c r="BK35" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="19"/>
         <v>168.8</v>
       </c>
       <c r="BL35" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="20"/>
         <v>182.59999999999997</v>
       </c>
       <c r="BM35" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="21"/>
         <v>188.6</v>
       </c>
       <c r="BN35" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="22"/>
         <v>210.3</v>
       </c>
       <c r="BO35" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="23"/>
         <v>222.10000000000002</v>
       </c>
       <c r="BP35" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="24"/>
         <v>267.89999999999998</v>
       </c>
       <c r="BQ35" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="25"/>
         <v>311.5</v>
       </c>
       <c r="BR35" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="26"/>
         <v>354.79999999999995</v>
       </c>
       <c r="BS35" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="27"/>
         <v>354.7</v>
       </c>
       <c r="BT35" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="28"/>
         <v>408.20000000000005</v>
       </c>
       <c r="BU35" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="29"/>
         <v>432.1</v>
       </c>
       <c r="BV35" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="30"/>
         <v>643.4</v>
       </c>
       <c r="BW35" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="31"/>
         <v>981</v>
       </c>
-    </row>
-    <row r="36" spans="2:75">
+      <c r="BX35" s="19"/>
+      <c r="BY35" s="19"/>
+      <c r="BZ35" s="19"/>
+      <c r="CA35" s="19"/>
+      <c r="CB35" s="19"/>
+      <c r="CC35" s="19"/>
+      <c r="CD35" s="19"/>
+      <c r="CE35" s="19"/>
+      <c r="CF35" s="19"/>
+      <c r="CG35" s="19"/>
+    </row>
+    <row r="36" spans="2:121">
       <c r="B36" s="6" t="s">
         <v>65</v>
       </c>
@@ -4552,59 +4877,69 @@
         <v>33.4</v>
       </c>
       <c r="BK36" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="19"/>
         <v>27.8</v>
       </c>
       <c r="BL36" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="20"/>
         <v>26.799999999999997</v>
       </c>
       <c r="BM36" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="21"/>
         <v>31.1</v>
       </c>
       <c r="BN36" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="22"/>
         <v>36.299999999999997</v>
       </c>
       <c r="BO36" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="23"/>
         <v>44.5</v>
       </c>
       <c r="BP36" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="24"/>
         <v>43.699999999999996</v>
       </c>
       <c r="BQ36" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="25"/>
         <v>55.5</v>
       </c>
       <c r="BR36" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="26"/>
         <v>60</v>
       </c>
       <c r="BS36" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="27"/>
         <v>84.5</v>
       </c>
       <c r="BT36" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="28"/>
         <v>97.3</v>
       </c>
       <c r="BU36" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="29"/>
         <v>73</v>
       </c>
       <c r="BV36" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="30"/>
         <v>124</v>
       </c>
       <c r="BW36" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="31"/>
         <v>163.80000000000001</v>
       </c>
-    </row>
-    <row r="37" spans="2:75">
+      <c r="BX36" s="19"/>
+      <c r="BY36" s="19"/>
+      <c r="BZ36" s="19"/>
+      <c r="CA36" s="19"/>
+      <c r="CB36" s="19"/>
+      <c r="CC36" s="19"/>
+      <c r="CD36" s="19"/>
+      <c r="CE36" s="19"/>
+      <c r="CF36" s="19"/>
+      <c r="CG36" s="19"/>
+    </row>
+    <row r="37" spans="2:121">
       <c r="B37" s="6" t="s">
         <v>66</v>
       </c>
@@ -4771,59 +5106,69 @@
         <v>333.6</v>
       </c>
       <c r="BK37" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="19"/>
         <v>196</v>
       </c>
       <c r="BL37" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="20"/>
         <v>232.5</v>
       </c>
       <c r="BM37" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="21"/>
         <v>225.3</v>
       </c>
       <c r="BN37" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="22"/>
         <v>240.3</v>
       </c>
       <c r="BO37" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="23"/>
         <v>275.10000000000002</v>
       </c>
       <c r="BP37" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="24"/>
         <v>323.7</v>
       </c>
       <c r="BQ37" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="25"/>
         <v>384.2</v>
       </c>
       <c r="BR37" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="26"/>
         <v>433.4</v>
       </c>
       <c r="BS37" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="27"/>
         <v>460.20000000000005</v>
       </c>
       <c r="BT37" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="28"/>
         <v>546.90000000000009</v>
       </c>
       <c r="BU37" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="29"/>
         <v>531.1</v>
       </c>
       <c r="BV37" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="30"/>
         <v>887.1</v>
       </c>
       <c r="BW37" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="31"/>
         <v>1317.9</v>
       </c>
-    </row>
-    <row r="38" spans="2:75">
+      <c r="BX37" s="19"/>
+      <c r="BY37" s="19"/>
+      <c r="BZ37" s="19"/>
+      <c r="CA37" s="19"/>
+      <c r="CB37" s="19"/>
+      <c r="CC37" s="19"/>
+      <c r="CD37" s="19"/>
+      <c r="CE37" s="19"/>
+      <c r="CF37" s="19"/>
+      <c r="CG37" s="19"/>
+    </row>
+    <row r="38" spans="2:121">
       <c r="B38" s="6" t="s">
         <v>67</v>
       </c>
@@ -4990,59 +5335,99 @@
         <v>60.3</v>
       </c>
       <c r="BK38" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="19"/>
         <v>114.9</v>
       </c>
       <c r="BL38" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="20"/>
         <v>101.60000000000001</v>
       </c>
       <c r="BM38" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="21"/>
         <v>138.30000000000001</v>
       </c>
       <c r="BN38" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="22"/>
         <v>172.2</v>
       </c>
       <c r="BO38" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="23"/>
         <v>154.10000000000002</v>
       </c>
       <c r="BP38" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="24"/>
         <v>161.89999999999998</v>
       </c>
       <c r="BQ38" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="25"/>
         <v>169.3</v>
       </c>
       <c r="BR38" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="26"/>
         <v>172.1</v>
       </c>
       <c r="BS38" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="27"/>
         <v>111.3</v>
       </c>
       <c r="BT38" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="28"/>
         <v>171.89999999999998</v>
       </c>
       <c r="BU38" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="29"/>
         <v>227.89999999999998</v>
       </c>
       <c r="BV38" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="30"/>
         <v>133.1</v>
       </c>
       <c r="BW38" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="31"/>
         <v>166</v>
       </c>
-    </row>
-    <row r="39" spans="2:75">
+      <c r="BX38" s="19">
+        <f>BX32*BX45</f>
+        <v>404.36370000000005</v>
+      </c>
+      <c r="BY38" s="19">
+        <f>BY32*BY45</f>
+        <v>232.91349120000004</v>
+      </c>
+      <c r="BZ38" s="19">
+        <f t="shared" ref="BZ38:CB38" si="32">BZ32*BZ45</f>
+        <v>373.82615337600004</v>
+      </c>
+      <c r="CA38" s="19">
+        <f t="shared" si="32"/>
+        <v>429.27703279344013</v>
+      </c>
+      <c r="CB38" s="19">
+        <f t="shared" si="32"/>
+        <v>525.03883241659219</v>
+      </c>
+      <c r="CC38" s="19">
+        <f t="shared" ref="CC38:CG38" si="33">CC32*CC45</f>
+        <v>588.04349230658318</v>
+      </c>
+      <c r="CD38" s="19">
+        <f t="shared" si="33"/>
+        <v>656.03602110453198</v>
+      </c>
+      <c r="CE38" s="19">
+        <f t="shared" si="33"/>
+        <v>722.41143029863747</v>
+      </c>
+      <c r="CF38" s="19">
+        <f t="shared" si="33"/>
+        <v>751.30788751058299</v>
+      </c>
+      <c r="CG38" s="19">
+        <f t="shared" si="33"/>
+        <v>868.17800334556273</v>
+      </c>
+    </row>
+    <row r="39" spans="2:121">
       <c r="B39" s="6" t="s">
         <v>68</v>
       </c>
@@ -5209,59 +5594,69 @@
         <v>-35.6</v>
       </c>
       <c r="BK39" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="19"/>
         <v>-0.3</v>
       </c>
       <c r="BL39" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="20"/>
         <v>0.7</v>
       </c>
       <c r="BM39" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="21"/>
         <v>0.5</v>
       </c>
       <c r="BN39" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="22"/>
         <v>1.2000000000000002</v>
       </c>
       <c r="BO39" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="23"/>
         <v>3.2</v>
       </c>
       <c r="BP39" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="24"/>
         <v>8.1000000000000014</v>
       </c>
       <c r="BQ39" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="25"/>
         <v>19.299999999999997</v>
       </c>
       <c r="BR39" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="26"/>
         <v>18</v>
       </c>
       <c r="BS39" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="27"/>
         <v>14.4</v>
       </c>
       <c r="BT39" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="28"/>
         <v>8.4</v>
       </c>
       <c r="BU39" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="29"/>
         <v>15.2</v>
       </c>
       <c r="BV39" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="30"/>
         <v>32.300000000000004</v>
       </c>
       <c r="BW39" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="31"/>
         <v>-45.300000000000004</v>
       </c>
-    </row>
-    <row r="40" spans="2:75">
+      <c r="BX39" s="19"/>
+      <c r="BY39" s="19"/>
+      <c r="BZ39" s="19"/>
+      <c r="CA39" s="19"/>
+      <c r="CB39" s="19"/>
+      <c r="CC39" s="19"/>
+      <c r="CD39" s="19"/>
+      <c r="CE39" s="19"/>
+      <c r="CF39" s="19"/>
+      <c r="CG39" s="19"/>
+    </row>
+    <row r="40" spans="2:121">
       <c r="B40" s="6" t="s">
         <v>69</v>
       </c>
@@ -5428,59 +5823,69 @@
         <v>24.7</v>
       </c>
       <c r="BK40" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="19"/>
         <v>114.69999999999999</v>
       </c>
       <c r="BL40" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="20"/>
         <v>102</v>
       </c>
       <c r="BM40" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="21"/>
         <v>138.69999999999999</v>
       </c>
       <c r="BN40" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="22"/>
         <v>172.8</v>
       </c>
       <c r="BO40" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="23"/>
         <v>157.30000000000001</v>
       </c>
       <c r="BP40" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="24"/>
         <v>170</v>
       </c>
       <c r="BQ40" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="25"/>
         <v>188.6</v>
       </c>
       <c r="BR40" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="26"/>
         <v>190.00000000000003</v>
       </c>
       <c r="BS40" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="27"/>
         <v>125.9</v>
       </c>
       <c r="BT40" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="28"/>
         <v>180.4</v>
       </c>
       <c r="BU40" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="29"/>
         <v>243</v>
       </c>
       <c r="BV40" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="30"/>
         <v>165.4</v>
       </c>
       <c r="BW40" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="31"/>
         <v>120.7</v>
       </c>
-    </row>
-    <row r="41" spans="2:75">
+      <c r="BX40" s="19"/>
+      <c r="BY40" s="19"/>
+      <c r="BZ40" s="19"/>
+      <c r="CA40" s="19"/>
+      <c r="CB40" s="19"/>
+      <c r="CC40" s="19"/>
+      <c r="CD40" s="19"/>
+      <c r="CE40" s="19"/>
+      <c r="CF40" s="19"/>
+      <c r="CG40" s="19"/>
+    </row>
+    <row r="41" spans="2:121">
       <c r="B41" s="6" t="s">
         <v>70</v>
       </c>
@@ -5647,59 +6052,69 @@
         <v>-1.8</v>
       </c>
       <c r="BK41" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="19"/>
         <v>40.799999999999997</v>
       </c>
       <c r="BL41" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="20"/>
         <v>33.299999999999997</v>
       </c>
       <c r="BM41" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="21"/>
         <v>46</v>
       </c>
       <c r="BN41" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="22"/>
         <v>59.9</v>
       </c>
       <c r="BO41" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="23"/>
         <v>52.900000000000006</v>
       </c>
       <c r="BP41" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="24"/>
         <v>62.600000000000009</v>
       </c>
       <c r="BQ41" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="25"/>
         <v>32.1</v>
       </c>
       <c r="BR41" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="26"/>
         <v>34.6</v>
       </c>
       <c r="BS41" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="27"/>
         <v>23.6</v>
       </c>
       <c r="BT41" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="28"/>
         <v>31.2</v>
       </c>
       <c r="BU41" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="29"/>
         <v>52.9</v>
       </c>
       <c r="BV41" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="30"/>
         <v>42.6</v>
       </c>
       <c r="BW41" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="31"/>
         <v>17.8</v>
       </c>
-    </row>
-    <row r="42" spans="2:75" s="13" customFormat="1" ht="15">
+      <c r="BX41" s="19"/>
+      <c r="BY41" s="19"/>
+      <c r="BZ41" s="19"/>
+      <c r="CA41" s="19"/>
+      <c r="CB41" s="19"/>
+      <c r="CC41" s="19"/>
+      <c r="CD41" s="19"/>
+      <c r="CE41" s="19"/>
+      <c r="CF41" s="19"/>
+      <c r="CG41" s="19"/>
+    </row>
+    <row r="42" spans="2:121" s="13" customFormat="1" ht="15">
       <c r="B42" s="7" t="s">
         <v>71</v>
       </c>
@@ -5866,272 +6281,456 @@
         <v>26.5</v>
       </c>
       <c r="BK42" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="19"/>
         <v>73.900000000000006</v>
       </c>
       <c r="BL42" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="20"/>
         <v>68.599999999999994</v>
       </c>
       <c r="BM42" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="21"/>
         <v>92.4</v>
       </c>
       <c r="BN42" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="22"/>
         <v>112.80000000000001</v>
       </c>
       <c r="BO42" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="23"/>
         <v>104.3</v>
       </c>
       <c r="BP42" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="24"/>
         <v>107.4</v>
       </c>
       <c r="BQ42" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="25"/>
         <v>156.5</v>
       </c>
       <c r="BR42" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="26"/>
         <v>155.19999999999999</v>
       </c>
       <c r="BS42" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="27"/>
         <v>102.3</v>
       </c>
       <c r="BT42" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="28"/>
         <v>149.1</v>
       </c>
       <c r="BU42" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="29"/>
         <v>190.2</v>
       </c>
       <c r="BV42" s="13">
-        <f t="shared" si="12"/>
+        <f t="shared" si="30"/>
         <v>122.80000000000001</v>
       </c>
       <c r="BW42" s="13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="31"/>
         <v>103</v>
       </c>
-    </row>
-    <row r="44" spans="2:75">
+      <c r="BX42" s="18">
+        <f>BX32*BX46</f>
+        <v>323.49096000000003</v>
+      </c>
+      <c r="BY42" s="18">
+        <f t="shared" ref="BY42:CB42" si="34">BY32*BY46</f>
+        <v>363.92733000000004</v>
+      </c>
+      <c r="BZ42" s="18">
+        <f t="shared" si="34"/>
+        <v>404.97833282400012</v>
+      </c>
+      <c r="CA42" s="18">
+        <f t="shared" si="34"/>
+        <v>429.27703279344013</v>
+      </c>
+      <c r="CB42" s="18">
+        <f t="shared" si="34"/>
+        <v>455.03365476104653</v>
+      </c>
+      <c r="CC42" s="18">
+        <f t="shared" ref="CC42:CG42" si="35">CC32*CC46</f>
+        <v>514.53805576826039</v>
+      </c>
+      <c r="CD42" s="18">
+        <f t="shared" si="35"/>
+        <v>617.44566692191245</v>
+      </c>
+      <c r="CE42" s="18">
+        <f t="shared" si="35"/>
+        <v>642.14349359878895</v>
+      </c>
+      <c r="CF42" s="18">
+        <f t="shared" si="35"/>
+        <v>667.82923334274051</v>
+      </c>
+      <c r="CG42" s="18">
+        <f t="shared" si="35"/>
+        <v>694.54240267645014</v>
+      </c>
+      <c r="CH42" s="16">
+        <f>CG42*(1+$BZ$52)</f>
+        <v>715.37867475674364</v>
+      </c>
+      <c r="CI42" s="16">
+        <f t="shared" ref="CI42:DQ42" si="36">CH42*(1+$BZ$52)</f>
+        <v>736.84003499944595</v>
+      </c>
+      <c r="CJ42" s="16">
+        <f t="shared" si="36"/>
+        <v>758.94523604942935</v>
+      </c>
+      <c r="CK42" s="16">
+        <f t="shared" si="36"/>
+        <v>781.71359313091227</v>
+      </c>
+      <c r="CL42" s="16">
+        <f t="shared" si="36"/>
+        <v>805.16500092483966</v>
+      </c>
+      <c r="CM42" s="16">
+        <f t="shared" si="36"/>
+        <v>829.31995095258492</v>
+      </c>
+      <c r="CN42" s="16">
+        <f t="shared" si="36"/>
+        <v>854.19954948116253</v>
+      </c>
+      <c r="CO42" s="16">
+        <f t="shared" si="36"/>
+        <v>879.8255359655974</v>
+      </c>
+      <c r="CP42" s="16">
+        <f t="shared" si="36"/>
+        <v>906.2203020445653</v>
+      </c>
+      <c r="CQ42" s="16">
+        <f t="shared" si="36"/>
+        <v>933.40691110590228</v>
+      </c>
+      <c r="CR42" s="16">
+        <f t="shared" si="36"/>
+        <v>961.40911843907941</v>
+      </c>
+      <c r="CS42" s="16">
+        <f t="shared" si="36"/>
+        <v>990.2513919922518</v>
+      </c>
+      <c r="CT42" s="16">
+        <f t="shared" si="36"/>
+        <v>1019.9589337520193</v>
+      </c>
+      <c r="CU42" s="16">
+        <f t="shared" si="36"/>
+        <v>1050.5577017645799</v>
+      </c>
+      <c r="CV42" s="16">
+        <f t="shared" si="36"/>
+        <v>1082.0744328175174</v>
+      </c>
+      <c r="CW42" s="16">
+        <f t="shared" si="36"/>
+        <v>1114.536665802043</v>
+      </c>
+      <c r="CX42" s="16">
+        <f t="shared" si="36"/>
+        <v>1147.9727657761043</v>
+      </c>
+      <c r="CY42" s="16">
+        <f t="shared" si="36"/>
+        <v>1182.4119487493874</v>
+      </c>
+      <c r="CZ42" s="16">
+        <f t="shared" si="36"/>
+        <v>1217.8843072118691</v>
+      </c>
+      <c r="DA42" s="16">
+        <f t="shared" si="36"/>
+        <v>1254.4208364282251</v>
+      </c>
+      <c r="DB42" s="16">
+        <f t="shared" si="36"/>
+        <v>1292.053461521072</v>
+      </c>
+      <c r="DC42" s="16">
+        <f t="shared" si="36"/>
+        <v>1330.8150653667042</v>
+      </c>
+      <c r="DD42" s="16">
+        <f t="shared" si="36"/>
+        <v>1370.7395173277052</v>
+      </c>
+      <c r="DE42" s="16">
+        <f t="shared" si="36"/>
+        <v>1411.8617028475364</v>
+      </c>
+      <c r="DF42" s="16">
+        <f t="shared" si="36"/>
+        <v>1454.2175539329626</v>
+      </c>
+      <c r="DG42" s="16">
+        <f t="shared" si="36"/>
+        <v>1497.8440805509515</v>
+      </c>
+      <c r="DH42" s="16">
+        <f t="shared" si="36"/>
+        <v>1542.7794029674801</v>
+      </c>
+      <c r="DI42" s="16">
+        <f t="shared" si="36"/>
+        <v>1589.0627850565045</v>
+      </c>
+      <c r="DJ42" s="16">
+        <f t="shared" si="36"/>
+        <v>1636.7346686081996</v>
+      </c>
+      <c r="DK42" s="16">
+        <f t="shared" si="36"/>
+        <v>1685.8367086664457</v>
+      </c>
+      <c r="DL42" s="16">
+        <f t="shared" si="36"/>
+        <v>1736.4118099264392</v>
+      </c>
+      <c r="DM42" s="16">
+        <f t="shared" si="36"/>
+        <v>1788.5041642242325</v>
+      </c>
+      <c r="DN42" s="16">
+        <f t="shared" si="36"/>
+        <v>1842.1592891509595</v>
+      </c>
+      <c r="DO42" s="16">
+        <f t="shared" si="36"/>
+        <v>1897.4240678254882</v>
+      </c>
+      <c r="DP42" s="16">
+        <f t="shared" si="36"/>
+        <v>1954.346789860253</v>
+      </c>
+      <c r="DQ42" s="16">
+        <f t="shared" si="36"/>
+        <v>2012.9771935560607</v>
+      </c>
+    </row>
+    <row r="44" spans="2:121">
       <c r="B44" s="6" t="s">
         <v>72</v>
       </c>
       <c r="C44" s="14">
-        <f t="shared" ref="C44:BC44" si="14">C34/C32</f>
+        <f t="shared" ref="C44:BC44" si="37">C34/C32</f>
         <v>0.78739184177997523</v>
       </c>
       <c r="D44" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="37"/>
         <v>0.7959667852906287</v>
       </c>
       <c r="E44" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="37"/>
         <v>0.80570221752903903</v>
       </c>
       <c r="F44" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="37"/>
         <v>0.80833333333333324</v>
       </c>
       <c r="G44" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="37"/>
         <v>0.80063291139240511</v>
       </c>
       <c r="H44" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="37"/>
         <v>0.80597014925373134</v>
       </c>
       <c r="I44" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="37"/>
         <v>0.77619047619047621</v>
       </c>
       <c r="J44" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="37"/>
         <v>0.76822429906542056</v>
       </c>
       <c r="K44" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="37"/>
         <v>0.76399253731343286</v>
       </c>
       <c r="L44" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="37"/>
         <v>0.76822916666666663</v>
       </c>
       <c r="M44" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="37"/>
         <v>0.77845884413309985</v>
       </c>
       <c r="N44" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="37"/>
         <v>0.76584507042253525</v>
       </c>
       <c r="O44" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="37"/>
         <v>0.764855687606112</v>
       </c>
       <c r="P44" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="37"/>
         <v>0.75776397515527938</v>
       </c>
       <c r="Q44" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="37"/>
         <v>0.75607902735562316</v>
       </c>
       <c r="R44" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="37"/>
         <v>0.75598802395209586</v>
       </c>
       <c r="S44" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="37"/>
         <v>0.75985401459854007</v>
       </c>
       <c r="T44" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="37"/>
         <v>0.75666199158485281</v>
       </c>
       <c r="U44" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="37"/>
         <v>0.77315147164393394</v>
       </c>
       <c r="V44" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="37"/>
         <v>0.76218181818181818</v>
       </c>
       <c r="W44" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="37"/>
         <v>0.7678703021370672</v>
       </c>
       <c r="X44" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="37"/>
         <v>0.74274406332453824</v>
       </c>
       <c r="Y44" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="37"/>
         <v>0.77150192554557118</v>
       </c>
       <c r="Z44" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="37"/>
         <v>0.75590551181102361</v>
       </c>
       <c r="AA44" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="37"/>
         <v>0.75741595253790384</v>
       </c>
       <c r="AB44" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="37"/>
         <v>0.76818181818181808</v>
       </c>
       <c r="AC44" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="37"/>
         <v>0.7821100917431193</v>
       </c>
       <c r="AD44" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="37"/>
         <v>0.78258362168396767</v>
       </c>
       <c r="AE44" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="37"/>
         <v>0.77659574468085113</v>
       </c>
       <c r="AF44" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="37"/>
         <v>0.76569678407350683</v>
       </c>
       <c r="AG44" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="37"/>
         <v>0.77145981410606879</v>
       </c>
       <c r="AH44" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="37"/>
         <v>0.77377892030848328</v>
       </c>
       <c r="AI44" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="37"/>
         <v>0.76860346585117234</v>
       </c>
       <c r="AJ44" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="37"/>
         <v>0.76948512045347195</v>
       </c>
       <c r="AK44" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="37"/>
         <v>0.74344176285414476</v>
       </c>
       <c r="AL44" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="37"/>
         <v>0.66017461383478837</v>
       </c>
       <c r="AM44" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="37"/>
         <v>0.73577047663118933</v>
       </c>
       <c r="AN44" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="37"/>
         <v>0.73950299914310191</v>
       </c>
       <c r="AO44" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="37"/>
         <v>0.75802903651561815</v>
       </c>
       <c r="AP44" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="37"/>
         <v>0.745816733067729</v>
       </c>
       <c r="AQ44" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="37"/>
         <v>0.74531998258598176</v>
       </c>
       <c r="AR44" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="37"/>
         <v>0.75279999999999991</v>
       </c>
       <c r="AS44" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="37"/>
         <v>0.74360086767895883</v>
       </c>
       <c r="AT44" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="37"/>
         <v>0.7405159332321698</v>
       </c>
       <c r="AU44" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="37"/>
         <v>0.74262101534828806</v>
       </c>
       <c r="AV44" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="37"/>
         <v>0.7428051001821494</v>
       </c>
       <c r="AW44" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="37"/>
         <v>0.74412721358872436</v>
       </c>
       <c r="AX44" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="37"/>
         <v>0.73765432098765427</v>
       </c>
       <c r="AY44" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="37"/>
         <v>0.64702815432742433</v>
       </c>
       <c r="AZ44" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="37"/>
         <v>0.56934306569343063</v>
       </c>
       <c r="BA44" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="37"/>
         <v>0.60194494807977572</v>
       </c>
       <c r="BB44" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="37"/>
         <v>0.58710497062093059</v>
       </c>
       <c r="BC44" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="37"/>
         <v>0.56768419370305256</v>
       </c>
       <c r="BD44" s="14">
@@ -6139,272 +6738,302 @@
         <v>0.59926973984481968</v>
       </c>
       <c r="BK44" s="14">
-        <f t="shared" ref="BK44:BV44" si="15">BK34/BK32</f>
+        <f t="shared" ref="BK44:BV44" si="38">BK34/BK32</f>
         <v>0.80518134715025891</v>
       </c>
       <c r="BL44" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="38"/>
         <v>0.76910681399631686</v>
       </c>
       <c r="BM44" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="38"/>
         <v>0.76644182124789206</v>
       </c>
       <c r="BN44" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="38"/>
         <v>0.75715859030837007</v>
       </c>
       <c r="BO44" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="38"/>
         <v>0.76103527743307908</v>
       </c>
       <c r="BP44" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="38"/>
         <v>0.76348482465796497</v>
       </c>
       <c r="BQ44" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="38"/>
         <v>0.77640622808248005</v>
       </c>
       <c r="BR44" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="38"/>
         <v>0.7707882337960017</v>
       </c>
       <c r="BS44" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="38"/>
         <v>0.72446134347275037</v>
       </c>
       <c r="BT44" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="38"/>
         <v>0.75041753653444687</v>
       </c>
       <c r="BU44" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="38"/>
         <v>0.74234868485381822</v>
       </c>
       <c r="BV44" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="38"/>
         <v>0.65047181841366997</v>
       </c>
       <c r="BW44" s="14">
         <f>BW34/BW32</f>
         <v>0.58902913392077472</v>
       </c>
-    </row>
-    <row r="45" spans="2:75">
+      <c r="BX44" s="20">
+        <v>0.6</v>
+      </c>
+      <c r="BY44" s="20">
+        <v>0.62</v>
+      </c>
+      <c r="BZ44" s="20">
+        <v>0.64</v>
+      </c>
+      <c r="CA44" s="20">
+        <v>0.66</v>
+      </c>
+      <c r="CB44" s="20">
+        <v>0.66</v>
+      </c>
+      <c r="CC44" s="20">
+        <v>0.66</v>
+      </c>
+      <c r="CD44" s="20">
+        <v>0.66</v>
+      </c>
+      <c r="CE44" s="20">
+        <v>0.67</v>
+      </c>
+      <c r="CF44" s="20">
+        <v>0.67</v>
+      </c>
+      <c r="CG44" s="20">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="45" spans="2:121">
       <c r="B45" s="6" t="s">
         <v>73</v>
       </c>
       <c r="C45" s="14">
-        <f t="shared" ref="C45:BC45" si="16">C38/C32</f>
+        <f t="shared" ref="C45:BC45" si="39">C38/C32</f>
         <v>0.29419035846724351</v>
       </c>
       <c r="D45" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="39"/>
         <v>0.31435349940688018</v>
       </c>
       <c r="E45" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="39"/>
         <v>0.29672650475184792</v>
       </c>
       <c r="F45" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="39"/>
         <v>0.31875000000000003</v>
       </c>
       <c r="G45" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="39"/>
         <v>0.28586497890295359</v>
       </c>
       <c r="H45" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="39"/>
         <v>0.28955223880597014</v>
       </c>
       <c r="I45" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="39"/>
         <v>0.27809523809523806</v>
       </c>
       <c r="J45" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="39"/>
         <v>0.10467289719626167</v>
       </c>
       <c r="K45" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="39"/>
         <v>0.27518656716417911</v>
       </c>
       <c r="L45" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="39"/>
         <v>0.2751736111111111</v>
       </c>
       <c r="M45" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="39"/>
         <v>0.28196147110332753</v>
       </c>
       <c r="N45" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="39"/>
         <v>0.27816901408450706</v>
       </c>
       <c r="O45" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="39"/>
         <v>0.29626485568760613</v>
       </c>
       <c r="P45" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="39"/>
         <v>0.30745341614906829</v>
       </c>
       <c r="Q45" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="39"/>
         <v>0.29255319148936171</v>
       </c>
       <c r="R45" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="39"/>
         <v>0.27694610778443113</v>
       </c>
       <c r="S45" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="39"/>
         <v>0.29708029197080293</v>
       </c>
       <c r="T45" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="39"/>
         <v>0.39270687237026647</v>
       </c>
       <c r="U45" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="39"/>
         <v>0.30796841349605164</v>
       </c>
       <c r="V45" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="39"/>
         <v>0.27563636363636362</v>
       </c>
       <c r="W45" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="39"/>
         <v>0.2770817980840089</v>
       </c>
       <c r="X45" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="39"/>
         <v>0.23548812664907653</v>
       </c>
       <c r="Y45" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="39"/>
         <v>0.25866495507060328</v>
       </c>
       <c r="Z45" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="39"/>
         <v>0.24540682414698162</v>
       </c>
       <c r="AA45" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="39"/>
         <v>0.23599208965062624</v>
       </c>
       <c r="AB45" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="39"/>
         <v>0.27499999999999997</v>
       </c>
       <c r="AC45" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="39"/>
         <v>0.26146788990825687</v>
       </c>
       <c r="AD45" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="39"/>
         <v>0.2427912341407151</v>
       </c>
       <c r="AE45" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="39"/>
         <v>0.22635933806146571</v>
       </c>
       <c r="AF45" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="39"/>
         <v>0.22103113833588564</v>
       </c>
       <c r="AG45" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="39"/>
         <v>0.202843083652269</v>
       </c>
       <c r="AH45" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="39"/>
         <v>0.22056555269922878</v>
       </c>
       <c r="AI45" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="39"/>
         <v>0.21457696228338433</v>
       </c>
       <c r="AJ45" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="39"/>
         <v>0.23618327822390175</v>
       </c>
       <c r="AK45" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="39"/>
         <v>0.14900314795383002</v>
       </c>
       <c r="AL45" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="39"/>
         <v>-0.17192746809939558</v>
       </c>
       <c r="AM45" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="39"/>
         <v>0.23137436372049977</v>
       </c>
       <c r="AN45" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="39"/>
         <v>0.25064267352185088</v>
       </c>
       <c r="AO45" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="39"/>
         <v>0.23977122745270565</v>
       </c>
       <c r="AP45" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="39"/>
         <v>0.18286852589641434</v>
       </c>
       <c r="AQ45" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="39"/>
         <v>0.23204179364388333</v>
       </c>
       <c r="AR45" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="39"/>
         <v>7.2800000000000004E-2</v>
       </c>
       <c r="AS45" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="39"/>
         <v>0.20130151843817787</v>
       </c>
       <c r="AT45" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="39"/>
         <v>0.25720789074355083</v>
       </c>
       <c r="AU45" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="39"/>
         <v>0.2349468713105077</v>
       </c>
       <c r="AV45" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="39"/>
         <v>0.19672131147540983</v>
       </c>
       <c r="AW45" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="39"/>
         <v>0.20383086375135526</v>
       </c>
       <c r="AX45" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="39"/>
         <v>0.22702331961591221</v>
       </c>
       <c r="AY45" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="39"/>
         <v>1.0427528675703858E-3</v>
       </c>
       <c r="AZ45" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="39"/>
         <v>1.6382806163828062E-2</v>
       </c>
       <c r="BA45" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="39"/>
         <v>1.3186088676446349E-2</v>
       </c>
       <c r="BB45" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="39"/>
         <v>7.8767667143084003E-2</v>
       </c>
       <c r="BC45" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="39"/>
         <v>7.6873901230621697E-2</v>
       </c>
       <c r="BD45" s="14">
@@ -6412,272 +7041,302 @@
         <v>9.1738931994523057E-2</v>
       </c>
       <c r="BK45" s="14">
-        <f t="shared" ref="BK45:BV45" si="17">BK38/BK32</f>
+        <f t="shared" ref="BK45:BV45" si="40">BK38/BK32</f>
         <v>0.29766839378238341</v>
       </c>
       <c r="BL45" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="40"/>
         <v>0.23388581952117868</v>
       </c>
       <c r="BM45" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="40"/>
         <v>0.29152613827993257</v>
       </c>
       <c r="BN45" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="40"/>
         <v>0.31607929515418504</v>
       </c>
       <c r="BO45" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="40"/>
         <v>0.27317851444779295</v>
       </c>
       <c r="BP45" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="40"/>
         <v>0.25459977983959736</v>
       </c>
       <c r="BQ45" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="40"/>
         <v>0.23748071258240991</v>
       </c>
       <c r="BR45" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="40"/>
         <v>0.2191519164650452</v>
       </c>
       <c r="BS45" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="40"/>
         <v>0.14106463878326997</v>
       </c>
       <c r="BT45" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="40"/>
         <v>0.17943632567849685</v>
       </c>
       <c r="BU45" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="40"/>
         <v>0.22284149799550207</v>
       </c>
       <c r="BV45" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="40"/>
         <v>8.4863555215506245E-2</v>
       </c>
       <c r="BW45" s="14">
         <f>BW38/BW32</f>
         <v>6.5888703659601491E-2</v>
       </c>
-    </row>
-    <row r="46" spans="2:75">
+      <c r="BX45" s="20">
+        <v>0.15</v>
+      </c>
+      <c r="BY45" s="20">
+        <v>0.08</v>
+      </c>
+      <c r="BZ45" s="20">
+        <v>0.12</v>
+      </c>
+      <c r="CA45" s="20">
+        <v>0.13</v>
+      </c>
+      <c r="CB45" s="20">
+        <v>0.15</v>
+      </c>
+      <c r="CC45" s="20">
+        <v>0.16</v>
+      </c>
+      <c r="CD45" s="20">
+        <v>0.17</v>
+      </c>
+      <c r="CE45" s="20">
+        <v>0.18</v>
+      </c>
+      <c r="CF45" s="20">
+        <v>0.18</v>
+      </c>
+      <c r="CG45" s="20">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="46" spans="2:121">
       <c r="B46" s="6" t="s">
         <v>74</v>
       </c>
       <c r="C46" s="14">
-        <f t="shared" ref="C46:BC46" si="18">C42/C32</f>
+        <f t="shared" ref="C46:BC46" si="41">C42/C32</f>
         <v>0.1965389369592089</v>
       </c>
       <c r="D46" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="41"/>
         <v>0.20047449584816132</v>
       </c>
       <c r="E46" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="41"/>
         <v>0.18585005279831046</v>
       </c>
       <c r="F46" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="41"/>
         <v>0.19791666666666666</v>
       </c>
       <c r="G46" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="41"/>
         <v>0.17405063291139242</v>
       </c>
       <c r="H46" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="41"/>
         <v>0.20696517412935325</v>
       </c>
       <c r="I46" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="41"/>
         <v>0.18952380952380951</v>
       </c>
       <c r="J46" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="41"/>
         <v>6.9158878504672894E-2</v>
       </c>
       <c r="K46" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="41"/>
         <v>0.18936567164179105</v>
       </c>
       <c r="L46" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="41"/>
         <v>0.18229166666666666</v>
       </c>
       <c r="M46" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="41"/>
         <v>0.18476357267950963</v>
       </c>
       <c r="N46" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="41"/>
         <v>0.18133802816901409</v>
       </c>
       <c r="O46" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="41"/>
         <v>0.19609507640067914</v>
       </c>
       <c r="P46" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="41"/>
         <v>0.21428571428571427</v>
       </c>
       <c r="Q46" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="41"/>
         <v>0.18693009118541035</v>
       </c>
       <c r="R46" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="41"/>
         <v>0.18038922155688625</v>
       </c>
       <c r="S46" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="41"/>
         <v>0.19343065693430658</v>
       </c>
       <c r="T46" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="41"/>
         <v>0.2636746143057504</v>
       </c>
       <c r="U46" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="41"/>
         <v>0.20100502512562812</v>
       </c>
       <c r="V46" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="41"/>
         <v>0.18763636363636363</v>
       </c>
       <c r="W46" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="41"/>
         <v>0.19307295504789979</v>
       </c>
       <c r="X46" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="41"/>
         <v>0.16029023746701848</v>
       </c>
       <c r="Y46" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="41"/>
         <v>0.18421052631578946</v>
       </c>
       <c r="Z46" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="41"/>
         <v>0.18832020997375326</v>
       </c>
       <c r="AA46" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="41"/>
         <v>0.16875411997363218</v>
       </c>
       <c r="AB46" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="41"/>
         <v>0.13863636363636364</v>
       </c>
       <c r="AC46" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="41"/>
         <v>0.22649082568807338</v>
       </c>
       <c r="AD46" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="41"/>
         <v>0.25951557093425603</v>
       </c>
       <c r="AE46" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="41"/>
         <v>0.20803782505910168</v>
       </c>
       <c r="AF46" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="41"/>
         <v>0.187850944359367</v>
       </c>
       <c r="AG46" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="41"/>
         <v>0.18151995626025152</v>
       </c>
       <c r="AH46" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="41"/>
         <v>0.19640102827763498</v>
       </c>
       <c r="AI46" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="41"/>
         <v>0.19520897043832824</v>
       </c>
       <c r="AJ46" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="41"/>
         <v>0.21492678318375061</v>
       </c>
       <c r="AK46" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="41"/>
         <v>0.13588667366211962</v>
       </c>
       <c r="AL46" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="41"/>
         <v>-0.13969106783075891</v>
       </c>
       <c r="AM46" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="41"/>
         <v>0.20453493752892182</v>
       </c>
       <c r="AN46" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="41"/>
         <v>0.22707797772065125</v>
       </c>
       <c r="AO46" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="41"/>
         <v>0.1992960844698636</v>
       </c>
       <c r="AP46" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="41"/>
         <v>0.16533864541832669</v>
       </c>
       <c r="AQ46" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="41"/>
         <v>0.20548541575968657</v>
       </c>
       <c r="AR46" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="41"/>
         <v>6.0399999999999995E-2</v>
       </c>
       <c r="AS46" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="41"/>
         <v>0.16529284164859004</v>
       </c>
       <c r="AT46" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="41"/>
         <v>0.20713201820940819</v>
       </c>
       <c r="AU46" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="41"/>
         <v>0.18654073199527746</v>
       </c>
       <c r="AV46" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="41"/>
         <v>0.18251366120218579</v>
       </c>
       <c r="AW46" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="41"/>
         <v>0.17744850018070113</v>
       </c>
       <c r="AX46" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="41"/>
         <v>0.19787379972565158</v>
       </c>
       <c r="AY46" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="41"/>
         <v>2.6068821689259644E-3</v>
       </c>
       <c r="AZ46" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="41"/>
         <v>2.4330900243309004E-2</v>
       </c>
       <c r="BA46" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="41"/>
         <v>-1.1702653700346134E-2</v>
       </c>
       <c r="BB46" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="41"/>
         <v>5.0500238208670792E-2</v>
       </c>
       <c r="BC46" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="41"/>
         <v>8.2787278248361823E-2</v>
       </c>
       <c r="BD46" s="14">
@@ -6685,272 +7344,302 @@
         <v>4.0316446067244792E-2</v>
       </c>
       <c r="BK46" s="14">
-        <f t="shared" ref="BK46:BV46" si="19">BK42/BK32</f>
+        <f t="shared" ref="BK46:BV46" si="42">BK42/BK32</f>
         <v>0.19145077720207254</v>
       </c>
       <c r="BL46" s="14">
-        <f t="shared" si="19"/>
+        <f t="shared" si="42"/>
         <v>0.15791896869244934</v>
       </c>
       <c r="BM46" s="14">
-        <f t="shared" si="19"/>
+        <f t="shared" si="42"/>
         <v>0.19477234401349072</v>
       </c>
       <c r="BN46" s="14">
-        <f t="shared" si="19"/>
+        <f t="shared" si="42"/>
         <v>0.20704845814977976</v>
       </c>
       <c r="BO46" s="14">
-        <f t="shared" si="19"/>
+        <f t="shared" si="42"/>
         <v>0.18489629498315902</v>
       </c>
       <c r="BP46" s="14">
-        <f t="shared" si="19"/>
+        <f t="shared" si="42"/>
         <v>0.16889448026419246</v>
       </c>
       <c r="BQ46" s="14">
-        <f t="shared" si="19"/>
+        <f t="shared" si="42"/>
         <v>0.21952588020760275</v>
       </c>
       <c r="BR46" s="14">
-        <f t="shared" si="19"/>
+        <f t="shared" si="42"/>
         <v>0.19763147841589201</v>
       </c>
       <c r="BS46" s="14">
-        <f t="shared" si="19"/>
+        <f t="shared" si="42"/>
         <v>0.12965779467680608</v>
       </c>
       <c r="BT46" s="14">
-        <f t="shared" si="19"/>
+        <f t="shared" si="42"/>
         <v>0.15563674321503132</v>
       </c>
       <c r="BU46" s="14">
-        <f t="shared" si="19"/>
+        <f t="shared" si="42"/>
         <v>0.18597829275447345</v>
       </c>
       <c r="BV46" s="14">
-        <f t="shared" si="19"/>
+        <f t="shared" si="42"/>
         <v>7.829635297118083E-2</v>
       </c>
       <c r="BW46" s="14">
         <f>BW42/BW32</f>
         <v>4.0882749861078031E-2</v>
       </c>
-    </row>
-    <row r="47" spans="2:75">
+      <c r="BX46" s="20">
+        <v>0.12</v>
+      </c>
+      <c r="BY46" s="20">
+        <v>0.125</v>
+      </c>
+      <c r="BZ46" s="20">
+        <v>0.13</v>
+      </c>
+      <c r="CA46" s="20">
+        <v>0.13</v>
+      </c>
+      <c r="CB46" s="20">
+        <v>0.13</v>
+      </c>
+      <c r="CC46" s="20">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="CD46" s="20">
+        <v>0.16</v>
+      </c>
+      <c r="CE46" s="20">
+        <v>0.16</v>
+      </c>
+      <c r="CF46" s="20">
+        <v>0.16</v>
+      </c>
+      <c r="CG46" s="20">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="47" spans="2:121">
       <c r="B47" s="6" t="s">
         <v>75</v>
       </c>
       <c r="C47" s="14">
-        <f t="shared" ref="C47:BC47" si="20">C36/C32</f>
+        <f t="shared" ref="C47:BC47" si="43">C36/C32</f>
         <v>7.0457354758961685E-2</v>
       </c>
       <c r="D47" s="14">
-        <f t="shared" si="20"/>
+        <f t="shared" si="43"/>
         <v>6.9988137603795977E-2</v>
       </c>
       <c r="E47" s="14">
-        <f t="shared" si="20"/>
+        <f t="shared" si="43"/>
         <v>7.0749736008447736E-2</v>
       </c>
       <c r="F47" s="14">
-        <f t="shared" si="20"/>
+        <f t="shared" si="43"/>
         <v>7.1875000000000008E-2</v>
       </c>
       <c r="G47" s="14">
-        <f t="shared" si="20"/>
+        <f t="shared" si="43"/>
         <v>7.3839662447257384E-2</v>
       </c>
       <c r="H47" s="14">
-        <f t="shared" si="20"/>
+        <f t="shared" si="43"/>
         <v>7.1641791044776124E-2</v>
       </c>
       <c r="I47" s="14">
-        <f t="shared" si="20"/>
+        <f t="shared" si="43"/>
         <v>6.4761904761904757E-2</v>
       </c>
       <c r="J47" s="14">
-        <f t="shared" si="20"/>
+        <f t="shared" si="43"/>
         <v>6.5420560747663545E-2</v>
       </c>
       <c r="K47" s="14">
-        <f t="shared" si="20"/>
+        <f t="shared" si="43"/>
         <v>6.1567164179104475E-2</v>
       </c>
       <c r="L47" s="14">
-        <f t="shared" si="20"/>
+        <f t="shared" si="43"/>
         <v>5.5555555555555559E-2</v>
       </c>
       <c r="M47" s="14">
-        <f t="shared" si="20"/>
+        <f t="shared" si="43"/>
         <v>6.4798598949211916E-2</v>
       </c>
       <c r="N47" s="14">
-        <f t="shared" si="20"/>
+        <f t="shared" si="43"/>
         <v>6.7781690140845077E-2</v>
       </c>
       <c r="O47" s="14">
-        <f t="shared" si="20"/>
+        <f t="shared" si="43"/>
         <v>6.8760611205432934E-2</v>
       </c>
       <c r="P47" s="14">
-        <f t="shared" si="20"/>
+        <f t="shared" si="43"/>
         <v>6.1335403726708072E-2</v>
       </c>
       <c r="Q47" s="14">
-        <f t="shared" si="20"/>
+        <f t="shared" si="43"/>
         <v>6.6109422492401218E-2</v>
       </c>
       <c r="R47" s="14">
-        <f t="shared" si="20"/>
+        <f t="shared" si="43"/>
         <v>6.8113772455089816E-2</v>
       </c>
       <c r="S47" s="14">
-        <f t="shared" si="20"/>
+        <f t="shared" si="43"/>
         <v>6.7153284671532837E-2</v>
       </c>
       <c r="T47" s="14">
-        <f t="shared" si="20"/>
+        <f t="shared" si="43"/>
         <v>6.5217391304347838E-2</v>
       </c>
       <c r="U47" s="14">
-        <f t="shared" si="20"/>
+        <f t="shared" si="43"/>
         <v>7.1787508973438621E-2</v>
       </c>
       <c r="V47" s="14">
-        <f t="shared" si="20"/>
+        <f t="shared" si="43"/>
         <v>7.7090909090909085E-2</v>
       </c>
       <c r="W47" s="14">
-        <f t="shared" si="20"/>
+        <f t="shared" si="43"/>
         <v>7.5902726602800299E-2</v>
       </c>
       <c r="X47" s="14">
-        <f t="shared" si="20"/>
+        <f t="shared" si="43"/>
         <v>8.9709762532981532E-2</v>
       </c>
       <c r="Y47" s="14">
-        <f t="shared" si="20"/>
+        <f t="shared" si="43"/>
         <v>6.8677792041078295E-2</v>
       </c>
       <c r="Z47" s="14">
-        <f t="shared" si="20"/>
+        <f t="shared" si="43"/>
         <v>7.0209973753280835E-2</v>
       </c>
       <c r="AA47" s="14">
-        <f t="shared" si="20"/>
+        <f t="shared" si="43"/>
         <v>7.1852340145023078E-2</v>
       </c>
       <c r="AB47" s="14">
-        <f t="shared" si="20"/>
+        <f t="shared" si="43"/>
         <v>6.4772727272727273E-2</v>
       </c>
       <c r="AC47" s="14">
-        <f t="shared" si="20"/>
+        <f t="shared" si="43"/>
         <v>7.2821100917431186E-2</v>
       </c>
       <c r="AD47" s="14">
-        <f t="shared" si="20"/>
+        <f t="shared" si="43"/>
         <v>7.7854671280276816E-2</v>
       </c>
       <c r="AE47" s="14">
-        <f t="shared" si="20"/>
+        <f t="shared" si="43"/>
         <v>9.1607565011820338E-2</v>
       </c>
       <c r="AF47" s="14">
-        <f t="shared" si="20"/>
+        <f t="shared" si="43"/>
         <v>7.0444104134762639E-2</v>
       </c>
       <c r="AG47" s="14">
-        <f t="shared" si="20"/>
+        <f t="shared" si="43"/>
         <v>7.8184800437397492E-2</v>
       </c>
       <c r="AH47" s="14">
-        <f t="shared" si="20"/>
+        <f t="shared" si="43"/>
         <v>8.0719794344473003E-2</v>
       </c>
       <c r="AI47" s="14">
-        <f t="shared" si="20"/>
+        <f t="shared" si="43"/>
         <v>7.3904179408766563E-2</v>
       </c>
       <c r="AJ47" s="14">
-        <f t="shared" si="20"/>
+        <f t="shared" si="43"/>
         <v>7.3216816249409553E-2</v>
       </c>
       <c r="AK47" s="14">
-        <f t="shared" si="20"/>
+        <f t="shared" si="43"/>
         <v>8.0797481636935994E-2</v>
       </c>
       <c r="AL47" s="14">
-        <f t="shared" si="20"/>
+        <f t="shared" si="43"/>
         <v>0.26527871054398927</v>
       </c>
       <c r="AM47" s="14">
-        <f t="shared" si="20"/>
+        <f t="shared" si="43"/>
         <v>6.6635816751503943E-2</v>
       </c>
       <c r="AN47" s="14">
-        <f t="shared" si="20"/>
+        <f t="shared" si="43"/>
         <v>6.5124250214224508E-2</v>
       </c>
       <c r="AO47" s="14">
-        <f t="shared" si="20"/>
+        <f t="shared" si="43"/>
         <v>6.5552133743950719E-2</v>
       </c>
       <c r="AP47" s="14">
-        <f t="shared" si="20"/>
+        <f t="shared" si="43"/>
         <v>6.1752988047808766E-2</v>
       </c>
       <c r="AQ47" s="14">
-        <f t="shared" si="20"/>
+        <f t="shared" si="43"/>
         <v>6.9220722681758814E-2</v>
       </c>
       <c r="AR47" s="14">
-        <f t="shared" si="20"/>
+        <f t="shared" si="43"/>
         <v>0.20399999999999999</v>
       </c>
       <c r="AS47" s="14">
-        <f t="shared" si="20"/>
+        <f t="shared" si="43"/>
         <v>7.5488069414316697E-2</v>
       </c>
       <c r="AT47" s="14">
-        <f t="shared" si="20"/>
+        <f t="shared" si="43"/>
         <v>6.6009104704097099E-2</v>
       </c>
       <c r="AU47" s="14">
-        <f t="shared" si="20"/>
+        <f t="shared" si="43"/>
         <v>7.3593073593073585E-2</v>
       </c>
       <c r="AV47" s="14">
-        <f t="shared" si="20"/>
+        <f t="shared" si="43"/>
         <v>7.1038251366120214E-2</v>
       </c>
       <c r="AW47" s="14">
-        <f t="shared" si="20"/>
+        <f t="shared" si="43"/>
         <v>7.6255872786411286E-2</v>
       </c>
       <c r="AX47" s="14">
-        <f t="shared" si="20"/>
+        <f t="shared" si="43"/>
         <v>7.3045267489711935E-2</v>
       </c>
       <c r="AY47" s="14">
-        <f t="shared" si="20"/>
+        <f t="shared" si="43"/>
         <v>7.6381647549530765E-2</v>
       </c>
       <c r="AZ47" s="14">
-        <f t="shared" si="20"/>
+        <f t="shared" si="43"/>
         <v>8.4833738848337378E-2</v>
       </c>
       <c r="BA47" s="14">
-        <f t="shared" si="20"/>
+        <f t="shared" si="43"/>
         <v>9.4445360145046967E-2</v>
       </c>
       <c r="BB47" s="14">
-        <f t="shared" si="20"/>
+        <f t="shared" si="43"/>
         <v>5.9869779259965061E-2</v>
       </c>
       <c r="BC47" s="14">
-        <f t="shared" si="20"/>
+        <f t="shared" si="43"/>
         <v>5.6576634169729897E-2</v>
       </c>
       <c r="BD47" s="14">
@@ -6958,272 +7647,302 @@
         <v>5.0813935797961361E-2</v>
       </c>
       <c r="BK47" s="14">
-        <f t="shared" ref="BK47:BV47" si="21">BK36/BK32</f>
+        <f t="shared" ref="BK47:BV47" si="44">BK36/BK32</f>
         <v>7.2020725388601034E-2</v>
       </c>
       <c r="BL47" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="44"/>
         <v>6.1694290976058927E-2</v>
       </c>
       <c r="BM47" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="44"/>
         <v>6.5556492411467118E-2</v>
       </c>
       <c r="BN47" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="44"/>
         <v>6.6629955947136568E-2</v>
       </c>
       <c r="BO47" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="44"/>
         <v>7.8886722212373694E-2</v>
       </c>
       <c r="BP47" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="44"/>
         <v>6.8721497090737521E-2</v>
       </c>
       <c r="BQ47" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="44"/>
         <v>7.7851031000140278E-2</v>
       </c>
       <c r="BR47" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="44"/>
         <v>7.6403922067999494E-2</v>
       </c>
       <c r="BS47" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="44"/>
         <v>0.10709759188846642</v>
       </c>
       <c r="BT47" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="44"/>
         <v>0.10156576200417536</v>
       </c>
       <c r="BU47" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="44"/>
         <v>7.137968123594407E-2</v>
       </c>
       <c r="BV47" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="44"/>
         <v>7.9061463912267274E-2</v>
       </c>
       <c r="BW47" s="14">
         <f>BW36/BW32</f>
         <v>6.5015479876160992E-2</v>
       </c>
-    </row>
-    <row r="48" spans="2:75">
+      <c r="BX47" s="20">
+        <v>0.08</v>
+      </c>
+      <c r="BY47" s="20">
+        <v>0.08</v>
+      </c>
+      <c r="BZ47" s="20">
+        <v>0.08</v>
+      </c>
+      <c r="CA47" s="20">
+        <v>0.08</v>
+      </c>
+      <c r="CB47" s="20">
+        <v>0.08</v>
+      </c>
+      <c r="CC47" s="20">
+        <v>0.08</v>
+      </c>
+      <c r="CD47" s="20">
+        <v>0.08</v>
+      </c>
+      <c r="CE47" s="20">
+        <v>0.08</v>
+      </c>
+      <c r="CF47" s="20">
+        <v>0.08</v>
+      </c>
+      <c r="CG47" s="20">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="48" spans="2:121">
       <c r="B48" s="6" t="s">
         <v>76</v>
       </c>
       <c r="C48" s="14">
-        <f t="shared" ref="C48:BC48" si="22">C35/C32</f>
+        <f t="shared" ref="C48:BC48" si="45">C35/C32</f>
         <v>0.41779975278121129</v>
       </c>
       <c r="D48" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="45"/>
         <v>0.41281138790035588</v>
       </c>
       <c r="E48" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="45"/>
         <v>0.43505807814149949</v>
       </c>
       <c r="F48" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="45"/>
         <v>0.4291666666666667</v>
       </c>
       <c r="G48" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="45"/>
         <v>0.44092827004219409</v>
       </c>
       <c r="H48" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="45"/>
         <v>0.4437810945273632</v>
       </c>
       <c r="I48" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="45"/>
         <v>0.43238095238095237</v>
       </c>
       <c r="J48" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="45"/>
         <v>0.42803738317757006</v>
       </c>
       <c r="K48" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="45"/>
         <v>0.42630597014925375</v>
       </c>
       <c r="L48" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="45"/>
         <v>0.3967013888888889</v>
       </c>
       <c r="M48" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="45"/>
         <v>0.40893169877408059</v>
       </c>
       <c r="N48" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="45"/>
         <v>0.40845070422535212</v>
       </c>
       <c r="O48" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="45"/>
         <v>0.39898132427843802</v>
       </c>
       <c r="P48" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="45"/>
         <v>0.37655279503105588</v>
       </c>
       <c r="Q48" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="45"/>
         <v>0.39741641337386019</v>
       </c>
       <c r="R48" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="45"/>
         <v>0.40793413173652698</v>
       </c>
       <c r="S48" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="45"/>
         <v>0.381021897810219</v>
       </c>
       <c r="T48" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="45"/>
         <v>0.35974754558204769</v>
       </c>
       <c r="U48" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="45"/>
         <v>0.38621679827709976</v>
       </c>
       <c r="V48" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="45"/>
         <v>0.38763636363636361</v>
       </c>
       <c r="W48" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="45"/>
         <v>0.3994104642593958</v>
       </c>
       <c r="X48" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="45"/>
         <v>0.40105540897097625</v>
       </c>
       <c r="Y48" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="45"/>
         <v>0.43068035943517324</v>
       </c>
       <c r="Z48" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="45"/>
         <v>0.4225721784776903</v>
       </c>
       <c r="AA48" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="45"/>
         <v>0.41793012524719841</v>
       </c>
       <c r="AB48" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="45"/>
         <v>0.41477272727272729</v>
       </c>
       <c r="AC48" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="45"/>
         <v>0.43405963302752293</v>
       </c>
       <c r="AD48" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="45"/>
         <v>0.44463667820069197</v>
       </c>
       <c r="AE48" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="45"/>
         <v>0.44385342789598109</v>
       </c>
       <c r="AF48" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="45"/>
         <v>0.42674834099030112</v>
       </c>
       <c r="AG48" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="45"/>
         <v>0.46910880262438487</v>
       </c>
       <c r="AH48" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="45"/>
         <v>0.45449871465295633</v>
       </c>
       <c r="AI48" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="45"/>
         <v>0.45107033639143734</v>
       </c>
       <c r="AJ48" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="45"/>
         <v>0.435049598488427</v>
       </c>
       <c r="AK48" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="45"/>
         <v>0.49055613850996854</v>
       </c>
       <c r="AL48" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="45"/>
         <v>0.53727333781061115</v>
       </c>
       <c r="AM48" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="45"/>
         <v>0.41277186487737161</v>
       </c>
       <c r="AN48" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="45"/>
         <v>0.39417309340188517</v>
       </c>
       <c r="AO48" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="45"/>
         <v>0.43070831500219975</v>
       </c>
       <c r="AP48" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="45"/>
         <v>0.42749003984063744</v>
       </c>
       <c r="AQ48" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="45"/>
         <v>0.41967784066173275</v>
       </c>
       <c r="AR48" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="45"/>
         <v>0.4264</v>
       </c>
       <c r="AS48" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="45"/>
         <v>0.43687635574837314</v>
       </c>
       <c r="AT48" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="45"/>
         <v>0.40477996965098634</v>
       </c>
       <c r="AU48" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="45"/>
         <v>0.41951987406532859</v>
       </c>
       <c r="AV48" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="45"/>
         <v>0.4302367941712204</v>
       </c>
       <c r="AW48" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="45"/>
         <v>0.44235634260932422</v>
       </c>
       <c r="AX48" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="45"/>
         <v>0.41186556927297663</v>
       </c>
       <c r="AY48" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="45"/>
         <v>0.40719499478623561</v>
       </c>
       <c r="AZ48" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="45"/>
         <v>0.39691808596918082</v>
       </c>
       <c r="BA48" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="45"/>
         <v>0.40992253172902582</v>
       </c>
       <c r="BB48" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="45"/>
         <v>0.37811656344290928</v>
       </c>
       <c r="BC48" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="45"/>
         <v>0.38468914815406741</v>
       </c>
       <c r="BD48" s="14">
@@ -7231,59 +7950,89 @@
         <v>0.38566864445458698</v>
       </c>
       <c r="BK48" s="14">
-        <f t="shared" ref="BK48:BV48" si="23">BK35/BK32</f>
+        <f t="shared" ref="BK48:BV48" si="46">BK35/BK32</f>
         <v>0.43730569948186532</v>
       </c>
       <c r="BL48" s="14">
-        <f t="shared" si="23"/>
+        <f t="shared" si="46"/>
         <v>0.42034990791896865</v>
       </c>
       <c r="BM48" s="14">
-        <f t="shared" si="23"/>
+        <f t="shared" si="46"/>
         <v>0.39755480607082627</v>
       </c>
       <c r="BN48" s="14">
-        <f t="shared" si="23"/>
+        <f t="shared" si="46"/>
         <v>0.38601321585903087</v>
       </c>
       <c r="BO48" s="14">
-        <f t="shared" si="23"/>
+        <f t="shared" si="46"/>
         <v>0.39372451692962246</v>
       </c>
       <c r="BP48" s="14">
-        <f t="shared" si="23"/>
+        <f t="shared" si="46"/>
         <v>0.42129265607799959</v>
       </c>
       <c r="BQ48" s="14">
-        <f t="shared" si="23"/>
+        <f t="shared" si="46"/>
         <v>0.4369476784962828</v>
       </c>
       <c r="BR48" s="14">
-        <f t="shared" si="23"/>
+        <f t="shared" si="46"/>
         <v>0.45180185916210364</v>
       </c>
       <c r="BS48" s="14">
-        <f t="shared" si="23"/>
+        <f t="shared" si="46"/>
         <v>0.44955640050697082</v>
       </c>
       <c r="BT48" s="14">
-        <f t="shared" si="23"/>
+        <f t="shared" si="46"/>
         <v>0.42609603340292279</v>
       </c>
       <c r="BU48" s="14">
-        <f t="shared" si="23"/>
+        <f t="shared" si="46"/>
         <v>0.42250904468563605</v>
       </c>
       <c r="BV48" s="14">
-        <f t="shared" si="23"/>
+        <f t="shared" si="46"/>
         <v>0.4102269829125223</v>
       </c>
       <c r="BW48" s="14">
         <f>BW35/BW32</f>
         <v>0.38937842343415097</v>
       </c>
-    </row>
-    <row r="49" spans="2:75">
+      <c r="BX48" s="20">
+        <v>0.4</v>
+      </c>
+      <c r="BY48" s="20">
+        <v>0.4</v>
+      </c>
+      <c r="BZ48" s="20">
+        <v>0.4</v>
+      </c>
+      <c r="CA48" s="20">
+        <v>0.4</v>
+      </c>
+      <c r="CB48" s="20">
+        <v>0.4</v>
+      </c>
+      <c r="CC48" s="20">
+        <v>0.4</v>
+      </c>
+      <c r="CD48" s="20">
+        <v>0.4</v>
+      </c>
+      <c r="CE48" s="20">
+        <v>0.4</v>
+      </c>
+      <c r="CF48" s="20">
+        <v>0.4</v>
+      </c>
+      <c r="CG48" s="20">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="49" spans="2:85">
       <c r="B49" s="6" t="s">
         <v>77</v>
       </c>
@@ -7296,253 +8045,341 @@
         <v>0.17181705809641512</v>
       </c>
       <c r="H49" s="15">
-        <f t="shared" ref="H49:BD49" si="24">H32/D32-1</f>
+        <f t="shared" ref="H49:BD49" si="47">H32/D32-1</f>
         <v>0.19217081850533813</v>
       </c>
       <c r="I49" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="47"/>
         <v>0.1087645195353748</v>
       </c>
       <c r="J49" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="47"/>
         <v>0.11458333333333326</v>
       </c>
       <c r="K49" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="47"/>
         <v>0.13080168776371304</v>
       </c>
       <c r="L49" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="47"/>
         <v>0.14626865671641798</v>
       </c>
       <c r="M49" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="47"/>
         <v>8.7619047619047707E-2</v>
       </c>
       <c r="N49" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="47"/>
         <v>6.1682242990654057E-2</v>
       </c>
       <c r="O49" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="47"/>
         <v>9.8880597014925353E-2</v>
       </c>
       <c r="P49" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="47"/>
         <v>0.11805555555555558</v>
       </c>
       <c r="Q49" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="47"/>
         <v>0.15236427320490353</v>
       </c>
       <c r="R49" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="47"/>
         <v>0.176056338028169</v>
       </c>
       <c r="S49" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="47"/>
         <v>0.16298811544991509</v>
       </c>
       <c r="T49" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="47"/>
         <v>0.10714285714285698</v>
       </c>
       <c r="U49" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="47"/>
         <v>5.8510638297872397E-2</v>
       </c>
       <c r="V49" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="47"/>
         <v>2.9191616766467199E-2</v>
       </c>
       <c r="W49" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="47"/>
         <v>-9.4890510948906215E-3</v>
       </c>
       <c r="X49" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="47"/>
         <v>6.3113604488078456E-2</v>
       </c>
       <c r="Y49" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="47"/>
         <v>0.11844938980617381</v>
       </c>
       <c r="Z49" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="47"/>
         <v>0.10836363636363644</v>
       </c>
       <c r="AA49" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="47"/>
         <v>0.1179071481208549</v>
       </c>
       <c r="AB49" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="47"/>
         <v>0.16094986807387857</v>
       </c>
       <c r="AC49" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="47"/>
         <v>0.11938382541720149</v>
       </c>
       <c r="AD49" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="47"/>
         <v>0.13779527559055116</v>
       </c>
       <c r="AE49" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="47"/>
         <v>0.11535926170072508</v>
       </c>
       <c r="AF49" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="47"/>
         <v>0.11306818181818179</v>
       </c>
       <c r="AG49" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="47"/>
         <v>4.8738532110091715E-2</v>
       </c>
       <c r="AH49" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="47"/>
         <v>0.121683967704729</v>
       </c>
       <c r="AI49" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="47"/>
         <v>0.15957446808510634</v>
       </c>
       <c r="AJ49" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="47"/>
         <v>8.0653394589075944E-2</v>
       </c>
       <c r="AK49" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="47"/>
         <v>4.209950792782946E-2</v>
       </c>
       <c r="AL49" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="47"/>
         <v>-0.23444730077120823</v>
       </c>
       <c r="AM49" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="47"/>
         <v>0.10142711518858305</v>
       </c>
       <c r="AN49" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="47"/>
         <v>0.10250354274917339</v>
       </c>
       <c r="AO49" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="47"/>
         <v>0.19254984260230867</v>
       </c>
       <c r="AP49" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="47"/>
         <v>0.68569509738079248</v>
       </c>
       <c r="AQ49" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="47"/>
         <v>6.2933826931975911E-2</v>
       </c>
       <c r="AR49" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="47"/>
         <v>7.1122536418166238E-2</v>
       </c>
       <c r="AS49" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="47"/>
         <v>1.4078310602727573E-2</v>
       </c>
       <c r="AT49" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="47"/>
         <v>5.0199203187251129E-2</v>
       </c>
       <c r="AU49" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="47"/>
         <v>0.10622551153678716</v>
       </c>
       <c r="AV49" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="47"/>
         <v>9.8000000000000087E-2</v>
       </c>
       <c r="AW49" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="47"/>
         <v>0.20043383947939253</v>
       </c>
       <c r="AX49" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="47"/>
         <v>0.10622154779969639</v>
       </c>
       <c r="AY49" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="47"/>
         <v>0.50964187327823707</v>
       </c>
       <c r="AZ49" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="47"/>
         <v>1.2459016393442623</v>
       </c>
       <c r="BA49" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="47"/>
         <v>1.1926273942898447</v>
       </c>
       <c r="BB49" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="47"/>
         <v>1.1594650205761319</v>
       </c>
       <c r="BC49" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="47"/>
         <v>0.63112617309697594</v>
       </c>
       <c r="BD49" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="47"/>
         <v>6.6180048661800495E-2</v>
       </c>
       <c r="BK49" s="15"/>
       <c r="BL49" s="15">
-        <f t="shared" ref="BK49:BV49" si="25">BL32/BK32-1</f>
+        <f t="shared" ref="BL49:BV49" si="48">BL32/BK32-1</f>
         <v>0.12538860103626948</v>
       </c>
       <c r="BM49" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="48"/>
         <v>9.2081031307550854E-2</v>
       </c>
       <c r="BN49" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="48"/>
         <v>0.14839797639123087</v>
       </c>
       <c r="BO49" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="48"/>
         <v>3.5425844346549384E-2</v>
       </c>
       <c r="BP49" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="48"/>
         <v>0.1272823967381671</v>
       </c>
       <c r="BQ49" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="48"/>
         <v>0.12108822141846187</v>
       </c>
       <c r="BR49" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="48"/>
         <v>0.10155702062000271</v>
       </c>
       <c r="BS49" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="48"/>
         <v>4.711575194193296E-3</v>
       </c>
       <c r="BT49" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="48"/>
         <v>0.21419518377693292</v>
       </c>
       <c r="BU49" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="48"/>
         <v>6.7536534446764218E-2</v>
       </c>
       <c r="BV49" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="48"/>
         <v>0.53358756233499571</v>
       </c>
       <c r="BW49" s="15">
         <f>BW32/BV32-1</f>
         <v>0.60635042081101753</v>
       </c>
+      <c r="BX49" s="20">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="BY49" s="20">
+        <v>0.08</v>
+      </c>
+      <c r="BZ49" s="20">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="CA49" s="20">
+        <v>0.06</v>
+      </c>
+      <c r="CB49" s="20">
+        <v>0.06</v>
+      </c>
+      <c r="CC49" s="20">
+        <v>0.05</v>
+      </c>
+      <c r="CD49" s="20">
+        <v>0.05</v>
+      </c>
+      <c r="CE49" s="20">
+        <v>0.04</v>
+      </c>
+      <c r="CF49" s="20">
+        <v>0.04</v>
+      </c>
+      <c r="CG49" s="20">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="51" spans="2:85">
+      <c r="BY51" s="17" t="s">
+        <v>341</v>
+      </c>
+      <c r="BZ51" s="21">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="2:85">
+      <c r="BY52" s="17" t="s">
+        <v>342</v>
+      </c>
+      <c r="BZ52" s="21">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="53" spans="2:85">
+      <c r="BY53" s="17" t="s">
+        <v>343</v>
+      </c>
+      <c r="BZ53" s="17">
+        <f>NPV(BZ51,BX42:DQ42)</f>
+        <v>9389.9160729781779</v>
+      </c>
+    </row>
+    <row r="54" spans="2:85">
+      <c r="BY54" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="BZ54" s="23">
+        <f>Main!C3</f>
+        <v>137.35</v>
+      </c>
+    </row>
+    <row r="55" spans="2:85">
+      <c r="BY55" s="17" t="s">
+        <v>344</v>
+      </c>
+      <c r="BZ55" s="22">
+        <f>BZ53/BZ54</f>
+        <v>68.364878580110513</v>
+      </c>
+    </row>
+    <row r="56" spans="2:85">
+      <c r="BY56" s="17" t="s">
+        <v>345</v>
+      </c>
+      <c r="BZ56" s="22">
+        <f>Main!C2</f>
+        <v>73.7</v>
+      </c>
+    </row>
+    <row r="57" spans="2:85">
+      <c r="BY57" s="17" t="s">
+        <v>346</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/GMED_Model.xlsx
+++ b/GMED_Model.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Equity Research\Models\Health Care\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Equity Research\Models\Health Care\MedTech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{069975F1-BD57-49FF-9869-1910DC4746B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8AB10D6-F521-4A4E-923B-5DE68C958DE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43095" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -3133,10 +3133,10 @@
   <dimension ref="B2:DQ57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="BV27" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="BP27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BZ52" sqref="BZ52"/>
+      <selection pane="bottomRight" activeCell="BZ44" sqref="BZ44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>

--- a/GMED_Model.xlsx
+++ b/GMED_Model.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Equity Research\Models\Health Care\MedTech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8AB10D6-F521-4A4E-923B-5DE68C958DE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD83D759-2E80-4F9F-950D-B8A8FFC75BF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -3133,10 +3133,10 @@
   <dimension ref="B2:DQ57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="BP27" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="BR25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BZ44" sqref="BZ44"/>
+      <selection pane="bottomRight" activeCell="BZ49" sqref="BZ49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
@@ -3948,43 +3948,43 @@
       </c>
       <c r="BX32" s="18">
         <f t="shared" ref="BX32:CG32" si="18">BW32*(1+BX49)</f>
-        <v>2695.7580000000003</v>
+        <v>2670.5640000000003</v>
       </c>
       <c r="BY32" s="18">
         <f t="shared" si="18"/>
-        <v>2911.4186400000003</v>
+        <v>2723.9752800000006</v>
       </c>
       <c r="BZ32" s="18">
         <f t="shared" si="18"/>
-        <v>3115.2179448000006</v>
+        <v>2860.1740440000008</v>
       </c>
       <c r="CA32" s="18">
         <f t="shared" si="18"/>
-        <v>3302.1310214880009</v>
+        <v>3031.784486640001</v>
       </c>
       <c r="CB32" s="18">
         <f t="shared" si="18"/>
-        <v>3500.2588827772811</v>
+        <v>3213.6915558384012</v>
       </c>
       <c r="CC32" s="18">
         <f t="shared" si="18"/>
-        <v>3675.2718269161451</v>
+        <v>3374.3761336303214</v>
       </c>
       <c r="CD32" s="18">
         <f t="shared" si="18"/>
-        <v>3859.0354182619526</v>
+        <v>3543.0949403118375</v>
       </c>
       <c r="CE32" s="18">
         <f t="shared" si="18"/>
-        <v>4013.3968349924307</v>
+        <v>3684.8187379243113</v>
       </c>
       <c r="CF32" s="18">
         <f t="shared" si="18"/>
-        <v>4173.932708392128</v>
+        <v>3832.2114874412841</v>
       </c>
       <c r="CG32" s="18">
         <f t="shared" si="18"/>
-        <v>4340.8900167278134</v>
+        <v>3985.4999469389354</v>
       </c>
       <c r="CH32" s="16"/>
       <c r="CI32" s="16"/>
@@ -5388,43 +5388,43 @@
       </c>
       <c r="BX38" s="19">
         <f>BX32*BX45</f>
-        <v>404.36370000000005</v>
+        <v>488.71321200000006</v>
       </c>
       <c r="BY38" s="19">
         <f>BY32*BY45</f>
-        <v>232.91349120000004</v>
+        <v>501.21145152000008</v>
       </c>
       <c r="BZ38" s="19">
         <f t="shared" ref="BZ38:CB38" si="32">BZ32*BZ45</f>
-        <v>373.82615337600004</v>
+        <v>529.13219814000013</v>
       </c>
       <c r="CA38" s="19">
         <f t="shared" si="32"/>
-        <v>429.27703279344013</v>
+        <v>563.91191451504017</v>
       </c>
       <c r="CB38" s="19">
         <f t="shared" si="32"/>
-        <v>525.03883241659219</v>
+        <v>600.96032094178099</v>
       </c>
       <c r="CC38" s="19">
         <f t="shared" ref="CC38:CG38" si="33">CC32*CC45</f>
-        <v>588.04349230658318</v>
+        <v>631.00833698887016</v>
       </c>
       <c r="CD38" s="19">
         <f t="shared" si="33"/>
-        <v>656.03602110453198</v>
+        <v>666.10184877862548</v>
       </c>
       <c r="CE38" s="19">
         <f t="shared" si="33"/>
-        <v>722.41143029863747</v>
+        <v>696.43074146769482</v>
       </c>
       <c r="CF38" s="19">
         <f t="shared" si="33"/>
-        <v>751.30788751058299</v>
+        <v>728.12018261384401</v>
       </c>
       <c r="CG38" s="19">
         <f t="shared" si="33"/>
-        <v>868.17800334556273</v>
+        <v>757.24498991839778</v>
       </c>
     </row>
     <row r="39" spans="2:121">
@@ -6334,187 +6334,187 @@
       </c>
       <c r="BX42" s="18">
         <f>BX32*BX46</f>
-        <v>323.49096000000003</v>
+        <v>333.82050000000004</v>
       </c>
       <c r="BY42" s="18">
         <f t="shared" ref="BY42:CB42" si="34">BY32*BY46</f>
-        <v>363.92733000000004</v>
+        <v>212.47007184000003</v>
       </c>
       <c r="BZ42" s="18">
         <f t="shared" si="34"/>
-        <v>404.97833282400012</v>
+        <v>277.43688226800009</v>
       </c>
       <c r="CA42" s="18">
         <f t="shared" si="34"/>
-        <v>429.27703279344013</v>
+        <v>382.00484531664011</v>
       </c>
       <c r="CB42" s="18">
         <f t="shared" si="34"/>
-        <v>455.03365476104653</v>
+        <v>414.56621070315379</v>
       </c>
       <c r="CC42" s="18">
         <f t="shared" ref="CC42:CG42" si="35">CC32*CC46</f>
-        <v>514.53805576826039</v>
+        <v>445.41764963920247</v>
       </c>
       <c r="CD42" s="18">
         <f t="shared" si="35"/>
-        <v>617.44566692191245</v>
+        <v>474.77472200178624</v>
       </c>
       <c r="CE42" s="18">
         <f t="shared" si="35"/>
-        <v>642.14349359878895</v>
+        <v>501.13534835770639</v>
       </c>
       <c r="CF42" s="18">
         <f t="shared" si="35"/>
-        <v>667.82923334274051</v>
+        <v>528.84518526689726</v>
       </c>
       <c r="CG42" s="18">
         <f t="shared" si="35"/>
-        <v>694.54240267645014</v>
+        <v>557.96999257145103</v>
       </c>
       <c r="CH42" s="16">
         <f>CG42*(1+$BZ$52)</f>
-        <v>715.37867475674364</v>
+        <v>574.7090923485946</v>
       </c>
       <c r="CI42" s="16">
         <f t="shared" ref="CI42:DQ42" si="36">CH42*(1+$BZ$52)</f>
-        <v>736.84003499944595</v>
+        <v>591.95036511905244</v>
       </c>
       <c r="CJ42" s="16">
         <f t="shared" si="36"/>
-        <v>758.94523604942935</v>
+        <v>609.70887607262398</v>
       </c>
       <c r="CK42" s="16">
         <f t="shared" si="36"/>
-        <v>781.71359313091227</v>
+        <v>628.00014235480273</v>
       </c>
       <c r="CL42" s="16">
         <f t="shared" si="36"/>
-        <v>805.16500092483966</v>
+        <v>646.84014662544678</v>
       </c>
       <c r="CM42" s="16">
         <f t="shared" si="36"/>
-        <v>829.31995095258492</v>
+        <v>666.24535102421021</v>
       </c>
       <c r="CN42" s="16">
         <f t="shared" si="36"/>
-        <v>854.19954948116253</v>
+        <v>686.23271155493649</v>
       </c>
       <c r="CO42" s="16">
         <f t="shared" si="36"/>
-        <v>879.8255359655974</v>
+        <v>706.81969290158463</v>
       </c>
       <c r="CP42" s="16">
         <f t="shared" si="36"/>
-        <v>906.2203020445653</v>
+        <v>728.02428368863218</v>
       </c>
       <c r="CQ42" s="16">
         <f t="shared" si="36"/>
-        <v>933.40691110590228</v>
+        <v>749.86501219929119</v>
       </c>
       <c r="CR42" s="16">
         <f t="shared" si="36"/>
-        <v>961.40911843907941</v>
+        <v>772.36096256526992</v>
       </c>
       <c r="CS42" s="16">
         <f t="shared" si="36"/>
-        <v>990.2513919922518</v>
+        <v>795.53179144222804</v>
       </c>
       <c r="CT42" s="16">
         <f t="shared" si="36"/>
-        <v>1019.9589337520193</v>
+        <v>819.39774518549495</v>
       </c>
       <c r="CU42" s="16">
         <f t="shared" si="36"/>
-        <v>1050.5577017645799</v>
+        <v>843.9796775410598</v>
       </c>
       <c r="CV42" s="16">
         <f t="shared" si="36"/>
-        <v>1082.0744328175174</v>
+        <v>869.29906786729157</v>
       </c>
       <c r="CW42" s="16">
         <f t="shared" si="36"/>
-        <v>1114.536665802043</v>
+        <v>895.37803990331031</v>
       </c>
       <c r="CX42" s="16">
         <f t="shared" si="36"/>
-        <v>1147.9727657761043</v>
+        <v>922.23938110040967</v>
       </c>
       <c r="CY42" s="16">
         <f t="shared" si="36"/>
-        <v>1182.4119487493874</v>
+        <v>949.90656253342195</v>
       </c>
       <c r="CZ42" s="16">
         <f t="shared" si="36"/>
-        <v>1217.8843072118691</v>
+        <v>978.40375940942465</v>
       </c>
       <c r="DA42" s="16">
         <f t="shared" si="36"/>
-        <v>1254.4208364282251</v>
+        <v>1007.7558721917075</v>
       </c>
       <c r="DB42" s="16">
         <f t="shared" si="36"/>
-        <v>1292.053461521072</v>
+        <v>1037.9885483574587</v>
       </c>
       <c r="DC42" s="16">
         <f t="shared" si="36"/>
-        <v>1330.8150653667042</v>
+        <v>1069.1282048081825</v>
       </c>
       <c r="DD42" s="16">
         <f t="shared" si="36"/>
-        <v>1370.7395173277052</v>
+        <v>1101.202050952428</v>
       </c>
       <c r="DE42" s="16">
         <f t="shared" si="36"/>
-        <v>1411.8617028475364</v>
+        <v>1134.2381124810008</v>
       </c>
       <c r="DF42" s="16">
         <f t="shared" si="36"/>
-        <v>1454.2175539329626</v>
+        <v>1168.265255855431</v>
       </c>
       <c r="DG42" s="16">
         <f t="shared" si="36"/>
-        <v>1497.8440805509515</v>
+        <v>1203.3132135310939</v>
       </c>
       <c r="DH42" s="16">
         <f t="shared" si="36"/>
-        <v>1542.7794029674801</v>
+        <v>1239.4126099370267</v>
       </c>
       <c r="DI42" s="16">
         <f t="shared" si="36"/>
-        <v>1589.0627850565045</v>
+        <v>1276.5949882351374</v>
       </c>
       <c r="DJ42" s="16">
         <f t="shared" si="36"/>
-        <v>1636.7346686081996</v>
+        <v>1314.8928378821915</v>
       </c>
       <c r="DK42" s="16">
         <f t="shared" si="36"/>
-        <v>1685.8367086664457</v>
+        <v>1354.3396230186572</v>
       </c>
       <c r="DL42" s="16">
         <f t="shared" si="36"/>
-        <v>1736.4118099264392</v>
+        <v>1394.9698117092171</v>
       </c>
       <c r="DM42" s="16">
         <f t="shared" si="36"/>
-        <v>1788.5041642242325</v>
+        <v>1436.8189060604936</v>
       </c>
       <c r="DN42" s="16">
         <f t="shared" si="36"/>
-        <v>1842.1592891509595</v>
+        <v>1479.9234732423085</v>
       </c>
       <c r="DO42" s="16">
         <f t="shared" si="36"/>
-        <v>1897.4240678254882</v>
+        <v>1524.3211774395779</v>
       </c>
       <c r="DP42" s="16">
         <f t="shared" si="36"/>
-        <v>1954.346789860253</v>
+        <v>1570.0508127627652</v>
       </c>
       <c r="DQ42" s="16">
         <f t="shared" si="36"/>
-        <v>2012.9771935560607</v>
+        <v>1617.1523371456483</v>
       </c>
     </row>
     <row r="44" spans="2:121">
@@ -6790,34 +6790,34 @@
         <v>0.58902913392077472</v>
       </c>
       <c r="BX44" s="20">
-        <v>0.6</v>
+        <v>0.65500000000000003</v>
       </c>
       <c r="BY44" s="20">
-        <v>0.62</v>
+        <v>0.66</v>
       </c>
       <c r="BZ44" s="20">
-        <v>0.64</v>
+        <v>0.66400000000000003</v>
       </c>
       <c r="CA44" s="20">
-        <v>0.66</v>
+        <v>0.66800000000000004</v>
       </c>
       <c r="CB44" s="20">
-        <v>0.66</v>
+        <v>0.67200000000000004</v>
       </c>
       <c r="CC44" s="20">
-        <v>0.66</v>
+        <v>0.67300000000000004</v>
       </c>
       <c r="CD44" s="20">
-        <v>0.66</v>
+        <v>0.67400000000000004</v>
       </c>
       <c r="CE44" s="20">
-        <v>0.67</v>
+        <v>0.67500000000000004</v>
       </c>
       <c r="CF44" s="20">
-        <v>0.67</v>
+        <v>0.67600000000000005</v>
       </c>
       <c r="CG44" s="20">
-        <v>0.68</v>
+        <v>0.67700000000000005</v>
       </c>
     </row>
     <row r="45" spans="2:121">
@@ -7093,34 +7093,34 @@
         <v>6.5888703659601491E-2</v>
       </c>
       <c r="BX45" s="20">
-        <v>0.15</v>
+        <v>0.183</v>
       </c>
       <c r="BY45" s="20">
-        <v>0.08</v>
+        <v>0.184</v>
       </c>
       <c r="BZ45" s="20">
-        <v>0.12</v>
+        <v>0.185</v>
       </c>
       <c r="CA45" s="20">
-        <v>0.13</v>
+        <v>0.186</v>
       </c>
       <c r="CB45" s="20">
-        <v>0.15</v>
+        <v>0.187</v>
       </c>
       <c r="CC45" s="20">
-        <v>0.16</v>
+        <v>0.187</v>
       </c>
       <c r="CD45" s="20">
-        <v>0.17</v>
+        <v>0.188</v>
       </c>
       <c r="CE45" s="20">
-        <v>0.18</v>
+        <v>0.189</v>
       </c>
       <c r="CF45" s="20">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
       <c r="CG45" s="20">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="46" spans="2:121">
@@ -7396,34 +7396,34 @@
         <v>4.0882749861078031E-2</v>
       </c>
       <c r="BX46" s="20">
-        <v>0.12</v>
+        <v>0.125</v>
       </c>
       <c r="BY46" s="20">
-        <v>0.125</v>
+        <v>7.8E-2</v>
       </c>
       <c r="BZ46" s="20">
-        <v>0.13</v>
+        <v>9.7000000000000003E-2</v>
       </c>
       <c r="CA46" s="20">
-        <v>0.13</v>
+        <v>0.126</v>
       </c>
       <c r="CB46" s="20">
-        <v>0.13</v>
+        <v>0.129</v>
       </c>
       <c r="CC46" s="20">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="CD46" s="20">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="CE46" s="20">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="CF46" s="20">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="CG46" s="20">
         <v>0.14000000000000001</v>
-      </c>
-      <c r="CD46" s="20">
-        <v>0.16</v>
-      </c>
-      <c r="CE46" s="20">
-        <v>0.16</v>
-      </c>
-      <c r="CF46" s="20">
-        <v>0.16</v>
-      </c>
-      <c r="CG46" s="20">
-        <v>0.16</v>
       </c>
     </row>
     <row r="47" spans="2:121">
@@ -7698,36 +7698,16 @@
         <f>BW36/BW32</f>
         <v>6.5015479876160992E-2</v>
       </c>
-      <c r="BX47" s="20">
-        <v>0.08</v>
-      </c>
-      <c r="BY47" s="20">
-        <v>0.08</v>
-      </c>
-      <c r="BZ47" s="20">
-        <v>0.08</v>
-      </c>
-      <c r="CA47" s="20">
-        <v>0.08</v>
-      </c>
-      <c r="CB47" s="20">
-        <v>0.08</v>
-      </c>
-      <c r="CC47" s="20">
-        <v>0.08</v>
-      </c>
-      <c r="CD47" s="20">
-        <v>0.08</v>
-      </c>
-      <c r="CE47" s="20">
-        <v>0.08</v>
-      </c>
-      <c r="CF47" s="20">
-        <v>0.08</v>
-      </c>
-      <c r="CG47" s="20">
-        <v>0.08</v>
-      </c>
+      <c r="BX47" s="20"/>
+      <c r="BY47" s="20"/>
+      <c r="BZ47" s="20"/>
+      <c r="CA47" s="20"/>
+      <c r="CB47" s="20"/>
+      <c r="CC47" s="20"/>
+      <c r="CD47" s="20"/>
+      <c r="CE47" s="20"/>
+      <c r="CF47" s="20"/>
+      <c r="CG47" s="20"/>
     </row>
     <row r="48" spans="2:121">
       <c r="B48" s="6" t="s">
@@ -8001,36 +7981,16 @@
         <f>BW35/BW32</f>
         <v>0.38937842343415097</v>
       </c>
-      <c r="BX48" s="20">
-        <v>0.4</v>
-      </c>
-      <c r="BY48" s="20">
-        <v>0.4</v>
-      </c>
-      <c r="BZ48" s="20">
-        <v>0.4</v>
-      </c>
-      <c r="CA48" s="20">
-        <v>0.4</v>
-      </c>
-      <c r="CB48" s="20">
-        <v>0.4</v>
-      </c>
-      <c r="CC48" s="20">
-        <v>0.4</v>
-      </c>
-      <c r="CD48" s="20">
-        <v>0.4</v>
-      </c>
-      <c r="CE48" s="20">
-        <v>0.4</v>
-      </c>
-      <c r="CF48" s="20">
-        <v>0.4</v>
-      </c>
-      <c r="CG48" s="20">
-        <v>0.4</v>
-      </c>
+      <c r="BX48" s="20"/>
+      <c r="BY48" s="20"/>
+      <c r="BZ48" s="20"/>
+      <c r="CA48" s="20"/>
+      <c r="CB48" s="20"/>
+      <c r="CC48" s="20"/>
+      <c r="CD48" s="20"/>
+      <c r="CE48" s="20"/>
+      <c r="CF48" s="20"/>
+      <c r="CG48" s="20"/>
     </row>
     <row r="49" spans="2:85">
       <c r="B49" s="6" t="s">
@@ -8290,13 +8250,13 @@
         <v>0.60635042081101753</v>
       </c>
       <c r="BX49" s="20">
-        <v>7.0000000000000007E-2</v>
+        <v>0.06</v>
       </c>
       <c r="BY49" s="20">
-        <v>0.08</v>
+        <v>0.02</v>
       </c>
       <c r="BZ49" s="20">
-        <v>7.0000000000000007E-2</v>
+        <v>0.05</v>
       </c>
       <c r="CA49" s="20">
         <v>0.06</v>
@@ -8342,7 +8302,7 @@
       </c>
       <c r="BZ53" s="17">
         <f>NPV(BZ51,BX42:DQ42)</f>
-        <v>9389.9160729781779</v>
+        <v>7562.2393729299547</v>
       </c>
     </row>
     <row r="54" spans="2:85">
@@ -8360,7 +8320,7 @@
       </c>
       <c r="BZ55" s="22">
         <f>BZ53/BZ54</f>
-        <v>68.364878580110513</v>
+        <v>55.058167986384817</v>
       </c>
     </row>
     <row r="56" spans="2:85">

--- a/GMED_Model.xlsx
+++ b/GMED_Model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Equity Research\Models\Health Care\MedTech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD83D759-2E80-4F9F-950D-B8A8FFC75BF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CB74E0C-5FD9-4BFD-80E8-22F09A356CAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>

--- a/GMED_Model.xlsx
+++ b/GMED_Model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Equity Research\Models\Health Care\MedTech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CB74E0C-5FD9-4BFD-80E8-22F09A356CAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EA87843-FAD5-4119-911B-741C95EF03C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -3136,7 +3136,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="BR25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BZ49" sqref="BZ49"/>
+      <selection pane="bottomRight" activeCell="CD49" sqref="CD49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
@@ -3956,35 +3956,35 @@
       </c>
       <c r="BZ32" s="18">
         <f t="shared" si="18"/>
-        <v>2860.1740440000008</v>
+        <v>2914.6535496000006</v>
       </c>
       <c r="CA32" s="18">
         <f t="shared" si="18"/>
-        <v>3031.784486640001</v>
+        <v>3118.6792980720006</v>
       </c>
       <c r="CB32" s="18">
         <f t="shared" si="18"/>
-        <v>3213.6915558384012</v>
+        <v>3305.8000559563206</v>
       </c>
       <c r="CC32" s="18">
         <f t="shared" si="18"/>
-        <v>3374.3761336303214</v>
+        <v>3504.1480593137003</v>
       </c>
       <c r="CD32" s="18">
         <f t="shared" si="18"/>
-        <v>3543.0949403118375</v>
+        <v>3679.3554622793854</v>
       </c>
       <c r="CE32" s="18">
         <f t="shared" si="18"/>
-        <v>3684.8187379243113</v>
+        <v>3826.5296807705608</v>
       </c>
       <c r="CF32" s="18">
         <f t="shared" si="18"/>
-        <v>3832.2114874412841</v>
+        <v>3979.5908680013836</v>
       </c>
       <c r="CG32" s="18">
         <f t="shared" si="18"/>
-        <v>3985.4999469389354</v>
+        <v>4138.7745027214387</v>
       </c>
       <c r="CH32" s="16"/>
       <c r="CI32" s="16"/>
@@ -5396,35 +5396,35 @@
       </c>
       <c r="BZ38" s="19">
         <f t="shared" ref="BZ38:CB38" si="32">BZ32*BZ45</f>
-        <v>529.13219814000013</v>
+        <v>539.21090667600015</v>
       </c>
       <c r="CA38" s="19">
         <f t="shared" si="32"/>
-        <v>563.91191451504017</v>
+        <v>580.07434944139209</v>
       </c>
       <c r="CB38" s="19">
         <f t="shared" si="32"/>
-        <v>600.96032094178099</v>
+        <v>618.18461046383197</v>
       </c>
       <c r="CC38" s="19">
         <f t="shared" ref="CC38:CG38" si="33">CC32*CC45</f>
-        <v>631.00833698887016</v>
+        <v>655.27568709166201</v>
       </c>
       <c r="CD38" s="19">
         <f t="shared" si="33"/>
-        <v>666.10184877862548</v>
+        <v>691.71882690852442</v>
       </c>
       <c r="CE38" s="19">
         <f t="shared" si="33"/>
-        <v>696.43074146769482</v>
+        <v>723.21410966563599</v>
       </c>
       <c r="CF38" s="19">
         <f t="shared" si="33"/>
-        <v>728.12018261384401</v>
+        <v>756.12226492026286</v>
       </c>
       <c r="CG38" s="19">
         <f t="shared" si="33"/>
-        <v>757.24498991839778</v>
+        <v>786.36715551707334</v>
       </c>
     </row>
     <row r="39" spans="2:121">
@@ -6342,179 +6342,179 @@
       </c>
       <c r="BZ42" s="18">
         <f t="shared" si="34"/>
-        <v>277.43688226800009</v>
+        <v>282.72139431120007</v>
       </c>
       <c r="CA42" s="18">
         <f t="shared" si="34"/>
-        <v>382.00484531664011</v>
+        <v>392.95359155707206</v>
       </c>
       <c r="CB42" s="18">
         <f t="shared" si="34"/>
-        <v>414.56621070315379</v>
+        <v>426.44820721836538</v>
       </c>
       <c r="CC42" s="18">
         <f t="shared" ref="CC42:CG42" si="35">CC32*CC46</f>
-        <v>445.41764963920247</v>
+        <v>462.54754382940848</v>
       </c>
       <c r="CD42" s="18">
         <f t="shared" si="35"/>
-        <v>474.77472200178624</v>
+        <v>493.03363194543766</v>
       </c>
       <c r="CE42" s="18">
         <f t="shared" si="35"/>
-        <v>501.13534835770639</v>
+        <v>520.40803658479626</v>
       </c>
       <c r="CF42" s="18">
         <f t="shared" si="35"/>
-        <v>528.84518526689726</v>
+        <v>549.183539784191</v>
       </c>
       <c r="CG42" s="18">
         <f t="shared" si="35"/>
-        <v>557.96999257145103</v>
+        <v>579.42843038100148</v>
       </c>
       <c r="CH42" s="16">
         <f>CG42*(1+$BZ$52)</f>
-        <v>574.7090923485946</v>
+        <v>596.81128329243154</v>
       </c>
       <c r="CI42" s="16">
         <f t="shared" ref="CI42:DQ42" si="36">CH42*(1+$BZ$52)</f>
-        <v>591.95036511905244</v>
+        <v>614.71562179120451</v>
       </c>
       <c r="CJ42" s="16">
         <f t="shared" si="36"/>
-        <v>609.70887607262398</v>
+        <v>633.15709044494065</v>
       </c>
       <c r="CK42" s="16">
         <f t="shared" si="36"/>
-        <v>628.00014235480273</v>
+        <v>652.15180315828889</v>
       </c>
       <c r="CL42" s="16">
         <f t="shared" si="36"/>
-        <v>646.84014662544678</v>
+        <v>671.71635725303759</v>
       </c>
       <c r="CM42" s="16">
         <f t="shared" si="36"/>
-        <v>666.24535102421021</v>
+        <v>691.86784797062876</v>
       </c>
       <c r="CN42" s="16">
         <f t="shared" si="36"/>
-        <v>686.23271155493649</v>
+        <v>712.62388340974769</v>
       </c>
       <c r="CO42" s="16">
         <f t="shared" si="36"/>
-        <v>706.81969290158463</v>
+        <v>734.00259991204018</v>
       </c>
       <c r="CP42" s="16">
         <f t="shared" si="36"/>
-        <v>728.02428368863218</v>
+        <v>756.02267790940141</v>
       </c>
       <c r="CQ42" s="16">
         <f t="shared" si="36"/>
-        <v>749.86501219929119</v>
+        <v>778.70335824668348</v>
       </c>
       <c r="CR42" s="16">
         <f t="shared" si="36"/>
-        <v>772.36096256526992</v>
+        <v>802.06445899408402</v>
       </c>
       <c r="CS42" s="16">
         <f t="shared" si="36"/>
-        <v>795.53179144222804</v>
+        <v>826.12639276390655</v>
       </c>
       <c r="CT42" s="16">
         <f t="shared" si="36"/>
-        <v>819.39774518549495</v>
+        <v>850.91018454682376</v>
       </c>
       <c r="CU42" s="16">
         <f t="shared" si="36"/>
-        <v>843.9796775410598</v>
+        <v>876.43749008322845</v>
       </c>
       <c r="CV42" s="16">
         <f t="shared" si="36"/>
-        <v>869.29906786729157</v>
+        <v>902.73061478572538</v>
       </c>
       <c r="CW42" s="16">
         <f t="shared" si="36"/>
-        <v>895.37803990331031</v>
+        <v>929.81253322929717</v>
       </c>
       <c r="CX42" s="16">
         <f t="shared" si="36"/>
-        <v>922.23938110040967</v>
+        <v>957.70690922617609</v>
       </c>
       <c r="CY42" s="16">
         <f t="shared" si="36"/>
-        <v>949.90656253342195</v>
+        <v>986.43811650296141</v>
       </c>
       <c r="CZ42" s="16">
         <f t="shared" si="36"/>
-        <v>978.40375940942465</v>
+        <v>1016.0312599980502</v>
       </c>
       <c r="DA42" s="16">
         <f t="shared" si="36"/>
-        <v>1007.7558721917075</v>
+        <v>1046.5121977979918</v>
       </c>
       <c r="DB42" s="16">
         <f t="shared" si="36"/>
-        <v>1037.9885483574587</v>
+        <v>1077.9075637319315</v>
       </c>
       <c r="DC42" s="16">
         <f t="shared" si="36"/>
-        <v>1069.1282048081825</v>
+        <v>1110.2447906438895</v>
       </c>
       <c r="DD42" s="16">
         <f t="shared" si="36"/>
-        <v>1101.202050952428</v>
+        <v>1143.5521343632063</v>
       </c>
       <c r="DE42" s="16">
         <f t="shared" si="36"/>
-        <v>1134.2381124810008</v>
+        <v>1177.8586983941025</v>
       </c>
       <c r="DF42" s="16">
         <f t="shared" si="36"/>
-        <v>1168.265255855431</v>
+        <v>1213.1944593459257</v>
       </c>
       <c r="DG42" s="16">
         <f t="shared" si="36"/>
-        <v>1203.3132135310939</v>
+        <v>1249.5902931263035</v>
       </c>
       <c r="DH42" s="16">
         <f t="shared" si="36"/>
-        <v>1239.4126099370267</v>
+        <v>1287.0780019200927</v>
       </c>
       <c r="DI42" s="16">
         <f t="shared" si="36"/>
-        <v>1276.5949882351374</v>
+        <v>1325.6903419776954</v>
       </c>
       <c r="DJ42" s="16">
         <f t="shared" si="36"/>
-        <v>1314.8928378821915</v>
+        <v>1365.4610522370263</v>
       </c>
       <c r="DK42" s="16">
         <f t="shared" si="36"/>
-        <v>1354.3396230186572</v>
+        <v>1406.4248838041372</v>
       </c>
       <c r="DL42" s="16">
         <f t="shared" si="36"/>
-        <v>1394.9698117092171</v>
+        <v>1448.6176303182613</v>
       </c>
       <c r="DM42" s="16">
         <f t="shared" si="36"/>
-        <v>1436.8189060604936</v>
+        <v>1492.0761592278091</v>
       </c>
       <c r="DN42" s="16">
         <f t="shared" si="36"/>
-        <v>1479.9234732423085</v>
+        <v>1536.8384440046434</v>
       </c>
       <c r="DO42" s="16">
         <f t="shared" si="36"/>
-        <v>1524.3211774395779</v>
+        <v>1582.9435973247828</v>
       </c>
       <c r="DP42" s="16">
         <f t="shared" si="36"/>
-        <v>1570.0508127627652</v>
+        <v>1630.4319052445262</v>
       </c>
       <c r="DQ42" s="16">
         <f t="shared" si="36"/>
-        <v>1617.1523371456483</v>
+        <v>1679.344862401862</v>
       </c>
     </row>
     <row r="44" spans="2:121">
@@ -8256,16 +8256,16 @@
         <v>0.02</v>
       </c>
       <c r="BZ49" s="20">
-        <v>0.05</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="CA49" s="20">
-        <v>0.06</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="CB49" s="20">
         <v>0.06</v>
       </c>
       <c r="CC49" s="20">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="CD49" s="20">
         <v>0.05</v>
@@ -8302,7 +8302,7 @@
       </c>
       <c r="BZ53" s="17">
         <f>NPV(BZ51,BX42:DQ42)</f>
-        <v>7562.2393729299547</v>
+        <v>7824.088971661793</v>
       </c>
     </row>
     <row r="54" spans="2:85">
@@ -8320,7 +8320,7 @@
       </c>
       <c r="BZ55" s="22">
         <f>BZ53/BZ54</f>
-        <v>55.058167986384817</v>
+        <v>56.964608457675965</v>
       </c>
     </row>
     <row r="56" spans="2:85">
